--- a/results/data_2018-2019.xlsx
+++ b/results/data_2018-2019.xlsx
@@ -70,6 +70,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -533,13 +601,13 @@
         <v>31.23</v>
       </c>
       <c r="J2" t="n">
-        <v>2329.566113069174</v>
+        <v>2329.566113073457</v>
       </c>
       <c r="K2" t="n">
         <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>2454.304843759089</v>
+        <v>2454.304843712654</v>
       </c>
       <c r="M2" t="n">
         <v>2</v>
@@ -554,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="Q2" t="n">
-        <v>7.813251579445534</v>
+        <v>7.813251579419523</v>
       </c>
       <c r="R2" t="n">
         <v>25</v>
@@ -618,13 +686,13 @@
         <v>31.45</v>
       </c>
       <c r="J3" t="n">
-        <v>2324.120687655742</v>
+        <v>2324.120687700832</v>
       </c>
       <c r="K3" t="n">
         <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>2455.349875746049</v>
+        <v>2455.349875765601</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
@@ -639,7 +707,7 @@
         <v>2</v>
       </c>
       <c r="Q3" t="n">
-        <v>7.773487974765056</v>
+        <v>7.773487974780821</v>
       </c>
       <c r="R3" t="n">
         <v>25</v>
@@ -703,13 +771,13 @@
         <v>31.3</v>
       </c>
       <c r="J4" t="n">
-        <v>2262.957782381555</v>
+        <v>2262.957782385394</v>
       </c>
       <c r="K4" t="n">
         <v>2</v>
       </c>
       <c r="L4" t="n">
-        <v>2433.638252865927</v>
+        <v>2433.638252922357</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
@@ -724,7 +792,7 @@
         <v>2</v>
       </c>
       <c r="Q4" t="n">
-        <v>7.913611440778447</v>
+        <v>7.913611440815711</v>
       </c>
       <c r="R4" t="n">
         <v>25</v>
@@ -788,13 +856,13 @@
         <v>31.71</v>
       </c>
       <c r="J5" t="n">
-        <v>2160.747863420224</v>
+        <v>2160.747863426406</v>
       </c>
       <c r="K5" t="n">
         <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>2464.447609380989</v>
+        <v>2464.447609355509</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
@@ -809,7 +877,7 @@
         <v>2</v>
       </c>
       <c r="Q5" t="n">
-        <v>8.164166583745837</v>
+        <v>8.164166583731131</v>
       </c>
       <c r="R5" t="n">
         <v>25</v>
@@ -873,13 +941,13 @@
         <v>31.76</v>
       </c>
       <c r="J6" t="n">
-        <v>2020.066553231017</v>
+        <v>2020.066553234569</v>
       </c>
       <c r="K6" t="n">
         <v>2</v>
       </c>
       <c r="L6" t="n">
-        <v>2441.160540850664</v>
+        <v>2441.160540842557</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
@@ -894,7 +962,7 @@
         <v>2</v>
       </c>
       <c r="Q6" t="n">
-        <v>8.332129166619039</v>
+        <v>8.332129166621511</v>
       </c>
       <c r="R6" t="n">
         <v>25</v>
@@ -964,7 +1032,7 @@
         <v>2</v>
       </c>
       <c r="L7" t="n">
-        <v>2435.925252219204</v>
+        <v>2435.925252212133</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
@@ -979,7 +1047,7 @@
         <v>2</v>
       </c>
       <c r="Q7" t="n">
-        <v>8.142998819053032</v>
+        <v>8.14299881905642</v>
       </c>
       <c r="R7" t="n">
         <v>25</v>
@@ -1051,7 +1119,7 @@
         <v>9</v>
       </c>
       <c r="L8" t="n">
-        <v>2476.435299923208</v>
+        <v>2476.4352999381</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
@@ -1229,13 +1297,13 @@
         <v>32.38</v>
       </c>
       <c r="J10" t="n">
-        <v>2202.81931196769</v>
+        <v>2202.819311884705</v>
       </c>
       <c r="K10" t="n">
         <v>2</v>
       </c>
       <c r="L10" t="n">
-        <v>2426.311426794839</v>
+        <v>2426.31142674574</v>
       </c>
       <c r="M10" t="n">
         <v>2</v>
@@ -1250,7 +1318,7 @@
         <v>2</v>
       </c>
       <c r="Q10" t="n">
-        <v>7.993276256892501</v>
+        <v>7.993276256857767</v>
       </c>
       <c r="R10" t="n">
         <v>25</v>
@@ -1314,13 +1382,13 @@
         <v>32.55</v>
       </c>
       <c r="J11" t="n">
-        <v>2211.472744918033</v>
+        <v>2211.472744901815</v>
       </c>
       <c r="K11" t="n">
         <v>2</v>
       </c>
       <c r="L11" t="n">
-        <v>2423.564539954086</v>
+        <v>2423.5645399222</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
@@ -1335,7 +1403,7 @@
         <v>2</v>
       </c>
       <c r="Q11" t="n">
-        <v>7.987271730039692</v>
+        <v>7.987271730017266</v>
       </c>
       <c r="R11" t="n">
         <v>25</v>
@@ -1399,13 +1467,13 @@
         <v>32.41</v>
       </c>
       <c r="J12" t="n">
-        <v>2275.991031678957</v>
+        <v>2275.990952581351</v>
       </c>
       <c r="K12" t="n">
         <v>2</v>
       </c>
       <c r="L12" t="n">
-        <v>2425.638913105081</v>
+        <v>2425.638912119448</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
@@ -1420,7 +1488,7 @@
         <v>2</v>
       </c>
       <c r="Q12" t="n">
-        <v>7.870632149233863</v>
+        <v>7.870632149004734</v>
       </c>
       <c r="R12" t="n">
         <v>25</v>
@@ -1484,13 +1552,13 @@
         <v>32.59</v>
       </c>
       <c r="J13" t="n">
-        <v>2279.59251312186</v>
+        <v>2279.591558513117</v>
       </c>
       <c r="K13" t="n">
         <v>2</v>
       </c>
       <c r="L13" t="n">
-        <v>2433.001037911485</v>
+        <v>2433.001029253932</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
@@ -1505,7 +1573,7 @@
         <v>2</v>
       </c>
       <c r="Q13" t="n">
-        <v>7.840266065923313</v>
+        <v>7.840266062430897</v>
       </c>
       <c r="R13" t="n">
         <v>25</v>
@@ -1569,13 +1637,13 @@
         <v>31.45</v>
       </c>
       <c r="J14" t="n">
-        <v>2271.864656870634</v>
+        <v>2271.864656881745</v>
       </c>
       <c r="K14" t="n">
         <v>2</v>
       </c>
       <c r="L14" t="n">
-        <v>2403.080044305084</v>
+        <v>2403.080043992391</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
@@ -1590,7 +1658,7 @@
         <v>2</v>
       </c>
       <c r="Q14" t="n">
-        <v>7.812022907170165</v>
+        <v>7.812022907221515</v>
       </c>
       <c r="R14" t="n">
         <v>25</v>
@@ -1654,13 +1722,13 @@
         <v>31.4</v>
       </c>
       <c r="J15" t="n">
-        <v>2289.957389490443</v>
+        <v>2289.957387445029</v>
       </c>
       <c r="K15" t="n">
         <v>2</v>
       </c>
       <c r="L15" t="n">
-        <v>2402.510668177764</v>
+        <v>2402.510667863017</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
@@ -1675,7 +1743,7 @@
         <v>2</v>
       </c>
       <c r="Q15" t="n">
-        <v>7.791297538019338</v>
+        <v>7.791297538074267</v>
       </c>
       <c r="R15" t="n">
         <v>25</v>
@@ -1739,13 +1807,13 @@
         <v>32.58</v>
       </c>
       <c r="J16" t="n">
-        <v>2005.754991309842</v>
+        <v>2005.755002927094</v>
       </c>
       <c r="K16" t="n">
         <v>2</v>
       </c>
       <c r="L16" t="n">
-        <v>2381.482932123419</v>
+        <v>2381.482932163933</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
@@ -1764,7 +1832,7 @@
         <v>9</v>
       </c>
       <c r="Q16" t="n">
-        <v>8.275309889104667</v>
+        <v>8.27530988910487</v>
       </c>
       <c r="R16" t="n">
         <v>25</v>
@@ -1828,13 +1896,13 @@
         <v>32.25</v>
       </c>
       <c r="J17" t="n">
-        <v>2047.200634504497</v>
+        <v>2047.200617221434</v>
       </c>
       <c r="K17" t="n">
         <v>2</v>
       </c>
       <c r="L17" t="n">
-        <v>2406.713508207472</v>
+        <v>2406.713508055424</v>
       </c>
       <c r="M17" t="n">
         <v>2</v>
@@ -1849,7 +1917,7 @@
         <v>2</v>
       </c>
       <c r="Q17" t="n">
-        <v>8.255211604985607</v>
+        <v>8.25521160491127</v>
       </c>
       <c r="R17" t="n">
         <v>25</v>
@@ -1913,13 +1981,13 @@
         <v>31.77</v>
       </c>
       <c r="J18" t="n">
-        <v>2293.29461006234</v>
+        <v>2293.294610067053</v>
       </c>
       <c r="K18" t="n">
         <v>2</v>
       </c>
       <c r="L18" t="n">
-        <v>2465.074581516985</v>
+        <v>2465.074581533281</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
@@ -1934,7 +2002,7 @@
         <v>2</v>
       </c>
       <c r="Q18" t="n">
-        <v>7.912020733039822</v>
+        <v>7.912020733046681</v>
       </c>
       <c r="R18" t="n">
         <v>25</v>
@@ -1998,13 +2066,13 @@
         <v>32.21</v>
       </c>
       <c r="J19" t="n">
-        <v>2166.427349403701</v>
+        <v>2166.427357135251</v>
       </c>
       <c r="K19" t="n">
         <v>2</v>
       </c>
       <c r="L19" t="n">
-        <v>2412.713034635104</v>
+        <v>2412.713034720899</v>
       </c>
       <c r="M19" t="n">
         <v>2</v>
@@ -2019,7 +2087,7 @@
         <v>2</v>
       </c>
       <c r="Q19" t="n">
-        <v>8.065842423949155</v>
+        <v>8.065842423986354</v>
       </c>
       <c r="R19" t="n">
         <v>25</v>
@@ -2083,13 +2151,13 @@
         <v>32.67</v>
       </c>
       <c r="J20" t="n">
-        <v>2198.792425340544</v>
+        <v>2198.792424577428</v>
       </c>
       <c r="K20" t="n">
         <v>2</v>
       </c>
       <c r="L20" t="n">
-        <v>2421.655677685009</v>
+        <v>2421.655677673231</v>
       </c>
       <c r="M20" t="n">
         <v>2</v>
@@ -2104,7 +2172,7 @@
         <v>3</v>
       </c>
       <c r="Q20" t="n">
-        <v>7.985942197153864</v>
+        <v>7.985942197152188</v>
       </c>
       <c r="R20" t="n">
         <v>25</v>
@@ -2172,13 +2240,13 @@
         <v>33.58</v>
       </c>
       <c r="J21" t="n">
-        <v>2149.625290055382</v>
+        <v>2149.625297419993</v>
       </c>
       <c r="K21" t="n">
         <v>2</v>
       </c>
       <c r="L21" t="n">
-        <v>2387.02366202039</v>
+        <v>2387.023662024255</v>
       </c>
       <c r="M21" t="n">
         <v>2</v>
@@ -2193,7 +2261,7 @@
         <v>2</v>
       </c>
       <c r="Q21" t="n">
-        <v>8.022620757255549</v>
+        <v>8.022620757247951</v>
       </c>
       <c r="R21" t="n">
         <v>25</v>
@@ -2269,13 +2337,13 @@
         <v>33.6</v>
       </c>
       <c r="J22" t="n">
-        <v>2212.550951339221</v>
+        <v>2212.550951359366</v>
       </c>
       <c r="K22" t="n">
         <v>2</v>
       </c>
       <c r="L22" t="n">
-        <v>2364.22550751759</v>
+        <v>2364.22550747534</v>
       </c>
       <c r="M22" t="n">
         <v>2</v>
@@ -2290,7 +2358,7 @@
         <v>2</v>
       </c>
       <c r="Q22" t="n">
-        <v>7.856735646930781</v>
+        <v>7.856735646906569</v>
       </c>
       <c r="R22" t="n">
         <v>25</v>
@@ -2358,13 +2426,13 @@
         <v>33.12</v>
       </c>
       <c r="J23" t="n">
-        <v>2257.345500634949</v>
+        <v>2257.345500678109</v>
       </c>
       <c r="K23" t="n">
         <v>2</v>
       </c>
       <c r="L23" t="n">
-        <v>2397.485008837857</v>
+        <v>2397.485008838953</v>
       </c>
       <c r="M23" t="n">
         <v>2</v>
@@ -2379,7 +2447,7 @@
         <v>2</v>
       </c>
       <c r="Q23" t="n">
-        <v>7.836355440706626</v>
+        <v>7.836355440708316</v>
       </c>
       <c r="R23" t="n">
         <v>25</v>
@@ -2447,13 +2515,13 @@
         <v>33.12</v>
       </c>
       <c r="J24" t="n">
-        <v>2275.348943106671</v>
+        <v>2275.348943112259</v>
       </c>
       <c r="K24" t="n">
         <v>2</v>
       </c>
       <c r="L24" t="n">
-        <v>2429.818132546631</v>
+        <v>2429.81813255393</v>
       </c>
       <c r="M24" t="n">
         <v>2</v>
@@ -2468,7 +2536,7 @@
         <v>2</v>
       </c>
       <c r="Q24" t="n">
-        <v>7.881498126604464</v>
+        <v>7.881498126611769</v>
       </c>
       <c r="R24" t="n">
         <v>25</v>
@@ -2536,13 +2604,13 @@
         <v>32.84</v>
       </c>
       <c r="J25" t="n">
-        <v>2135.659092055402</v>
+        <v>2135.659092061132</v>
       </c>
       <c r="K25" t="n">
         <v>2</v>
       </c>
       <c r="L25" t="n">
-        <v>2430.471405652693</v>
+        <v>2430.471405674939</v>
       </c>
       <c r="M25" t="n">
         <v>2</v>
@@ -2557,7 +2625,7 @@
         <v>2</v>
       </c>
       <c r="Q25" t="n">
-        <v>8.148215874700464</v>
+        <v>8.148215874717643</v>
       </c>
       <c r="R25" t="n">
         <v>25</v>
@@ -2625,13 +2693,13 @@
         <v>32.08</v>
       </c>
       <c r="J26" t="n">
-        <v>2050.960035479121</v>
+        <v>2050.960035485124</v>
       </c>
       <c r="K26" t="n">
         <v>2</v>
       </c>
       <c r="L26" t="n">
-        <v>2438.718670678681</v>
+        <v>2438.718670690054</v>
       </c>
       <c r="M26" t="n">
         <v>2</v>
@@ -2646,7 +2714,7 @@
         <v>2</v>
       </c>
       <c r="Q26" t="n">
-        <v>8.283460934237938</v>
+        <v>8.283460934252803</v>
       </c>
       <c r="R26" t="n">
         <v>25</v>
@@ -2720,7 +2788,7 @@
         <v>2</v>
       </c>
       <c r="L27" t="n">
-        <v>2434.672646950416</v>
+        <v>2434.672646969553</v>
       </c>
       <c r="M27" t="n">
         <v>2</v>
@@ -2735,7 +2803,7 @@
         <v>3</v>
       </c>
       <c r="Q27" t="n">
-        <v>8.037514422029034</v>
+        <v>8.037514422047632</v>
       </c>
       <c r="R27" t="n">
         <v>25</v>
@@ -2803,13 +2871,13 @@
         <v>32.23</v>
       </c>
       <c r="J28" t="n">
-        <v>2212.001999364258</v>
+        <v>2212.002002330374</v>
       </c>
       <c r="K28" t="n">
         <v>2</v>
       </c>
       <c r="L28" t="n">
-        <v>2439.615072507359</v>
+        <v>2439.61507254241</v>
       </c>
       <c r="M28" t="n">
         <v>2</v>
@@ -2824,7 +2892,7 @@
         <v>2</v>
       </c>
       <c r="Q28" t="n">
-        <v>8.054973642141675</v>
+        <v>8.05497364216518</v>
       </c>
       <c r="R28" t="n">
         <v>25</v>
@@ -2993,13 +3061,13 @@
         <v>33.12</v>
       </c>
       <c r="J30" t="n">
-        <v>2172.808980844522</v>
+        <v>2172.808980760022</v>
       </c>
       <c r="K30" t="n">
         <v>2</v>
       </c>
       <c r="L30" t="n">
-        <v>2415.330574633166</v>
+        <v>2415.330574622039</v>
       </c>
       <c r="M30" t="n">
         <v>2</v>
@@ -3014,7 +3082,7 @@
         <v>2</v>
       </c>
       <c r="Q30" t="n">
-        <v>8.04825931661728</v>
+        <v>8.048259316609281</v>
       </c>
       <c r="R30" t="n">
         <v>25</v>
@@ -3082,13 +3150,13 @@
         <v>32.02</v>
       </c>
       <c r="J31" t="n">
-        <v>2193.000314766405</v>
+        <v>2193.000314757807</v>
       </c>
       <c r="K31" t="n">
         <v>2</v>
       </c>
       <c r="L31" t="n">
-        <v>2422.863710971693</v>
+        <v>2422.863710956863</v>
       </c>
       <c r="M31" t="n">
         <v>2</v>
@@ -3103,7 +3171,7 @@
         <v>2</v>
       </c>
       <c r="Q31" t="n">
-        <v>8.024088961105791</v>
+        <v>8.024088961097304</v>
       </c>
       <c r="R31" t="n">
         <v>25</v>
@@ -3171,13 +3239,13 @@
         <v>33.01</v>
       </c>
       <c r="J32" t="n">
-        <v>2235.290245344433</v>
+        <v>2235.29017867397</v>
       </c>
       <c r="K32" t="n">
         <v>2</v>
       </c>
       <c r="L32" t="n">
-        <v>2418.490115878687</v>
+        <v>2418.490115021747</v>
       </c>
       <c r="M32" t="n">
         <v>2</v>
@@ -3192,7 +3260,7 @@
         <v>2</v>
       </c>
       <c r="Q32" t="n">
-        <v>7.930769511184084</v>
+        <v>7.930769511013868</v>
       </c>
       <c r="R32" t="n">
         <v>25</v>
@@ -3260,13 +3328,13 @@
         <v>33.46</v>
       </c>
       <c r="J33" t="n">
-        <v>2242.347040440971</v>
+        <v>2242.346114657335</v>
       </c>
       <c r="K33" t="n">
         <v>2</v>
       </c>
       <c r="L33" t="n">
-        <v>2397.986785335324</v>
+        <v>2397.986777290558</v>
       </c>
       <c r="M33" t="n">
         <v>2</v>
@@ -3281,7 +3349,7 @@
         <v>2</v>
       </c>
       <c r="Q33" t="n">
-        <v>7.855748696939444</v>
+        <v>7.855748693540134</v>
       </c>
       <c r="R33" t="n">
         <v>25</v>
@@ -3349,13 +3417,13 @@
         <v>32.06</v>
       </c>
       <c r="J34" t="n">
-        <v>2259.085640826824</v>
+        <v>2259.085640836694</v>
       </c>
       <c r="K34" t="n">
         <v>2</v>
       </c>
       <c r="L34" t="n">
-        <v>2390.639547765475</v>
+        <v>2390.639547467107</v>
       </c>
       <c r="M34" t="n">
         <v>2</v>
@@ -3370,7 +3438,7 @@
         <v>2</v>
       </c>
       <c r="Q34" t="n">
-        <v>7.818239907567488</v>
+        <v>7.818239907628313</v>
       </c>
       <c r="R34" t="n">
         <v>25</v>
@@ -3438,13 +3506,13 @@
         <v>32.54</v>
       </c>
       <c r="J35" t="n">
-        <v>2268.02880277186</v>
+        <v>2268.028808154517</v>
       </c>
       <c r="K35" t="n">
         <v>2</v>
       </c>
       <c r="L35" t="n">
-        <v>2392.984320466475</v>
+        <v>2392.984320194541</v>
       </c>
       <c r="M35" t="n">
         <v>2</v>
@@ -3459,7 +3527,7 @@
         <v>2</v>
       </c>
       <c r="Q35" t="n">
-        <v>7.808845276238828</v>
+        <v>7.808845276306571</v>
       </c>
       <c r="R35" t="n">
         <v>25</v>
@@ -3628,13 +3696,13 @@
         <v>33.02</v>
       </c>
       <c r="J37" t="n">
-        <v>2039.683234636002</v>
+        <v>2039.683220854177</v>
       </c>
       <c r="K37" t="n">
         <v>2</v>
       </c>
       <c r="L37" t="n">
-        <v>2403.054665513855</v>
+        <v>2403.054665399925</v>
       </c>
       <c r="M37" t="n">
         <v>2</v>
@@ -3649,7 +3717,7 @@
         <v>2</v>
       </c>
       <c r="Q37" t="n">
-        <v>8.253989613182405</v>
+        <v>8.253989613126974</v>
       </c>
       <c r="R37" t="n">
         <v>25</v>
@@ -3717,13 +3785,13 @@
         <v>33.5</v>
       </c>
       <c r="J38" t="n">
-        <v>2207.141051587543</v>
+        <v>2207.141051590424</v>
       </c>
       <c r="K38" t="n">
         <v>2</v>
       </c>
       <c r="L38" t="n">
-        <v>2409.450334823306</v>
+        <v>2409.450334820109</v>
       </c>
       <c r="M38" t="n">
         <v>2</v>
@@ -3738,7 +3806,7 @@
         <v>2</v>
       </c>
       <c r="Q38" t="n">
-        <v>7.969536916871371</v>
+        <v>7.969536916865764</v>
       </c>
       <c r="R38" t="n">
         <v>25</v>
@@ -3806,13 +3874,13 @@
         <v>33.37</v>
       </c>
       <c r="J39" t="n">
-        <v>2174.914551898354</v>
+        <v>2174.914561150951</v>
       </c>
       <c r="K39" t="n">
         <v>2</v>
       </c>
       <c r="L39" t="n">
-        <v>2410.36472926746</v>
+        <v>2410.364729326307</v>
       </c>
       <c r="M39" t="n">
         <v>2</v>
@@ -3827,7 +3895,7 @@
         <v>2</v>
       </c>
       <c r="Q39" t="n">
-        <v>8.033608606085542</v>
+        <v>8.033608606102506</v>
       </c>
       <c r="R39" t="n">
         <v>25</v>
@@ -3895,13 +3963,13 @@
         <v>34.43</v>
       </c>
       <c r="J40" t="n">
-        <v>2136.650010694302</v>
+        <v>2136.650007646152</v>
       </c>
       <c r="K40" t="n">
         <v>2</v>
       </c>
       <c r="L40" t="n">
-        <v>2360.025366872949</v>
+        <v>2360.025366846968</v>
       </c>
       <c r="M40" t="n">
         <v>2</v>
@@ -3916,7 +3984,7 @@
         <v>2</v>
       </c>
       <c r="Q40" t="n">
-        <v>7.995585635356933</v>
+        <v>7.995585635350004</v>
       </c>
       <c r="R40" t="n">
         <v>25</v>
@@ -3988,13 +4056,13 @@
         <v>34.13</v>
       </c>
       <c r="J41" t="n">
-        <v>2122.968885966363</v>
+        <v>2122.968891476704</v>
       </c>
       <c r="K41" t="n">
         <v>2</v>
       </c>
       <c r="L41" t="n">
-        <v>2359.860150315078</v>
+        <v>2359.860150359946</v>
       </c>
       <c r="M41" t="n">
         <v>2</v>
@@ -4009,7 +4077,7 @@
         <v>2</v>
       </c>
       <c r="Q41" t="n">
-        <v>8.028244257899006</v>
+        <v>8.028244257920898</v>
       </c>
       <c r="R41" t="n">
         <v>25</v>
@@ -4089,13 +4157,13 @@
         <v>35.27</v>
       </c>
       <c r="J42" t="n">
-        <v>2142.011056355302</v>
+        <v>2142.011056385368</v>
       </c>
       <c r="K42" t="n">
         <v>2</v>
       </c>
       <c r="L42" t="n">
-        <v>2319.926564819105</v>
+        <v>2319.926564841169</v>
       </c>
       <c r="M42" t="n">
         <v>2</v>
@@ -4110,7 +4178,7 @@
         <v>2</v>
       </c>
       <c r="Q42" t="n">
-        <v>7.904261944005211</v>
+        <v>7.904261944020939</v>
       </c>
       <c r="R42" t="n">
         <v>25</v>
@@ -4178,13 +4246,13 @@
         <v>35.21</v>
       </c>
       <c r="J43" t="n">
-        <v>2148.215630098335</v>
+        <v>2148.215630138799</v>
       </c>
       <c r="K43" t="n">
         <v>2</v>
       </c>
       <c r="L43" t="n">
-        <v>2332.715976348356</v>
+        <v>2332.715976360297</v>
       </c>
       <c r="M43" t="n">
         <v>2</v>
@@ -4199,7 +4267,7 @@
         <v>2</v>
       </c>
       <c r="Q43" t="n">
-        <v>7.920789616119866</v>
+        <v>7.92078961612838</v>
       </c>
       <c r="R43" t="n">
         <v>25</v>
@@ -4267,13 +4335,13 @@
         <v>34.9</v>
       </c>
       <c r="J44" t="n">
-        <v>2140.05431475997</v>
+        <v>2140.054314766567</v>
       </c>
       <c r="K44" t="n">
         <v>2</v>
       </c>
       <c r="L44" t="n">
-        <v>2342.704994934526</v>
+        <v>2342.704995010567</v>
       </c>
       <c r="M44" t="n">
         <v>2</v>
@@ -4288,7 +4356,7 @@
         <v>2</v>
       </c>
       <c r="Q44" t="n">
-        <v>7.968451558161409</v>
+        <v>7.968451558210308</v>
       </c>
       <c r="R44" t="n">
         <v>25</v>
@@ -4356,13 +4424,13 @@
         <v>35.03</v>
       </c>
       <c r="J45" t="n">
-        <v>2078.30175338771</v>
+        <v>2078.301753392944</v>
       </c>
       <c r="K45" t="n">
         <v>2</v>
       </c>
       <c r="L45" t="n">
-        <v>2347.155837151478</v>
+        <v>2347.155837118769</v>
       </c>
       <c r="M45" t="n">
         <v>2</v>
@@ -4377,7 +4445,7 @@
         <v>2</v>
       </c>
       <c r="Q45" t="n">
-        <v>8.091061844042969</v>
+        <v>8.091061844026802</v>
       </c>
       <c r="R45" t="n">
         <v>25</v>
@@ -4445,13 +4513,13 @@
         <v>34.2</v>
       </c>
       <c r="J46" t="n">
-        <v>2033.697547921136</v>
+        <v>2033.697547928604</v>
       </c>
       <c r="K46" t="n">
         <v>2</v>
       </c>
       <c r="L46" t="n">
-        <v>2337.193371328324</v>
+        <v>2337.193371375446</v>
       </c>
       <c r="M46" t="n">
         <v>2</v>
@@ -4466,7 +4534,7 @@
         <v>2</v>
       </c>
       <c r="Q46" t="n">
-        <v>8.149046233325208</v>
+        <v>8.149046233363352</v>
       </c>
       <c r="R46" t="n">
         <v>25</v>
@@ -4550,7 +4618,7 @@
         <v>2</v>
       </c>
       <c r="L47" t="n">
-        <v>2332.378348664313</v>
+        <v>2332.378348621651</v>
       </c>
       <c r="M47" t="n">
         <v>2</v>
@@ -4565,7 +4633,7 @@
         <v>2</v>
       </c>
       <c r="Q47" t="n">
-        <v>8.051298214742003</v>
+        <v>8.051298214722644</v>
       </c>
       <c r="R47" t="n">
         <v>25</v>
@@ -4633,13 +4701,13 @@
         <v>34.67</v>
       </c>
       <c r="J48" t="n">
-        <v>2109.621635083734</v>
+        <v>2109.621637776304</v>
       </c>
       <c r="K48" t="n">
         <v>2</v>
       </c>
       <c r="L48" t="n">
-        <v>2338.062652231697</v>
+        <v>2338.062652222166</v>
       </c>
       <c r="M48" t="n">
         <v>2</v>
@@ -4654,7 +4722,7 @@
         <v>3</v>
       </c>
       <c r="Q48" t="n">
-        <v>8.022703081186119</v>
+        <v>8.022703081184002</v>
       </c>
       <c r="R48" t="n">
         <v>25</v>
@@ -4823,13 +4891,13 @@
         <v>34.89</v>
       </c>
       <c r="J50" t="n">
-        <v>2106.947422232994</v>
+        <v>2106.947422149693</v>
       </c>
       <c r="K50" t="n">
         <v>2</v>
       </c>
       <c r="L50" t="n">
-        <v>2324.90271202873</v>
+        <v>2324.902712013128</v>
       </c>
       <c r="M50" t="n">
         <v>2</v>
@@ -4844,7 +4912,7 @@
         <v>2</v>
       </c>
       <c r="Q50" t="n">
-        <v>7.993048657595757</v>
+        <v>7.993048657587506</v>
       </c>
       <c r="R50" t="n">
         <v>25</v>
@@ -4912,13 +4980,13 @@
         <v>35.01</v>
       </c>
       <c r="J51" t="n">
-        <v>2099.090906372435</v>
+        <v>2099.090906372622</v>
       </c>
       <c r="K51" t="n">
         <v>2</v>
       </c>
       <c r="L51" t="n">
-        <v>2320.256446383256</v>
+        <v>2320.256446394849</v>
       </c>
       <c r="M51" t="n">
         <v>2</v>
@@ -4933,7 +5001,7 @@
         <v>2</v>
       </c>
       <c r="Q51" t="n">
-        <v>8.003307574275029</v>
+        <v>8.003307574282188</v>
       </c>
       <c r="R51" t="n">
         <v>25</v>
@@ -5001,13 +5069,13 @@
         <v>35.02</v>
       </c>
       <c r="J52" t="n">
-        <v>2120.218098439203</v>
+        <v>2120.21807251367</v>
       </c>
       <c r="K52" t="n">
         <v>2</v>
       </c>
       <c r="L52" t="n">
-        <v>2321.78062150342</v>
+        <v>2321.78062091936</v>
       </c>
       <c r="M52" t="n">
         <v>2</v>
@@ -5022,7 +5090,7 @@
         <v>2</v>
       </c>
       <c r="Q52" t="n">
-        <v>7.960303754567618</v>
+        <v>7.960303754488607</v>
       </c>
       <c r="R52" t="n">
         <v>25</v>
@@ -5090,13 +5158,13 @@
         <v>34.95</v>
       </c>
       <c r="J53" t="n">
-        <v>2133.27169236104</v>
+        <v>2133.270861733652</v>
       </c>
       <c r="K53" t="n">
         <v>2</v>
       </c>
       <c r="L53" t="n">
-        <v>2312.698919084408</v>
+        <v>2312.698910018903</v>
       </c>
       <c r="M53" t="n">
         <v>2</v>
@@ -5111,7 +5179,7 @@
         <v>2</v>
       </c>
       <c r="Q53" t="n">
-        <v>7.909199545258732</v>
+        <v>7.909199541294532</v>
       </c>
       <c r="R53" t="n">
         <v>25</v>
@@ -5179,13 +5247,13 @@
         <v>34.84</v>
       </c>
       <c r="J54" t="n">
-        <v>2133.485799267583</v>
+        <v>2133.485799275861</v>
       </c>
       <c r="K54" t="n">
         <v>2</v>
       </c>
       <c r="L54" t="n">
-        <v>2311.534411772371</v>
+        <v>2311.534411492533</v>
       </c>
       <c r="M54" t="n">
         <v>2</v>
@@ -5200,7 +5268,7 @@
         <v>2</v>
       </c>
       <c r="Q54" t="n">
-        <v>7.899019995359168</v>
+        <v>7.899019995424146</v>
       </c>
       <c r="R54" t="n">
         <v>25</v>
@@ -5268,13 +5336,13 @@
         <v>34.98</v>
       </c>
       <c r="J55" t="n">
-        <v>2150.214364637448</v>
+        <v>2150.214379974999</v>
       </c>
       <c r="K55" t="n">
         <v>2</v>
       </c>
       <c r="L55" t="n">
-        <v>2320.200336095335</v>
+        <v>2320.200335969491</v>
       </c>
       <c r="M55" t="n">
         <v>2</v>
@@ -5289,7 +5357,7 @@
         <v>2</v>
       </c>
       <c r="Q55" t="n">
-        <v>7.896398843852242</v>
+        <v>7.896398843987306</v>
       </c>
       <c r="R55" t="n">
         <v>25</v>
@@ -5458,13 +5526,13 @@
         <v>34.71</v>
       </c>
       <c r="J57" t="n">
-        <v>2021.353364175412</v>
+        <v>2021.353353942156</v>
       </c>
       <c r="K57" t="n">
         <v>2</v>
       </c>
       <c r="L57" t="n">
-        <v>2344.980941946348</v>
+        <v>2344.98094187265</v>
       </c>
       <c r="M57" t="n">
         <v>2</v>
@@ -5479,7 +5547,7 @@
         <v>2</v>
       </c>
       <c r="Q57" t="n">
-        <v>8.181748316127555</v>
+        <v>8.181748316093673</v>
       </c>
       <c r="R57" t="n">
         <v>25</v>
@@ -5547,13 +5615,13 @@
         <v>34.96</v>
       </c>
       <c r="J58" t="n">
-        <v>2109.034420423916</v>
+        <v>2109.034420423956</v>
       </c>
       <c r="K58" t="n">
         <v>2</v>
       </c>
       <c r="L58" t="n">
-        <v>2328.970785372655</v>
+        <v>2328.970785396487</v>
       </c>
       <c r="M58" t="n">
         <v>2</v>
@@ -5568,7 +5636,7 @@
         <v>2</v>
       </c>
       <c r="Q58" t="n">
-        <v>8.00110551273105</v>
+        <v>8.001105512743102</v>
       </c>
       <c r="R58" t="n">
         <v>25</v>
@@ -5636,13 +5704,13 @@
         <v>35.06</v>
       </c>
       <c r="J59" t="n">
-        <v>2109.749495366125</v>
+        <v>2109.749505682031</v>
       </c>
       <c r="K59" t="n">
         <v>2</v>
       </c>
       <c r="L59" t="n">
-        <v>2332.666568082333</v>
+        <v>2332.666568128291</v>
       </c>
       <c r="M59" t="n">
         <v>2</v>
@@ -5657,7 +5725,7 @@
         <v>2</v>
       </c>
       <c r="Q59" t="n">
-        <v>8.00682629699066</v>
+        <v>8.006826297001624</v>
       </c>
       <c r="R59" t="n">
         <v>25</v>
@@ -5725,13 +5793,13 @@
         <v>34.96</v>
       </c>
       <c r="J60" t="n">
-        <v>2102.172268082925</v>
+        <v>2102.172262709544</v>
       </c>
       <c r="K60" t="n">
         <v>2</v>
       </c>
       <c r="L60" t="n">
-        <v>2321.574229604492</v>
+        <v>2321.574229612305</v>
       </c>
       <c r="M60" t="n">
         <v>2</v>
@@ -5746,7 +5814,7 @@
         <v>2</v>
       </c>
       <c r="Q60" t="n">
-        <v>7.990308482098213</v>
+        <v>7.990308482116427</v>
       </c>
       <c r="R60" t="n">
         <v>25</v>
@@ -5818,13 +5886,13 @@
         <v>34.93</v>
       </c>
       <c r="J61" t="n">
-        <v>2097.023692332168</v>
+        <v>2097.023694762735</v>
       </c>
       <c r="K61" t="n">
         <v>2</v>
       </c>
       <c r="L61" t="n">
-        <v>2311.579017934029</v>
+        <v>2311.57901794366</v>
       </c>
       <c r="M61" t="n">
         <v>2</v>
@@ -5839,7 +5907,7 @@
         <v>2</v>
       </c>
       <c r="Q61" t="n">
-        <v>7.98632617284519</v>
+        <v>7.986326172851173</v>
       </c>
       <c r="R61" t="n">
         <v>25</v>
@@ -5919,13 +5987,13 @@
         <v>32.54</v>
       </c>
       <c r="J62" t="n">
-        <v>2254.533716461154</v>
+        <v>2254.533716500588</v>
       </c>
       <c r="K62" t="n">
         <v>2</v>
       </c>
       <c r="L62" t="n">
-        <v>2407.237648701453</v>
+        <v>2407.237648741692</v>
       </c>
       <c r="M62" t="n">
         <v>2</v>
@@ -5944,7 +6012,7 @@
         <v>9</v>
       </c>
       <c r="Q62" t="n">
-        <v>7.835327485157393</v>
+        <v>7.83532748518603</v>
       </c>
       <c r="R62" t="n">
         <v>25</v>
@@ -6008,13 +6076,13 @@
         <v>32.9</v>
       </c>
       <c r="J63" t="n">
-        <v>2237.852499769008</v>
+        <v>2237.852499810536</v>
       </c>
       <c r="K63" t="n">
         <v>2</v>
       </c>
       <c r="L63" t="n">
-        <v>2385.410606693268</v>
+        <v>2385.410606713333</v>
       </c>
       <c r="M63" t="n">
         <v>2</v>
@@ -6029,7 +6097,7 @@
         <v>2</v>
       </c>
       <c r="Q63" t="n">
-        <v>7.850961310483304</v>
+        <v>7.850961310499675</v>
       </c>
       <c r="R63" t="n">
         <v>25</v>
@@ -6093,13 +6161,13 @@
         <v>32.17</v>
       </c>
       <c r="J64" t="n">
-        <v>2218.879396549412</v>
+        <v>2218.879396557063</v>
       </c>
       <c r="K64" t="n">
         <v>2</v>
       </c>
       <c r="L64" t="n">
-        <v>2399.679916134075</v>
+        <v>2399.679916166932</v>
       </c>
       <c r="M64" t="n">
         <v>2</v>
@@ -6114,7 +6182,7 @@
         <v>2</v>
       </c>
       <c r="Q64" t="n">
-        <v>7.946944400713579</v>
+        <v>7.94694440073759</v>
       </c>
       <c r="R64" t="n">
         <v>25</v>
@@ -6178,13 +6246,13 @@
         <v>32.62</v>
       </c>
       <c r="J65" t="n">
-        <v>2125.395002164914</v>
+        <v>2125.395002169838</v>
       </c>
       <c r="K65" t="n">
         <v>2</v>
       </c>
       <c r="L65" t="n">
-        <v>2430.876582269967</v>
+        <v>2430.87658226174</v>
       </c>
       <c r="M65" t="n">
         <v>2</v>
@@ -6199,7 +6267,7 @@
         <v>2</v>
       </c>
       <c r="Q65" t="n">
-        <v>8.159406236940795</v>
+        <v>8.159406236936976</v>
       </c>
       <c r="R65" t="n">
         <v>25</v>
@@ -6263,13 +6331,13 @@
         <v>32.24</v>
       </c>
       <c r="J66" t="n">
-        <v>2004.116935034187</v>
+        <v>2004.116935042257</v>
       </c>
       <c r="K66" t="n">
         <v>2</v>
       </c>
       <c r="L66" t="n">
-        <v>2429.483942932239</v>
+        <v>2429.483942962337</v>
       </c>
       <c r="M66" t="n">
         <v>2</v>
@@ -6284,7 +6352,7 @@
         <v>2</v>
       </c>
       <c r="Q66" t="n">
-        <v>8.333389280012334</v>
+        <v>8.333389280037974</v>
       </c>
       <c r="R66" t="n">
         <v>25</v>
@@ -6354,7 +6422,7 @@
         <v>2</v>
       </c>
       <c r="L67" t="n">
-        <v>2426.761812206425</v>
+        <v>2426.761812198877</v>
       </c>
       <c r="M67" t="n">
         <v>2</v>
@@ -6369,7 +6437,7 @@
         <v>3</v>
       </c>
       <c r="Q67" t="n">
-        <v>8.152075354171773</v>
+        <v>8.152075354174292</v>
       </c>
       <c r="R67" t="n">
         <v>25</v>
@@ -6433,13 +6501,13 @@
         <v>32.15</v>
       </c>
       <c r="J68" t="n">
-        <v>2172.250462241356</v>
+        <v>2172.250464739534</v>
       </c>
       <c r="K68" t="n">
         <v>2</v>
       </c>
       <c r="L68" t="n">
-        <v>2434.979597141786</v>
+        <v>2434.979597133234</v>
       </c>
       <c r="M68" t="n">
         <v>2</v>
@@ -6454,7 +6522,7 @@
         <v>2</v>
       </c>
       <c r="Q68" t="n">
-        <v>8.093821316395049</v>
+        <v>8.093821316393727</v>
       </c>
       <c r="R68" t="n">
         <v>25</v>
@@ -6615,13 +6683,13 @@
         <v>32.75</v>
       </c>
       <c r="J70" t="n">
-        <v>2181.526099462505</v>
+        <v>2181.526099379864</v>
       </c>
       <c r="K70" t="n">
         <v>2</v>
       </c>
       <c r="L70" t="n">
-        <v>2428.062538162616</v>
+        <v>2428.062538185597</v>
       </c>
       <c r="M70" t="n">
         <v>2</v>
@@ -6636,7 +6704,7 @@
         <v>2</v>
       </c>
       <c r="Q70" t="n">
-        <v>8.048469284518667</v>
+        <v>8.048469284533949</v>
       </c>
       <c r="R70" t="n">
         <v>25</v>
@@ -6700,13 +6768,13 @@
         <v>33.25</v>
       </c>
       <c r="J71" t="n">
-        <v>2174.155430183205</v>
+        <v>2174.155430189163</v>
       </c>
       <c r="K71" t="n">
         <v>2</v>
       </c>
       <c r="L71" t="n">
-        <v>2417.756056628425</v>
+        <v>2417.756056649161</v>
       </c>
       <c r="M71" t="n">
         <v>2</v>
@@ -6721,7 +6789,7 @@
         <v>2</v>
       </c>
       <c r="Q71" t="n">
-        <v>8.05045118462265</v>
+        <v>8.050451184638082</v>
       </c>
       <c r="R71" t="n">
         <v>25</v>
@@ -6785,13 +6853,13 @@
         <v>32.59</v>
       </c>
       <c r="J72" t="n">
-        <v>2251.214875735066</v>
+        <v>2251.214667454533</v>
       </c>
       <c r="K72" t="n">
         <v>2</v>
       </c>
       <c r="L72" t="n">
-        <v>2421.619224945184</v>
+        <v>2421.619222909321</v>
       </c>
       <c r="M72" t="n">
         <v>2</v>
@@ -6806,7 +6874,7 @@
         <v>2</v>
       </c>
       <c r="Q72" t="n">
-        <v>7.905851725691606</v>
+        <v>7.905851725030911</v>
       </c>
       <c r="R72" t="n">
         <v>25</v>
@@ -6870,13 +6938,13 @@
         <v>32.83</v>
       </c>
       <c r="J73" t="n">
-        <v>2266.030115176521</v>
+        <v>2266.029246018002</v>
       </c>
       <c r="K73" t="n">
         <v>2</v>
       </c>
       <c r="L73" t="n">
-        <v>2423.668561485135</v>
+        <v>2423.668553861581</v>
       </c>
       <c r="M73" t="n">
         <v>2</v>
@@ -6891,7 +6959,7 @@
         <v>2</v>
       </c>
       <c r="Q73" t="n">
-        <v>7.855177152406989</v>
+        <v>7.855177149413843</v>
       </c>
       <c r="R73" t="n">
         <v>25</v>
@@ -6955,13 +7023,13 @@
         <v>32.36</v>
       </c>
       <c r="J74" t="n">
-        <v>2242.791732021892</v>
+        <v>2242.791732029233</v>
       </c>
       <c r="K74" t="n">
         <v>2</v>
       </c>
       <c r="L74" t="n">
-        <v>2382.929285456248</v>
+        <v>2382.929285210203</v>
       </c>
       <c r="M74" t="n">
         <v>2</v>
@@ -6976,7 +7044,7 @@
         <v>2</v>
       </c>
       <c r="Q74" t="n">
-        <v>7.82995779168071</v>
+        <v>7.829957791774699</v>
       </c>
       <c r="R74" t="n">
         <v>25</v>
@@ -7040,13 +7108,13 @@
         <v>31.81</v>
       </c>
       <c r="J75" t="n">
-        <v>2267.828496360625</v>
+        <v>2267.828496355356</v>
       </c>
       <c r="K75" t="n">
         <v>2</v>
       </c>
       <c r="L75" t="n">
-        <v>2390.180540110935</v>
+        <v>2390.180539797271</v>
       </c>
       <c r="M75" t="n">
         <v>2</v>
@@ -7061,7 +7129,7 @@
         <v>2</v>
       </c>
       <c r="Q75" t="n">
-        <v>7.795457179993759</v>
+        <v>7.795457180044751</v>
       </c>
       <c r="R75" t="n">
         <v>25</v>
@@ -7125,13 +7193,13 @@
         <v>33.02</v>
       </c>
       <c r="J76" t="n">
-        <v>2009.020963946254</v>
+        <v>2009.020974929177</v>
       </c>
       <c r="K76" t="n">
         <v>2</v>
       </c>
       <c r="L76" t="n">
-        <v>2374.632743343077</v>
+        <v>2374.632743418441</v>
       </c>
       <c r="M76" t="n">
         <v>2</v>
@@ -7150,7 +7218,7 @@
         <v>9</v>
       </c>
       <c r="Q76" t="n">
-        <v>8.253335574346556</v>
+        <v>8.253335574373432</v>
       </c>
       <c r="R76" t="n">
         <v>25</v>
@@ -7214,13 +7282,13 @@
         <v>32.78</v>
       </c>
       <c r="J77" t="n">
-        <v>1986.696715423251</v>
+        <v>1986.696708813887</v>
       </c>
       <c r="K77" t="n">
         <v>2</v>
       </c>
       <c r="L77" t="n">
-        <v>2393.784717934243</v>
+        <v>2393.784717930295</v>
       </c>
       <c r="M77" t="n">
         <v>2</v>
@@ -7235,7 +7303,7 @@
         <v>2</v>
       </c>
       <c r="Q77" t="n">
-        <v>8.315488594812635</v>
+        <v>8.315488594819678</v>
       </c>
       <c r="R77" t="n">
         <v>25</v>
@@ -7299,13 +7367,13 @@
         <v>32.57</v>
       </c>
       <c r="J78" t="n">
-        <v>2206.540350961341</v>
+        <v>2206.540350956488</v>
       </c>
       <c r="K78" t="n">
         <v>2</v>
       </c>
       <c r="L78" t="n">
-        <v>2425.765491314311</v>
+        <v>2425.765491300292</v>
       </c>
       <c r="M78" t="n">
         <v>2</v>
@@ -7320,7 +7388,7 @@
         <v>2</v>
       </c>
       <c r="Q78" t="n">
-        <v>8.008288712978183</v>
+        <v>8.008288712966676</v>
       </c>
       <c r="R78" t="n">
         <v>25</v>
@@ -7384,13 +7452,13 @@
         <v>33</v>
       </c>
       <c r="J79" t="n">
-        <v>2143.705962910914</v>
+        <v>2143.705974394678</v>
       </c>
       <c r="K79" t="n">
         <v>2</v>
       </c>
       <c r="L79" t="n">
-        <v>2404.668582590949</v>
+        <v>2404.668582701299</v>
       </c>
       <c r="M79" t="n">
         <v>2</v>
@@ -7405,7 +7473,7 @@
         <v>2</v>
       </c>
       <c r="Q79" t="n">
-        <v>8.082271584624609</v>
+        <v>8.082271584674384</v>
       </c>
       <c r="R79" t="n">
         <v>25</v>
@@ -7469,13 +7537,13 @@
         <v>32.8</v>
       </c>
       <c r="J80" t="n">
-        <v>2184.832554925054</v>
+        <v>2184.832555797955</v>
       </c>
       <c r="K80" t="n">
         <v>2</v>
       </c>
       <c r="L80" t="n">
-        <v>2409.421713627573</v>
+        <v>2409.421713632594</v>
       </c>
       <c r="M80" t="n">
         <v>2</v>
@@ -7490,7 +7558,7 @@
         <v>3</v>
       </c>
       <c r="Q80" t="n">
-        <v>7.999602444515761</v>
+        <v>7.999602444522515</v>
       </c>
       <c r="R80" t="n">
         <v>25</v>
@@ -7558,13 +7626,13 @@
         <v>34.23</v>
       </c>
       <c r="J81" t="n">
-        <v>2109.313117721096</v>
+        <v>2109.313116411624</v>
       </c>
       <c r="K81" t="n">
         <v>2</v>
       </c>
       <c r="L81" t="n">
-        <v>2358.558618797974</v>
+        <v>2358.558618829503</v>
       </c>
       <c r="M81" t="n">
         <v>2</v>
@@ -7579,7 +7647,7 @@
         <v>2</v>
       </c>
       <c r="Q81" t="n">
-        <v>8.04805268248394</v>
+        <v>8.04805268251333</v>
       </c>
       <c r="R81" t="n">
         <v>25</v>
@@ -7655,13 +7723,13 @@
         <v>30.02</v>
       </c>
       <c r="J82" t="n">
-        <v>2269.37462011932</v>
+        <v>2269.374620163262</v>
       </c>
       <c r="K82" t="n">
         <v>2</v>
       </c>
       <c r="L82" t="n">
-        <v>2390.765926250855</v>
+        <v>2390.765926254205</v>
       </c>
       <c r="M82" t="n">
         <v>2</v>
@@ -7676,7 +7744,7 @@
         <v>2</v>
       </c>
       <c r="Q82" t="n">
-        <v>7.814808767750925</v>
+        <v>7.81480876775567</v>
       </c>
       <c r="R82" t="n">
         <v>25</v>
@@ -7740,13 +7808,13 @@
         <v>30.98</v>
       </c>
       <c r="J83" t="n">
-        <v>2247.719374153299</v>
+        <v>2247.719374194378</v>
       </c>
       <c r="K83" t="n">
         <v>2</v>
       </c>
       <c r="L83" t="n">
-        <v>2377.747531770475</v>
+        <v>2377.747531794134</v>
       </c>
       <c r="M83" t="n">
         <v>2</v>
@@ -7761,7 +7829,7 @@
         <v>2</v>
       </c>
       <c r="Q83" t="n">
-        <v>7.832909346493624</v>
+        <v>7.8329093465134</v>
       </c>
       <c r="R83" t="n">
         <v>25</v>
@@ -7825,13 +7893,13 @@
         <v>31.53</v>
       </c>
       <c r="J84" t="n">
-        <v>2212.174497590873</v>
+        <v>2212.174497599067</v>
       </c>
       <c r="K84" t="n">
         <v>2</v>
       </c>
       <c r="L84" t="n">
-        <v>2415.409142389935</v>
+        <v>2415.409142350074</v>
       </c>
       <c r="M84" t="n">
         <v>2</v>
@@ -7846,7 +7914,7 @@
         <v>2</v>
       </c>
       <c r="Q84" t="n">
-        <v>7.992589532923144</v>
+        <v>7.992589532894889</v>
       </c>
       <c r="R84" t="n">
         <v>25</v>
@@ -7910,13 +7978,13 @@
         <v>31.12</v>
       </c>
       <c r="J85" t="n">
-        <v>2150.457427252014</v>
+        <v>2150.457427256579</v>
       </c>
       <c r="K85" t="n">
         <v>2</v>
       </c>
       <c r="L85" t="n">
-        <v>2458.449246547681</v>
+        <v>2458.449246547837</v>
       </c>
       <c r="M85" t="n">
         <v>2</v>
@@ -7931,7 +7999,7 @@
         <v>2</v>
       </c>
       <c r="Q85" t="n">
-        <v>8.171340470193643</v>
+        <v>8.171340470196194</v>
       </c>
       <c r="R85" t="n">
         <v>25</v>
@@ -7995,13 +8063,13 @@
         <v>30.2</v>
       </c>
       <c r="J86" t="n">
-        <v>2192.823130120424</v>
+        <v>2192.823130129702</v>
       </c>
       <c r="K86" t="n">
         <v>2</v>
       </c>
       <c r="L86" t="n">
-        <v>2459.874343493398</v>
+        <v>2459.874343500977</v>
       </c>
       <c r="M86" t="n">
         <v>2</v>
@@ -8016,7 +8084,7 @@
         <v>2</v>
       </c>
       <c r="Q86" t="n">
-        <v>8.104066134609882</v>
+        <v>8.104066134622455</v>
       </c>
       <c r="R86" t="n">
         <v>25</v>
@@ -8086,7 +8154,7 @@
         <v>2</v>
       </c>
       <c r="L87" t="n">
-        <v>2463.217062835278</v>
+        <v>2463.21706281281</v>
       </c>
       <c r="M87" t="n">
         <v>2</v>
@@ -8101,7 +8169,7 @@
         <v>2</v>
       </c>
       <c r="Q87" t="n">
-        <v>8.085465317333561</v>
+        <v>8.085465317326902</v>
       </c>
       <c r="R87" t="n">
         <v>25</v>
@@ -8165,13 +8233,13 @@
         <v>29.75</v>
       </c>
       <c r="J88" t="n">
-        <v>2220.747901624656</v>
+        <v>2220.747903920392</v>
       </c>
       <c r="K88" t="n">
         <v>2</v>
       </c>
       <c r="L88" t="n">
-        <v>2450.266077921345</v>
+        <v>2450.266077950375</v>
       </c>
       <c r="M88" t="n">
         <v>2</v>
@@ -8186,7 +8254,7 @@
         <v>2</v>
       </c>
       <c r="Q88" t="n">
-        <v>8.053234070975249</v>
+        <v>8.053234070999352</v>
       </c>
       <c r="R88" t="n">
         <v>25</v>
@@ -8347,13 +8415,13 @@
         <v>31.02</v>
       </c>
       <c r="J90" t="n">
-        <v>2244.57368040318</v>
+        <v>2244.573680322891</v>
       </c>
       <c r="K90" t="n">
         <v>2</v>
       </c>
       <c r="L90" t="n">
-        <v>2440.197993663772</v>
+        <v>2440.197993651136</v>
       </c>
       <c r="M90" t="n">
         <v>2</v>
@@ -8368,7 +8436,7 @@
         <v>2</v>
       </c>
       <c r="Q90" t="n">
-        <v>7.942059181819784</v>
+        <v>7.942059181811386</v>
       </c>
       <c r="R90" t="n">
         <v>25</v>
@@ -8432,13 +8500,13 @@
         <v>30.98</v>
       </c>
       <c r="J91" t="n">
-        <v>2206.817701501486</v>
+        <v>2206.817701514878</v>
       </c>
       <c r="K91" t="n">
         <v>2</v>
       </c>
       <c r="L91" t="n">
-        <v>2436.131146646476</v>
+        <v>2436.13114663106</v>
       </c>
       <c r="M91" t="n">
         <v>2</v>
@@ -8453,7 +8521,7 @@
         <v>2</v>
       </c>
       <c r="Q91" t="n">
-        <v>8.042655112049845</v>
+        <v>8.042655112040451</v>
       </c>
       <c r="R91" t="n">
         <v>25</v>
@@ -8517,13 +8585,13 @@
         <v>31.52</v>
       </c>
       <c r="J92" t="n">
-        <v>2273.792439405182</v>
+        <v>2273.792152835714</v>
       </c>
       <c r="K92" t="n">
         <v>2</v>
       </c>
       <c r="L92" t="n">
-        <v>2431.965429445701</v>
+        <v>2431.965426682156</v>
       </c>
       <c r="M92" t="n">
         <v>2</v>
@@ -8538,7 +8606,7 @@
         <v>2</v>
       </c>
       <c r="Q92" t="n">
-        <v>7.877353409983968</v>
+        <v>7.877353409002945</v>
       </c>
       <c r="R92" t="n">
         <v>25</v>
@@ -8602,13 +8670,13 @@
         <v>32.55</v>
       </c>
       <c r="J93" t="n">
-        <v>2276.81346684749</v>
+        <v>2276.812656171625</v>
       </c>
       <c r="K93" t="n">
         <v>2</v>
       </c>
       <c r="L93" t="n">
-        <v>2428.003724754917</v>
+        <v>2428.003717554427</v>
       </c>
       <c r="M93" t="n">
         <v>2</v>
@@ -8623,7 +8691,7 @@
         <v>2</v>
       </c>
       <c r="Q93" t="n">
-        <v>7.852222654901788</v>
+        <v>7.85222265206585</v>
       </c>
       <c r="R93" t="n">
         <v>25</v>
@@ -8687,19 +8755,19 @@
         <v>29.75</v>
       </c>
       <c r="J94" t="n">
-        <v>2261.679165174651</v>
+        <v>2261.679165178249</v>
       </c>
       <c r="K94" t="n">
         <v>2</v>
       </c>
       <c r="L94" t="n">
-        <v>2382.668467950481</v>
+        <v>2382.668467629672</v>
       </c>
       <c r="M94" t="n">
         <v>2</v>
       </c>
       <c r="N94" t="n">
-        <v>7.719049476687332</v>
+        <v>7.719049476687334</v>
       </c>
       <c r="O94" t="n">
         <v>25</v>
@@ -8708,7 +8776,7 @@
         <v>2</v>
       </c>
       <c r="Q94" t="n">
-        <v>7.816732094165181</v>
+        <v>7.816732094211395</v>
       </c>
       <c r="R94" t="n">
         <v>25</v>
@@ -8772,13 +8840,13 @@
         <v>30.92</v>
       </c>
       <c r="J95" t="n">
-        <v>2263.295357477129</v>
+        <v>2263.295357470552</v>
       </c>
       <c r="K95" t="n">
         <v>2</v>
       </c>
       <c r="L95" t="n">
-        <v>2386.752678183272</v>
+        <v>2386.752677907663</v>
       </c>
       <c r="M95" t="n">
         <v>2</v>
@@ -8793,7 +8861,7 @@
         <v>2</v>
       </c>
       <c r="Q95" t="n">
-        <v>7.809124591676709</v>
+        <v>7.809124591750082</v>
       </c>
       <c r="R95" t="n">
         <v>25</v>
@@ -8857,13 +8925,13 @@
         <v>29.63</v>
       </c>
       <c r="J96" t="n">
-        <v>2041.922545610599</v>
+        <v>2041.922547768389</v>
       </c>
       <c r="K96" t="n">
         <v>2</v>
       </c>
       <c r="L96" t="n">
-        <v>2382.847822334264</v>
+        <v>2382.847822310748</v>
       </c>
       <c r="M96" t="n">
         <v>2</v>
@@ -8882,7 +8950,7 @@
         <v>9</v>
       </c>
       <c r="Q96" t="n">
-        <v>8.252150115573833</v>
+        <v>8.252150115551322</v>
       </c>
       <c r="R96" t="n">
         <v>25</v>
@@ -8946,13 +9014,13 @@
         <v>30.06</v>
       </c>
       <c r="J97" t="n">
-        <v>2158.7958036636</v>
+        <v>2158.795803406433</v>
       </c>
       <c r="K97" t="n">
         <v>2</v>
       </c>
       <c r="L97" t="n">
-        <v>2423.725241153561</v>
+        <v>2423.725241170191</v>
       </c>
       <c r="M97" t="n">
         <v>2</v>
@@ -8967,7 +9035,7 @@
         <v>2</v>
       </c>
       <c r="Q97" t="n">
-        <v>8.113164322526858</v>
+        <v>8.113164322533141</v>
       </c>
       <c r="R97" t="n">
         <v>25</v>
@@ -9031,13 +9099,13 @@
         <v>31.4</v>
       </c>
       <c r="J98" t="n">
-        <v>2246.280601437641</v>
+        <v>2246.280601427728</v>
       </c>
       <c r="K98" t="n">
         <v>2</v>
       </c>
       <c r="L98" t="n">
-        <v>2441.237078948682</v>
+        <v>2441.237078949307</v>
       </c>
       <c r="M98" t="n">
         <v>2</v>
@@ -9052,7 +9120,7 @@
         <v>2</v>
       </c>
       <c r="Q98" t="n">
-        <v>7.965920444158264</v>
+        <v>7.965920444155628</v>
       </c>
       <c r="R98" t="n">
         <v>25</v>
@@ -9116,13 +9184,13 @@
         <v>29.56</v>
       </c>
       <c r="J99" t="n">
-        <v>2181.714072023756</v>
+        <v>2181.714084494178</v>
       </c>
       <c r="K99" t="n">
         <v>2</v>
       </c>
       <c r="L99" t="n">
-        <v>2420.950444492682</v>
+        <v>2420.950444628546</v>
       </c>
       <c r="M99" t="n">
         <v>2</v>
@@ -9137,7 +9205,7 @@
         <v>2</v>
       </c>
       <c r="Q99" t="n">
-        <v>8.083111438787576</v>
+        <v>8.083111438853869</v>
       </c>
       <c r="R99" t="n">
         <v>25</v>
@@ -9201,13 +9269,13 @@
         <v>32.7</v>
       </c>
       <c r="J100" t="n">
-        <v>2182.965874860699</v>
+        <v>2182.965875756248</v>
       </c>
       <c r="K100" t="n">
         <v>2</v>
       </c>
       <c r="L100" t="n">
-        <v>2424.379204348277</v>
+        <v>2424.37920436787</v>
       </c>
       <c r="M100" t="n">
         <v>2</v>
@@ -9222,7 +9290,7 @@
         <v>2</v>
       </c>
       <c r="Q100" t="n">
-        <v>8.033767731347274</v>
+        <v>8.033767731361436</v>
       </c>
       <c r="R100" t="n">
         <v>25</v>
@@ -9290,13 +9358,13 @@
         <v>32.33</v>
       </c>
       <c r="J101" t="n">
-        <v>2180.633041440264</v>
+        <v>2180.633035585214</v>
       </c>
       <c r="K101" t="n">
         <v>2</v>
       </c>
       <c r="L101" t="n">
-        <v>2391.25436436241</v>
+        <v>2391.254364284374</v>
       </c>
       <c r="M101" t="n">
         <v>2</v>
@@ -9311,7 +9379,7 @@
         <v>2</v>
       </c>
       <c r="Q101" t="n">
-        <v>7.986228978552144</v>
+        <v>7.986228978513258</v>
       </c>
       <c r="R101" t="n">
         <v>25</v>
@@ -9387,13 +9455,13 @@
         <v>30.15</v>
       </c>
       <c r="J102" t="n">
-        <v>2311.726332642387</v>
+        <v>2311.726332689382</v>
       </c>
       <c r="K102" t="n">
         <v>2</v>
       </c>
       <c r="L102" t="n">
-        <v>2411.820687417877</v>
+        <v>2411.820688465849</v>
       </c>
       <c r="M102" t="n">
         <v>2</v>
@@ -9408,7 +9476,7 @@
         <v>2</v>
       </c>
       <c r="Q102" t="n">
-        <v>7.750428057402158</v>
+        <v>7.750428058477635</v>
       </c>
       <c r="R102" t="n">
         <v>25</v>
@@ -9472,13 +9540,13 @@
         <v>25.31</v>
       </c>
       <c r="J103" t="n">
-        <v>2311.553042056097</v>
+        <v>2311.553042097739</v>
       </c>
       <c r="K103" t="n">
         <v>2</v>
       </c>
       <c r="L103" t="n">
-        <v>2419.841265142952</v>
+        <v>2419.841265108382</v>
       </c>
       <c r="M103" t="n">
         <v>2</v>
@@ -9493,7 +9561,7 @@
         <v>2</v>
       </c>
       <c r="Q103" t="n">
-        <v>7.806942314124207</v>
+        <v>7.8069423141035</v>
       </c>
       <c r="R103" t="n">
         <v>25</v>
@@ -9559,13 +9627,13 @@
         <v>31.4</v>
       </c>
       <c r="J104" t="n">
-        <v>2228.809242919262</v>
+        <v>2228.809242927781</v>
       </c>
       <c r="K104" t="n">
         <v>2</v>
       </c>
       <c r="L104" t="n">
-        <v>2424.854876381398</v>
+        <v>2424.854876373824</v>
       </c>
       <c r="M104" t="n">
         <v>2</v>
@@ -9580,7 +9648,7 @@
         <v>2</v>
       </c>
       <c r="Q104" t="n">
-        <v>7.966947668568354</v>
+        <v>7.966947668564135</v>
       </c>
       <c r="R104" t="n">
         <v>25</v>
@@ -9737,13 +9805,13 @@
         <v>29.79</v>
       </c>
       <c r="J106" t="n">
-        <v>2195.945441362859</v>
+        <v>2195.945441371882</v>
       </c>
       <c r="K106" t="n">
         <v>2</v>
       </c>
       <c r="L106" t="n">
-        <v>2456.125729184575</v>
+        <v>2456.125729228748</v>
       </c>
       <c r="M106" t="n">
         <v>2</v>
@@ -9758,7 +9826,7 @@
         <v>2</v>
       </c>
       <c r="Q106" t="n">
-        <v>8.09388844712301</v>
+        <v>8.093888447158166</v>
       </c>
       <c r="R106" t="n">
         <v>25</v>
@@ -9828,7 +9896,7 @@
         <v>2</v>
       </c>
       <c r="L107" t="n">
-        <v>2441.97730047916</v>
+        <v>2441.977300459875</v>
       </c>
       <c r="M107" t="n">
         <v>2</v>
@@ -9843,7 +9911,7 @@
         <v>2</v>
       </c>
       <c r="Q107" t="n">
-        <v>8.080312233947755</v>
+        <v>8.080312233943815</v>
       </c>
       <c r="R107" t="n">
         <v>25</v>
@@ -9907,13 +9975,13 @@
         <v>29.8</v>
       </c>
       <c r="J108" t="n">
-        <v>2193.152895066046</v>
+        <v>2193.15289712195</v>
       </c>
       <c r="K108" t="n">
         <v>2</v>
       </c>
       <c r="L108" t="n">
-        <v>2439.420675290175</v>
+        <v>2439.420675297917</v>
       </c>
       <c r="M108" t="n">
         <v>2</v>
@@ -9928,7 +9996,7 @@
         <v>2</v>
       </c>
       <c r="Q108" t="n">
-        <v>8.090392429387354</v>
+        <v>8.090392429396145</v>
       </c>
       <c r="R108" t="n">
         <v>25</v>
@@ -10089,13 +10157,13 @@
         <v>30.66</v>
       </c>
       <c r="J110" t="n">
-        <v>2247.882094747042</v>
+        <v>2247.882094670664</v>
       </c>
       <c r="K110" t="n">
         <v>2</v>
       </c>
       <c r="L110" t="n">
-        <v>2442.904688693115</v>
+        <v>2442.904688784532</v>
       </c>
       <c r="M110" t="n">
         <v>2</v>
@@ -10110,7 +10178,7 @@
         <v>2</v>
       </c>
       <c r="Q110" t="n">
-        <v>7.947981623665493</v>
+        <v>7.947981623730457</v>
       </c>
       <c r="R110" t="n">
         <v>25</v>
@@ -10174,13 +10242,13 @@
         <v>31.31</v>
       </c>
       <c r="J111" t="n">
-        <v>2199.486020736263</v>
+        <v>2199.486020757199</v>
       </c>
       <c r="K111" t="n">
         <v>2</v>
       </c>
       <c r="L111" t="n">
-        <v>2432.498342546203</v>
+        <v>2432.498342573391</v>
       </c>
       <c r="M111" t="n">
         <v>2</v>
@@ -10195,7 +10263,7 @@
         <v>2</v>
       </c>
       <c r="Q111" t="n">
-        <v>8.050882583405768</v>
+        <v>8.050882583425508</v>
       </c>
       <c r="R111" t="n">
         <v>25</v>
@@ -10259,13 +10327,13 @@
         <v>31.45</v>
       </c>
       <c r="J112" t="n">
-        <v>2269.656109710898</v>
+        <v>2269.655745258932</v>
       </c>
       <c r="K112" t="n">
         <v>2</v>
       </c>
       <c r="L112" t="n">
-        <v>2436.883738817947</v>
+        <v>2436.883735314565</v>
       </c>
       <c r="M112" t="n">
         <v>2</v>
@@ -10280,7 +10348,7 @@
         <v>2</v>
       </c>
       <c r="Q112" t="n">
-        <v>7.88283561502622</v>
+        <v>7.882835613718205</v>
       </c>
       <c r="R112" t="n">
         <v>25</v>
@@ -10344,13 +10412,13 @@
         <v>32.25</v>
       </c>
       <c r="J113" t="n">
-        <v>2278.493230855165</v>
+        <v>2278.492513803107</v>
       </c>
       <c r="K113" t="n">
         <v>2</v>
       </c>
       <c r="L113" t="n">
-        <v>2432.640532255781</v>
+        <v>2432.640525759233</v>
       </c>
       <c r="M113" t="n">
         <v>2</v>
@@ -10365,7 +10433,7 @@
         <v>2</v>
       </c>
       <c r="Q113" t="n">
-        <v>7.852730392459732</v>
+        <v>7.852730389898698</v>
       </c>
       <c r="R113" t="n">
         <v>25</v>
@@ -10429,13 +10497,13 @@
         <v>28.77</v>
       </c>
       <c r="J114" t="n">
-        <v>2260.5405359566</v>
+        <v>2260.540535958909</v>
       </c>
       <c r="K114" t="n">
         <v>2</v>
       </c>
       <c r="L114" t="n">
-        <v>2378.554621363391</v>
+        <v>2378.554621024761</v>
       </c>
       <c r="M114" t="n">
         <v>2</v>
@@ -10450,7 +10518,7 @@
         <v>2</v>
       </c>
       <c r="Q114" t="n">
-        <v>7.811848655059323</v>
+        <v>7.811848655092533</v>
       </c>
       <c r="R114" t="n">
         <v>25</v>
@@ -10514,13 +10582,13 @@
         <v>30.8</v>
       </c>
       <c r="J115" t="n">
-        <v>2264.153603553201</v>
+        <v>2264.153603545339</v>
       </c>
       <c r="K115" t="n">
         <v>2</v>
       </c>
       <c r="L115" t="n">
-        <v>2384.511973298088</v>
+        <v>2384.511972960841</v>
       </c>
       <c r="M115" t="n">
         <v>2</v>
@@ -10535,7 +10603,7 @@
         <v>2</v>
       </c>
       <c r="Q115" t="n">
-        <v>7.804629443504082</v>
+        <v>7.804629443536064</v>
       </c>
       <c r="R115" t="n">
         <v>25</v>
@@ -10601,13 +10669,13 @@
         <v>30.3</v>
       </c>
       <c r="J116" t="n">
-        <v>2059.332073316747</v>
+        <v>2059.332074448852</v>
       </c>
       <c r="K116" t="n">
         <v>2</v>
       </c>
       <c r="L116" t="n">
-        <v>2380.803819127548</v>
+        <v>2380.803819124096</v>
       </c>
       <c r="M116" t="n">
         <v>2</v>
@@ -10626,7 +10694,7 @@
         <v>9</v>
       </c>
       <c r="Q116" t="n">
-        <v>8.216516464710731</v>
+        <v>8.216516464701353</v>
       </c>
       <c r="R116" t="n">
         <v>25</v>
@@ -10690,13 +10758,13 @@
         <v>28.34</v>
       </c>
       <c r="J117" t="n">
-        <v>2175.510856467605</v>
+        <v>2175.510859618107</v>
       </c>
       <c r="K117" t="n">
         <v>2</v>
       </c>
       <c r="L117" t="n">
-        <v>2433.414415090022</v>
+        <v>2433.414415144088</v>
       </c>
       <c r="M117" t="n">
         <v>2</v>
@@ -10711,7 +10779,7 @@
         <v>2</v>
       </c>
       <c r="Q117" t="n">
-        <v>8.120856891928804</v>
+        <v>8.120856891953716</v>
       </c>
       <c r="R117" t="n">
         <v>25</v>
@@ -10775,13 +10843,13 @@
         <v>31.27</v>
       </c>
       <c r="J118" t="n">
-        <v>2218.842373546692</v>
+        <v>2218.842373531154</v>
       </c>
       <c r="K118" t="n">
         <v>2</v>
       </c>
       <c r="L118" t="n">
-        <v>2431.467080304008</v>
+        <v>2431.467080315439</v>
       </c>
       <c r="M118" t="n">
         <v>2</v>
@@ -10796,7 +10864,7 @@
         <v>2</v>
       </c>
       <c r="Q118" t="n">
-        <v>8.01006634610772</v>
+        <v>8.010066346111305</v>
       </c>
       <c r="R118" t="n">
         <v>25</v>
@@ -10860,13 +10928,13 @@
         <v>29.44</v>
       </c>
       <c r="J119" t="n">
-        <v>2186.926802713915</v>
+        <v>2186.926815894828</v>
       </c>
       <c r="K119" t="n">
         <v>2</v>
       </c>
       <c r="L119" t="n">
-        <v>2423.401184966176</v>
+        <v>2423.401185101664</v>
       </c>
       <c r="M119" t="n">
         <v>2</v>
@@ -10881,7 +10949,7 @@
         <v>2</v>
       </c>
       <c r="Q119" t="n">
-        <v>8.074028909058363</v>
+        <v>8.074028909124969</v>
       </c>
       <c r="R119" t="n">
         <v>25</v>
@@ -10945,13 +11013,13 @@
         <v>32.7</v>
       </c>
       <c r="J120" t="n">
-        <v>2186.865962810224</v>
+        <v>2186.865963670728</v>
       </c>
       <c r="K120" t="n">
         <v>2</v>
       </c>
       <c r="L120" t="n">
-        <v>2411.681410547582</v>
+        <v>2411.681410557795</v>
       </c>
       <c r="M120" t="n">
         <v>2</v>
@@ -10966,7 +11034,7 @@
         <v>2</v>
       </c>
       <c r="Q120" t="n">
-        <v>8.01310663798305</v>
+        <v>8.013106637992427</v>
       </c>
       <c r="R120" t="n">
         <v>25</v>
@@ -11034,13 +11102,13 @@
         <v>34.53</v>
       </c>
       <c r="J121" t="n">
-        <v>2191.427292022385</v>
+        <v>2191.427281853987</v>
       </c>
       <c r="K121" t="n">
         <v>2</v>
       </c>
       <c r="L121" t="n">
-        <v>2391.515581473761</v>
+        <v>2391.515581360256</v>
       </c>
       <c r="M121" t="n">
         <v>2</v>
@@ -11055,7 +11123,7 @@
         <v>2</v>
       </c>
       <c r="Q121" t="n">
-        <v>7.968255980912541</v>
+        <v>7.968255980859382</v>
       </c>
       <c r="R121" t="n">
         <v>25</v>
@@ -11131,13 +11199,13 @@
         <v>25.63</v>
       </c>
       <c r="J122" t="n">
-        <v>2292.116744447374</v>
+        <v>2292.116744495207</v>
       </c>
       <c r="K122" t="n">
         <v>2</v>
       </c>
       <c r="L122" t="n">
-        <v>2396.239489079424</v>
+        <v>2396.239489081401</v>
       </c>
       <c r="M122" t="n">
         <v>2</v>
@@ -11152,7 +11220,7 @@
         <v>2</v>
       </c>
       <c r="Q122" t="n">
-        <v>7.809157379108569</v>
+        <v>7.809157379111676</v>
       </c>
       <c r="R122" t="n">
         <v>25</v>
@@ -11216,13 +11284,13 @@
         <v>27.19</v>
       </c>
       <c r="J123" t="n">
-        <v>2302.29814329618</v>
+        <v>2302.298143337012</v>
       </c>
       <c r="K123" t="n">
         <v>2</v>
       </c>
       <c r="L123" t="n">
-        <v>2420.111797239352</v>
+        <v>2420.11179725534</v>
       </c>
       <c r="M123" t="n">
         <v>2</v>
@@ -11237,7 +11305,7 @@
         <v>2</v>
       </c>
       <c r="Q123" t="n">
-        <v>7.829407742739183</v>
+        <v>7.829407742752426</v>
       </c>
       <c r="R123" t="n">
         <v>25</v>
@@ -11301,13 +11369,13 @@
         <v>28.43</v>
       </c>
       <c r="J124" t="n">
-        <v>2287.854228417707</v>
+        <v>2287.854228426446</v>
       </c>
       <c r="K124" t="n">
         <v>2</v>
       </c>
       <c r="L124" t="n">
-        <v>2470.769872808768</v>
+        <v>2470.769872802619</v>
       </c>
       <c r="M124" t="n">
         <v>2</v>
@@ -11322,7 +11390,7 @@
         <v>2</v>
       </c>
       <c r="Q124" t="n">
-        <v>7.970347548611048</v>
+        <v>7.970347548607529</v>
       </c>
       <c r="R124" t="n">
         <v>25</v>
@@ -11386,13 +11454,13 @@
         <v>28.25</v>
       </c>
       <c r="J125" t="n">
-        <v>2277.29364874161</v>
+        <v>2277.293648745556</v>
       </c>
       <c r="K125" t="n">
         <v>2</v>
       </c>
       <c r="L125" t="n">
-        <v>2491.297948941785</v>
+        <v>2491.297948996423</v>
       </c>
       <c r="M125" t="n">
         <v>2</v>
@@ -11407,7 +11475,7 @@
         <v>2</v>
       </c>
       <c r="Q125" t="n">
-        <v>8.040230121837121</v>
+        <v>8.04023012187349</v>
       </c>
       <c r="R125" t="n">
         <v>25</v>
@@ -11471,13 +11539,13 @@
         <v>30</v>
       </c>
       <c r="J126" t="n">
-        <v>2158.688872662458</v>
+        <v>2158.688872670617</v>
       </c>
       <c r="K126" t="n">
         <v>2</v>
       </c>
       <c r="L126" t="n">
-        <v>2465.050588547568</v>
+        <v>2465.050588532989</v>
       </c>
       <c r="M126" t="n">
         <v>2</v>
@@ -11492,7 +11560,7 @@
         <v>2</v>
       </c>
       <c r="Q126" t="n">
-        <v>8.184078961482371</v>
+        <v>8.184078961477185</v>
       </c>
       <c r="R126" t="n">
         <v>25</v>
@@ -11562,7 +11630,7 @@
         <v>2</v>
       </c>
       <c r="L127" t="n">
-        <v>2457.51918776715</v>
+        <v>2457.519187800122</v>
       </c>
       <c r="M127" t="n">
         <v>2</v>
@@ -11577,7 +11645,7 @@
         <v>2</v>
       </c>
       <c r="Q127" t="n">
-        <v>8.17317002790589</v>
+        <v>8.173170027931182</v>
       </c>
       <c r="R127" t="n">
         <v>25</v>
@@ -11641,13 +11709,13 @@
         <v>30.5</v>
       </c>
       <c r="J128" t="n">
-        <v>2212.219581653162</v>
+        <v>2212.219583489788</v>
       </c>
       <c r="K128" t="n">
         <v>2</v>
       </c>
       <c r="L128" t="n">
-        <v>2450.085324205089</v>
+        <v>2450.085324190173</v>
       </c>
       <c r="M128" t="n">
         <v>2</v>
@@ -11662,7 +11730,7 @@
         <v>3</v>
       </c>
       <c r="Q128" t="n">
-        <v>8.066566843535936</v>
+        <v>8.066566843530081</v>
       </c>
       <c r="R128" t="n">
         <v>25</v>
@@ -11823,13 +11891,13 @@
         <v>27.83</v>
       </c>
       <c r="J130" t="n">
-        <v>2232.359689462864</v>
+        <v>2232.359689391666</v>
       </c>
       <c r="K130" t="n">
         <v>2</v>
       </c>
       <c r="L130" t="n">
-        <v>2431.707204073719</v>
+        <v>2431.707204053202</v>
       </c>
       <c r="M130" t="n">
         <v>2</v>
@@ -11844,7 +11912,7 @@
         <v>2</v>
       </c>
       <c r="Q130" t="n">
-        <v>7.960283331983002</v>
+        <v>7.960283331970785</v>
       </c>
       <c r="R130" t="n">
         <v>25</v>
@@ -11908,13 +11976,13 @@
         <v>30.1</v>
       </c>
       <c r="J131" t="n">
-        <v>2237.205087653962</v>
+        <v>2237.205315584054</v>
       </c>
       <c r="K131" t="n">
         <v>2</v>
       </c>
       <c r="L131" t="n">
-        <v>2444.180686915173</v>
+        <v>2444.180688885259</v>
       </c>
       <c r="M131" t="n">
         <v>2</v>
@@ -11929,7 +11997,7 @@
         <v>2</v>
       </c>
       <c r="Q131" t="n">
-        <v>7.999835198114347</v>
+        <v>7.999835199022356</v>
       </c>
       <c r="R131" t="n">
         <v>25</v>
@@ -11993,13 +12061,13 @@
         <v>30.72</v>
       </c>
       <c r="J132" t="n">
-        <v>2280.907207441596</v>
+        <v>2280.906760071845</v>
       </c>
       <c r="K132" t="n">
         <v>2</v>
       </c>
       <c r="L132" t="n">
-        <v>2450.716126410598</v>
+        <v>2450.716122004325</v>
       </c>
       <c r="M132" t="n">
         <v>2</v>
@@ -12014,7 +12082,7 @@
         <v>2</v>
       </c>
       <c r="Q132" t="n">
-        <v>7.918314961791387</v>
+        <v>7.918314960055342</v>
       </c>
       <c r="R132" t="n">
         <v>25</v>
@@ -12078,13 +12146,13 @@
         <v>31.94</v>
       </c>
       <c r="J133" t="n">
-        <v>2279.976704079399</v>
+        <v>2279.976704085494</v>
       </c>
       <c r="K133" t="n">
         <v>2</v>
       </c>
       <c r="L133" t="n">
-        <v>2444.335758799856</v>
+        <v>2444.335758496165</v>
       </c>
       <c r="M133" t="n">
         <v>2</v>
@@ -12099,7 +12167,7 @@
         <v>2</v>
       </c>
       <c r="Q133" t="n">
-        <v>7.892139238144216</v>
+        <v>7.892139238205353</v>
       </c>
       <c r="R133" t="n">
         <v>25</v>
@@ -12163,13 +12231,13 @@
         <v>31.17</v>
       </c>
       <c r="J134" t="n">
-        <v>2233.986335289202</v>
+        <v>2233.986335288865</v>
       </c>
       <c r="K134" t="n">
         <v>2</v>
       </c>
       <c r="L134" t="n">
-        <v>2378.373015967369</v>
+        <v>2378.373015633909</v>
       </c>
       <c r="M134" t="n">
         <v>2</v>
@@ -12184,7 +12252,7 @@
         <v>2</v>
       </c>
       <c r="Q134" t="n">
-        <v>7.857975152054001</v>
+        <v>7.857975152090516</v>
       </c>
       <c r="R134" t="n">
         <v>25</v>
@@ -12248,13 +12316,13 @@
         <v>31.48</v>
       </c>
       <c r="J135" t="n">
-        <v>2234.152935691337</v>
+        <v>2234.152970359555</v>
       </c>
       <c r="K135" t="n">
         <v>2</v>
       </c>
       <c r="L135" t="n">
-        <v>2366.102889656828</v>
+        <v>2366.10288962208</v>
       </c>
       <c r="M135" t="n">
         <v>2</v>
@@ -12269,7 +12337,7 @@
         <v>2</v>
       </c>
       <c r="Q135" t="n">
-        <v>7.8431504707537</v>
+        <v>7.84315047092382</v>
       </c>
       <c r="R135" t="n">
         <v>25</v>
@@ -12333,13 +12401,13 @@
         <v>30.76</v>
       </c>
       <c r="J136" t="n">
-        <v>2251.323526751256</v>
+        <v>2251.323522438668</v>
       </c>
       <c r="K136" t="n">
         <v>2</v>
       </c>
       <c r="L136" t="n">
-        <v>2390.753679314446</v>
+        <v>2390.753679264109</v>
       </c>
       <c r="M136" t="n">
         <v>2</v>
@@ -12354,7 +12422,7 @@
         <v>2</v>
       </c>
       <c r="Q136" t="n">
-        <v>7.850266815370475</v>
+        <v>7.850266815341038</v>
       </c>
       <c r="R136" t="n">
         <v>25</v>
@@ -12422,13 +12490,13 @@
         <v>30.18</v>
       </c>
       <c r="J137" t="n">
-        <v>2234.718639368837</v>
+        <v>2234.718648675389</v>
       </c>
       <c r="K137" t="n">
         <v>2</v>
       </c>
       <c r="L137" t="n">
-        <v>2387.290729231641</v>
+        <v>2387.290729295391</v>
       </c>
       <c r="M137" t="n">
         <v>2</v>
@@ -12447,7 +12515,7 @@
         <v>9</v>
       </c>
       <c r="Q137" t="n">
-        <v>7.894200342467428</v>
+        <v>7.894200342489766</v>
       </c>
       <c r="R137" t="n">
         <v>25</v>
@@ -12511,13 +12579,13 @@
         <v>29.19</v>
       </c>
       <c r="J138" t="n">
-        <v>2077.614938519279</v>
+        <v>2077.614900232843</v>
       </c>
       <c r="K138" t="n">
         <v>2</v>
       </c>
       <c r="L138" t="n">
-        <v>2424.222791612384</v>
+        <v>2424.222791286132</v>
       </c>
       <c r="M138" t="n">
         <v>2</v>
@@ -12532,7 +12600,7 @@
         <v>2</v>
       </c>
       <c r="Q138" t="n">
-        <v>8.267863744543805</v>
+        <v>8.267863744388446</v>
       </c>
       <c r="R138" t="n">
         <v>25</v>
@@ -12600,13 +12668,13 @@
         <v>30.02</v>
       </c>
       <c r="J139" t="n">
-        <v>2100.341100289684</v>
+        <v>2100.341107245877</v>
       </c>
       <c r="K139" t="n">
         <v>2</v>
       </c>
       <c r="L139" t="n">
-        <v>2419.316341548487</v>
+        <v>2419.316341592921</v>
       </c>
       <c r="M139" t="n">
         <v>2</v>
@@ -12621,7 +12689,7 @@
         <v>2</v>
       </c>
       <c r="Q139" t="n">
-        <v>8.214355603832091</v>
+        <v>8.214355603843824</v>
       </c>
       <c r="R139" t="n">
         <v>25</v>
@@ -12685,13 +12753,13 @@
         <v>26.18</v>
       </c>
       <c r="J140" t="n">
-        <v>2284.921485689631</v>
+        <v>2284.921526835636</v>
       </c>
       <c r="K140" t="n">
         <v>2</v>
       </c>
       <c r="L140" t="n">
-        <v>2475.509627587636</v>
+        <v>2475.509627965754</v>
       </c>
       <c r="M140" t="n">
         <v>2</v>
@@ -12706,7 +12774,7 @@
         <v>2</v>
       </c>
       <c r="Q140" t="n">
-        <v>8.012475800662711</v>
+        <v>8.012475800828991</v>
       </c>
       <c r="R140" t="n">
         <v>25</v>
@@ -12774,13 +12842,13 @@
         <v>31</v>
       </c>
       <c r="J141" t="n">
-        <v>2208.523195915491</v>
+        <v>2208.523195894669</v>
       </c>
       <c r="K141" t="n">
         <v>2</v>
       </c>
       <c r="L141" t="n">
-        <v>2421.409482052162</v>
+        <v>2421.409482078464</v>
       </c>
       <c r="M141" t="n">
         <v>2</v>
@@ -12795,7 +12863,7 @@
         <v>2</v>
       </c>
       <c r="Q141" t="n">
-        <v>8.013317388248794</v>
+        <v>8.013317388262953</v>
       </c>
       <c r="R141" t="n">
         <v>25</v>
@@ -12859,13 +12927,13 @@
         <v>30.7</v>
       </c>
       <c r="J142" t="n">
-        <v>2153.236313583172</v>
+        <v>2153.236313525847</v>
       </c>
       <c r="K142" t="n">
         <v>2</v>
       </c>
       <c r="L142" t="n">
-        <v>2433.402811155669</v>
+        <v>2433.402811133665</v>
       </c>
       <c r="M142" t="n">
         <v>2</v>
@@ -12880,7 +12948,7 @@
         <v>2</v>
       </c>
       <c r="Q142" t="n">
-        <v>8.135282702888949</v>
+        <v>8.13528270287202</v>
       </c>
       <c r="R142" t="n">
         <v>25</v>
@@ -12948,13 +13016,13 @@
         <v>29.42</v>
       </c>
       <c r="J143" t="n">
-        <v>2181.752456530372</v>
+        <v>2181.752470222978</v>
       </c>
       <c r="K143" t="n">
         <v>2</v>
       </c>
       <c r="L143" t="n">
-        <v>2422.619678394421</v>
+        <v>2422.619678554933</v>
       </c>
       <c r="M143" t="n">
         <v>2</v>
@@ -12969,7 +13037,7 @@
         <v>2</v>
       </c>
       <c r="Q143" t="n">
-        <v>8.088248677984026</v>
+        <v>8.088248678066623</v>
       </c>
       <c r="R143" t="n">
         <v>25</v>
@@ -13033,13 +13101,13 @@
         <v>29.93</v>
       </c>
       <c r="J144" t="n">
-        <v>2152.792486037333</v>
+        <v>2152.79249609726</v>
       </c>
       <c r="K144" t="n">
         <v>2</v>
       </c>
       <c r="L144" t="n">
-        <v>2411.161512861131</v>
+        <v>2411.161512965708</v>
       </c>
       <c r="M144" t="n">
         <v>2</v>
@@ -13054,7 +13122,7 @@
         <v>2</v>
       </c>
       <c r="Q144" t="n">
-        <v>8.093762859027738</v>
+        <v>8.093762859087514</v>
       </c>
       <c r="R144" t="n">
         <v>25</v>
@@ -13122,13 +13190,13 @@
         <v>30.88</v>
       </c>
       <c r="J145" t="n">
-        <v>2227.998459590401</v>
+        <v>2227.99846038786</v>
       </c>
       <c r="K145" t="n">
         <v>2</v>
       </c>
       <c r="L145" t="n">
-        <v>2402.218231456244</v>
+        <v>2402.218231458566</v>
       </c>
       <c r="M145" t="n">
         <v>2</v>
@@ -13143,7 +13211,7 @@
         <v>3</v>
       </c>
       <c r="Q145" t="n">
-        <v>7.928036456506478</v>
+        <v>7.928036456510637</v>
       </c>
       <c r="R145" t="n">
         <v>25</v>
@@ -13211,13 +13279,13 @@
         <v>31.33</v>
       </c>
       <c r="J146" t="n">
-        <v>2202.998464650283</v>
+        <v>2202.998464285847</v>
       </c>
       <c r="K146" t="n">
         <v>2</v>
       </c>
       <c r="L146" t="n">
-        <v>2418.013934350344</v>
+        <v>2418.013934353417</v>
       </c>
       <c r="M146" t="n">
         <v>2</v>
@@ -13232,7 +13300,7 @@
         <v>2</v>
       </c>
       <c r="Q146" t="n">
-        <v>8.008062438923254</v>
+        <v>8.008062438929059</v>
       </c>
       <c r="R146" t="n">
         <v>25</v>
@@ -13314,13 +13382,13 @@
         <v>30.33</v>
       </c>
       <c r="J147" t="n">
-        <v>2201.43301499576</v>
+        <v>2201.433000571959</v>
       </c>
       <c r="K147" t="n">
         <v>2</v>
       </c>
       <c r="L147" t="n">
-        <v>2408.672596426994</v>
+        <v>2408.672596285176</v>
       </c>
       <c r="M147" t="n">
         <v>2</v>
@@ -13335,7 +13403,7 @@
         <v>2</v>
       </c>
       <c r="Q147" t="n">
-        <v>8.000095587984275</v>
+        <v>8.000095587919576</v>
       </c>
       <c r="R147" t="n">
         <v>25</v>
@@ -13411,13 +13479,13 @@
         <v>28.56</v>
       </c>
       <c r="J148" t="n">
-        <v>2231.67019518261</v>
+        <v>2231.670195229814</v>
       </c>
       <c r="K148" t="n">
         <v>2</v>
       </c>
       <c r="L148" t="n">
-        <v>2351.100736086927</v>
+        <v>2351.100736083384</v>
       </c>
       <c r="M148" t="n">
         <v>2</v>
@@ -13432,7 +13500,7 @@
         <v>2</v>
       </c>
       <c r="Q148" t="n">
-        <v>7.823593248692482</v>
+        <v>7.823593248691689</v>
       </c>
       <c r="R148" t="n">
         <v>25</v>
@@ -13498,13 +13566,13 @@
         <v>29.32</v>
       </c>
       <c r="J149" t="n">
-        <v>2257.559742446264</v>
+        <v>2257.559742485616</v>
       </c>
       <c r="K149" t="n">
         <v>2</v>
       </c>
       <c r="L149" t="n">
-        <v>2390.020175028059</v>
+        <v>2390.020174992509</v>
       </c>
       <c r="M149" t="n">
         <v>2</v>
@@ -13519,7 +13587,7 @@
         <v>2</v>
       </c>
       <c r="Q149" t="n">
-        <v>7.847679922526366</v>
+        <v>7.847679922505982</v>
       </c>
       <c r="R149" t="n">
         <v>25</v>
@@ -13583,13 +13651,13 @@
         <v>30.58</v>
       </c>
       <c r="J150" t="n">
-        <v>2235.313660650676</v>
+        <v>2235.313660659244</v>
       </c>
       <c r="K150" t="n">
         <v>2</v>
       </c>
       <c r="L150" t="n">
-        <v>2426.873846451598</v>
+        <v>2426.873846405681</v>
       </c>
       <c r="M150" t="n">
         <v>2</v>
@@ -13604,7 +13672,7 @@
         <v>2</v>
       </c>
       <c r="Q150" t="n">
-        <v>7.987846514749984</v>
+        <v>7.987846514719027</v>
       </c>
       <c r="R150" t="n">
         <v>25</v>
@@ -13668,13 +13736,13 @@
         <v>30.32</v>
       </c>
       <c r="J151" t="n">
-        <v>2217.599064075969</v>
+        <v>2217.59906407938</v>
       </c>
       <c r="K151" t="n">
         <v>2</v>
       </c>
       <c r="L151" t="n">
-        <v>2453.345187825573</v>
+        <v>2453.345187822827</v>
       </c>
       <c r="M151" t="n">
         <v>2</v>
@@ -13689,7 +13757,7 @@
         <v>2</v>
       </c>
       <c r="Q151" t="n">
-        <v>8.053932500651797</v>
+        <v>8.053932500652325</v>
       </c>
       <c r="R151" t="n">
         <v>25</v>
@@ -13753,13 +13821,13 @@
         <v>30.71</v>
       </c>
       <c r="J152" t="n">
-        <v>2134.875934367588</v>
+        <v>2134.875934374626</v>
       </c>
       <c r="K152" t="n">
         <v>2</v>
       </c>
       <c r="L152" t="n">
-        <v>2440.828387409983</v>
+        <v>2440.828387397489</v>
       </c>
       <c r="M152" t="n">
         <v>2</v>
@@ -13774,7 +13842,7 @@
         <v>2</v>
       </c>
       <c r="Q152" t="n">
-        <v>8.179189513224138</v>
+        <v>8.17918951322576</v>
       </c>
       <c r="R152" t="n">
         <v>25</v>
@@ -13844,7 +13912,7 @@
         <v>2</v>
       </c>
       <c r="L153" t="n">
-        <v>2432.691230404584</v>
+        <v>2432.691230419447</v>
       </c>
       <c r="M153" t="n">
         <v>2</v>
@@ -13859,7 +13927,7 @@
         <v>2</v>
       </c>
       <c r="Q153" t="n">
-        <v>8.174417312003532</v>
+        <v>8.174417312021916</v>
       </c>
       <c r="R153" t="n">
         <v>25</v>
@@ -13923,13 +13991,13 @@
         <v>31.02</v>
       </c>
       <c r="J154" t="n">
-        <v>2170.447123616972</v>
+        <v>2170.447125207122</v>
       </c>
       <c r="K154" t="n">
         <v>2</v>
       </c>
       <c r="L154" t="n">
-        <v>2436.583243521399</v>
+        <v>2436.583243585614</v>
       </c>
       <c r="M154" t="n">
         <v>2</v>
@@ -13944,7 +14012,7 @@
         <v>2</v>
       </c>
       <c r="Q154" t="n">
-        <v>8.112433974060353</v>
+        <v>8.112433974103981</v>
       </c>
       <c r="R154" t="n">
         <v>25</v>
@@ -14105,13 +14173,13 @@
         <v>31.63</v>
       </c>
       <c r="J156" t="n">
-        <v>2176.836030821366</v>
+        <v>2176.836030757135</v>
       </c>
       <c r="K156" t="n">
         <v>2</v>
       </c>
       <c r="L156" t="n">
-        <v>2421.18204923664</v>
+        <v>2421.182049219833</v>
       </c>
       <c r="M156" t="n">
         <v>2</v>
@@ -14126,7 +14194,7 @@
         <v>2</v>
       </c>
       <c r="Q156" t="n">
-        <v>8.060007108484657</v>
+        <v>8.060007108473446</v>
       </c>
       <c r="R156" t="n">
         <v>25</v>
@@ -14190,13 +14258,13 @@
         <v>30.83</v>
       </c>
       <c r="J157" t="n">
-        <v>2207.87666348457</v>
+        <v>2207.876963537901</v>
       </c>
       <c r="K157" t="n">
         <v>2</v>
       </c>
       <c r="L157" t="n">
-        <v>2434.227189697361</v>
+        <v>2434.227192255007</v>
       </c>
       <c r="M157" t="n">
         <v>2</v>
@@ -14211,7 +14279,7 @@
         <v>2</v>
       </c>
       <c r="Q157" t="n">
-        <v>8.053016633969689</v>
+        <v>8.053016635136485</v>
       </c>
       <c r="R157" t="n">
         <v>25</v>
@@ -14275,13 +14343,13 @@
         <v>31.52</v>
       </c>
       <c r="J158" t="n">
-        <v>2246.147081067182</v>
+        <v>2246.146577581759</v>
       </c>
       <c r="K158" t="n">
         <v>2</v>
       </c>
       <c r="L158" t="n">
-        <v>2434.725841570316</v>
+        <v>2434.725836903684</v>
       </c>
       <c r="M158" t="n">
         <v>2</v>
@@ -14296,7 +14364,7 @@
         <v>2</v>
       </c>
       <c r="Q158" t="n">
-        <v>7.95247182112426</v>
+        <v>7.952471819328125</v>
       </c>
       <c r="R158" t="n">
         <v>25</v>
@@ -14360,13 +14428,13 @@
         <v>30.21</v>
       </c>
       <c r="J159" t="n">
-        <v>2249.22297433105</v>
+        <v>2249.222970369989</v>
       </c>
       <c r="K159" t="n">
         <v>2</v>
       </c>
       <c r="L159" t="n">
-        <v>2391.852103541374</v>
+        <v>2391.852103491075</v>
       </c>
       <c r="M159" t="n">
         <v>2</v>
@@ -14381,7 +14449,7 @@
         <v>2</v>
       </c>
       <c r="Q159" t="n">
-        <v>7.870517768006362</v>
+        <v>7.870517767975724</v>
       </c>
       <c r="R159" t="n">
         <v>25</v>
@@ -14449,13 +14517,13 @@
         <v>30.91</v>
       </c>
       <c r="J160" t="n">
-        <v>2175.004625293241</v>
+        <v>2175.004633541175</v>
       </c>
       <c r="K160" t="n">
         <v>2</v>
       </c>
       <c r="L160" t="n">
-        <v>2377.703423309101</v>
+        <v>2377.703423367706</v>
       </c>
       <c r="M160" t="n">
         <v>2</v>
@@ -14474,7 +14542,7 @@
         <v>9</v>
       </c>
       <c r="Q160" t="n">
-        <v>7.999392289296233</v>
+        <v>7.999392289316659</v>
       </c>
       <c r="R160" t="n">
         <v>25</v>
@@ -14538,13 +14606,13 @@
         <v>30.42</v>
       </c>
       <c r="J161" t="n">
-        <v>2039.799463765318</v>
+        <v>2039.79942916045</v>
       </c>
       <c r="K161" t="n">
         <v>2</v>
       </c>
       <c r="L161" t="n">
-        <v>2405.885921654963</v>
+        <v>2405.885921340864</v>
       </c>
       <c r="M161" t="n">
         <v>2</v>
@@ -14559,7 +14627,7 @@
         <v>2</v>
       </c>
       <c r="Q161" t="n">
-        <v>8.284784535750644</v>
+        <v>8.284784535599726</v>
       </c>
       <c r="R161" t="n">
         <v>25</v>
@@ -14627,13 +14695,13 @@
         <v>30.57</v>
       </c>
       <c r="J162" t="n">
-        <v>2122.050432939935</v>
+        <v>2122.050443255124</v>
       </c>
       <c r="K162" t="n">
         <v>2</v>
       </c>
       <c r="L162" t="n">
-        <v>2409.711832914928</v>
+        <v>2409.711833003974</v>
       </c>
       <c r="M162" t="n">
         <v>2</v>
@@ -14648,7 +14716,7 @@
         <v>3</v>
       </c>
       <c r="Q162" t="n">
-        <v>8.159633238535555</v>
+        <v>8.159633238574864</v>
       </c>
       <c r="R162" t="n">
         <v>25</v>
@@ -14712,13 +14780,13 @@
         <v>30.28</v>
       </c>
       <c r="J163" t="n">
-        <v>2194.62474591913</v>
+        <v>2194.624790800316</v>
       </c>
       <c r="K163" t="n">
         <v>2</v>
       </c>
       <c r="L163" t="n">
-        <v>2425.084263702312</v>
+        <v>2425.084264059572</v>
       </c>
       <c r="M163" t="n">
         <v>2</v>
@@ -14733,7 +14801,7 @@
         <v>2</v>
       </c>
       <c r="Q163" t="n">
-        <v>8.049355715413144</v>
+        <v>8.049355715557679</v>
       </c>
       <c r="R163" t="n">
         <v>25</v>
@@ -14801,13 +14869,13 @@
         <v>31.51</v>
       </c>
       <c r="J164" t="n">
-        <v>2177.530744371279</v>
+        <v>2177.530744345293</v>
       </c>
       <c r="K164" t="n">
         <v>2</v>
       </c>
       <c r="L164" t="n">
-        <v>2415.90307811527</v>
+        <v>2415.903078100014</v>
       </c>
       <c r="M164" t="n">
         <v>2</v>
@@ -14822,7 +14890,7 @@
         <v>2</v>
       </c>
       <c r="Q164" t="n">
-        <v>8.063530816054294</v>
+        <v>8.063530816040078</v>
       </c>
       <c r="R164" t="n">
         <v>25</v>
@@ -14886,13 +14954,13 @@
         <v>31.96</v>
       </c>
       <c r="J165" t="n">
-        <v>2111.989717086099</v>
+        <v>2111.989717031003</v>
       </c>
       <c r="K165" t="n">
         <v>2</v>
       </c>
       <c r="L165" t="n">
-        <v>2411.391918309152</v>
+        <v>2411.39191830902</v>
       </c>
       <c r="M165" t="n">
         <v>2</v>
@@ -14907,7 +14975,7 @@
         <v>2</v>
       </c>
       <c r="Q165" t="n">
-        <v>8.161660537460863</v>
+        <v>8.161660537456449</v>
       </c>
       <c r="R165" t="n">
         <v>25</v>
@@ -14975,13 +15043,13 @@
         <v>31.05</v>
       </c>
       <c r="J166" t="n">
-        <v>2152.856928217014</v>
+        <v>2152.856942196179</v>
       </c>
       <c r="K166" t="n">
         <v>2</v>
       </c>
       <c r="L166" t="n">
-        <v>2417.500750266535</v>
+        <v>2417.500750399619</v>
       </c>
       <c r="M166" t="n">
         <v>2</v>
@@ -14996,7 +15064,7 @@
         <v>2</v>
       </c>
       <c r="Q166" t="n">
-        <v>8.117053667143667</v>
+        <v>8.117053667204067</v>
       </c>
       <c r="R166" t="n">
         <v>25</v>
@@ -15060,13 +15128,13 @@
         <v>30.11</v>
       </c>
       <c r="J167" t="n">
-        <v>2107.96958203533</v>
+        <v>2107.969591809594</v>
       </c>
       <c r="K167" t="n">
         <v>2</v>
       </c>
       <c r="L167" t="n">
-        <v>2409.651268172809</v>
+        <v>2409.651268242083</v>
       </c>
       <c r="M167" t="n">
         <v>2</v>
@@ -15081,7 +15149,7 @@
         <v>2</v>
       </c>
       <c r="Q167" t="n">
-        <v>8.174845901386851</v>
+        <v>8.174845901419825</v>
       </c>
       <c r="R167" t="n">
         <v>25</v>
@@ -15149,13 +15217,13 @@
         <v>32.51</v>
       </c>
       <c r="J168" t="n">
-        <v>2222.785302983584</v>
+        <v>2222.785303702872</v>
       </c>
       <c r="K168" t="n">
         <v>2</v>
       </c>
       <c r="L168" t="n">
-        <v>2399.164963469765</v>
+        <v>2399.164963486102</v>
       </c>
       <c r="M168" t="n">
         <v>2</v>
@@ -15170,7 +15238,7 @@
         <v>3</v>
       </c>
       <c r="Q168" t="n">
-        <v>7.9221260805135</v>
+        <v>7.922126080528407</v>
       </c>
       <c r="R168" t="n">
         <v>25</v>
@@ -15238,13 +15306,13 @@
         <v>31.13</v>
       </c>
       <c r="J169" t="n">
-        <v>2121.654792260468</v>
+        <v>2121.654791814945</v>
       </c>
       <c r="K169" t="n">
         <v>2</v>
       </c>
       <c r="L169" t="n">
-        <v>2420.976075561574</v>
+        <v>2420.976075562915</v>
       </c>
       <c r="M169" t="n">
         <v>2</v>
@@ -15259,7 +15327,7 @@
         <v>2</v>
       </c>
       <c r="Q169" t="n">
-        <v>8.160978456241645</v>
+        <v>8.160978456248136</v>
       </c>
       <c r="R169" t="n">
         <v>25</v>
@@ -15341,13 +15409,13 @@
         <v>31.13</v>
       </c>
       <c r="J170" t="n">
-        <v>2151.593665393172</v>
+        <v>2151.593647517447</v>
       </c>
       <c r="K170" t="n">
         <v>2</v>
       </c>
       <c r="L170" t="n">
-        <v>2408.26709958667</v>
+        <v>2408.267099437616</v>
       </c>
       <c r="M170" t="n">
         <v>2</v>
@@ -15362,7 +15430,7 @@
         <v>2</v>
       </c>
       <c r="Q170" t="n">
-        <v>8.075592699692375</v>
+        <v>8.075592699630711</v>
       </c>
       <c r="R170" t="n">
         <v>25</v>
@@ -15438,13 +15506,13 @@
         <v>31.47</v>
       </c>
       <c r="J171" t="n">
-        <v>2202.925902941497</v>
+        <v>2202.925902988242</v>
       </c>
       <c r="K171" t="n">
         <v>2</v>
       </c>
       <c r="L171" t="n">
-        <v>2350.338517888305</v>
+        <v>2350.338517862261</v>
       </c>
       <c r="M171" t="n">
         <v>2</v>
@@ -15459,7 +15527,7 @@
         <v>2</v>
       </c>
       <c r="Q171" t="n">
-        <v>7.863447728101295</v>
+        <v>7.863447728086634</v>
       </c>
       <c r="R171" t="n">
         <v>25</v>
@@ -15527,13 +15595,13 @@
         <v>31.54</v>
       </c>
       <c r="J172" t="n">
-        <v>2228.599861347509</v>
+        <v>2228.599861385682</v>
       </c>
       <c r="K172" t="n">
         <v>2</v>
       </c>
       <c r="L172" t="n">
-        <v>2365.23916502068</v>
+        <v>2365.239165033076</v>
       </c>
       <c r="M172" t="n">
         <v>2</v>
@@ -15548,7 +15616,7 @@
         <v>2</v>
       </c>
       <c r="Q172" t="n">
-        <v>7.843498582523942</v>
+        <v>7.843498582534657</v>
       </c>
       <c r="R172" t="n">
         <v>25</v>
@@ -15616,13 +15684,13 @@
         <v>30.29</v>
       </c>
       <c r="J173" t="n">
-        <v>2245.31956724882</v>
+        <v>2245.319567257246</v>
       </c>
       <c r="K173" t="n">
         <v>2</v>
       </c>
       <c r="L173" t="n">
-        <v>2438.606980363762</v>
+        <v>2438.606980353401</v>
       </c>
       <c r="M173" t="n">
         <v>2</v>
@@ -15637,7 +15705,7 @@
         <v>2</v>
       </c>
       <c r="Q173" t="n">
-        <v>7.985480325748091</v>
+        <v>7.985480325742333</v>
       </c>
       <c r="R173" t="n">
         <v>25</v>
@@ -15705,13 +15773,13 @@
         <v>31.79</v>
       </c>
       <c r="J174" t="n">
-        <v>2159.133251677836</v>
+        <v>2159.133251680637</v>
       </c>
       <c r="K174" t="n">
         <v>2</v>
       </c>
       <c r="L174" t="n">
-        <v>2420.010262633658</v>
+        <v>2420.010262653494</v>
       </c>
       <c r="M174" t="n">
         <v>2</v>
@@ -15726,7 +15794,7 @@
         <v>2</v>
       </c>
       <c r="Q174" t="n">
-        <v>8.089540816532191</v>
+        <v>8.089540816548043</v>
       </c>
       <c r="R174" t="n">
         <v>25</v>
@@ -15794,13 +15862,13 @@
         <v>31.58</v>
       </c>
       <c r="J175" t="n">
-        <v>2101.821129261199</v>
+        <v>2101.82112926644</v>
       </c>
       <c r="K175" t="n">
         <v>2</v>
       </c>
       <c r="L175" t="n">
-        <v>2415.143671351385</v>
+        <v>2415.143671320725</v>
       </c>
       <c r="M175" t="n">
         <v>2</v>
@@ -15819,7 +15887,7 @@
         <v>9</v>
       </c>
       <c r="Q175" t="n">
-        <v>8.181859055574289</v>
+        <v>8.181859055561119</v>
       </c>
       <c r="R175" t="n">
         <v>25</v>
@@ -15893,7 +15961,7 @@
         <v>2</v>
       </c>
       <c r="L176" t="n">
-        <v>2403.857882035439</v>
+        <v>2403.857882044033</v>
       </c>
       <c r="M176" t="n">
         <v>2</v>
@@ -15908,7 +15976,7 @@
         <v>2</v>
       </c>
       <c r="Q176" t="n">
-        <v>8.160716297348582</v>
+        <v>8.160716297361274</v>
       </c>
       <c r="R176" t="n">
         <v>25</v>
@@ -15976,13 +16044,13 @@
         <v>31.91</v>
       </c>
       <c r="J177" t="n">
-        <v>2121.508937319918</v>
+        <v>2121.50893866041</v>
       </c>
       <c r="K177" t="n">
         <v>2</v>
       </c>
       <c r="L177" t="n">
-        <v>2421.928790815518</v>
+        <v>2421.92879083041</v>
       </c>
       <c r="M177" t="n">
         <v>2</v>
@@ -15997,7 +16065,7 @@
         <v>2</v>
       </c>
       <c r="Q177" t="n">
-        <v>8.167061685517726</v>
+        <v>8.167061685534206</v>
       </c>
       <c r="R177" t="n">
         <v>25</v>
@@ -16166,13 +16234,13 @@
         <v>32.9</v>
       </c>
       <c r="J179" t="n">
-        <v>2152.875633281293</v>
+        <v>2152.875633223571</v>
       </c>
       <c r="K179" t="n">
         <v>2</v>
       </c>
       <c r="L179" t="n">
-        <v>2405.364943322723</v>
+        <v>2405.364943314965</v>
       </c>
       <c r="M179" t="n">
         <v>2</v>
@@ -16187,7 +16255,7 @@
         <v>2</v>
       </c>
       <c r="Q179" t="n">
-        <v>8.074126755424841</v>
+        <v>8.074126755420437</v>
       </c>
       <c r="R179" t="n">
         <v>25</v>
@@ -16255,13 +16323,13 @@
         <v>31.34</v>
       </c>
       <c r="J180" t="n">
-        <v>2186.993409826315</v>
+        <v>2186.99377972606</v>
       </c>
       <c r="K180" t="n">
         <v>2</v>
       </c>
       <c r="L180" t="n">
-        <v>2431.608391896005</v>
+        <v>2431.60839508651</v>
       </c>
       <c r="M180" t="n">
         <v>2</v>
@@ -16276,7 +16344,7 @@
         <v>2</v>
       </c>
       <c r="Q180" t="n">
-        <v>8.065618322843724</v>
+        <v>8.065618324304166</v>
       </c>
       <c r="R180" t="n">
         <v>25</v>
@@ -16344,13 +16412,13 @@
         <v>31.95</v>
       </c>
       <c r="J181" t="n">
-        <v>2228.811051111366</v>
+        <v>2228.810480886914</v>
       </c>
       <c r="K181" t="n">
         <v>2</v>
       </c>
       <c r="L181" t="n">
-        <v>2426.848647794047</v>
+        <v>2426.848642724048</v>
       </c>
       <c r="M181" t="n">
         <v>2</v>
@@ -16365,7 +16433,7 @@
         <v>2</v>
       </c>
       <c r="Q181" t="n">
-        <v>7.966817791678765</v>
+        <v>7.966817789747133</v>
       </c>
       <c r="R181" t="n">
         <v>25</v>
@@ -16443,13 +16511,13 @@
         <v>32.67</v>
       </c>
       <c r="J182" t="n">
-        <v>2251.353608479798</v>
+        <v>2251.353608490435</v>
       </c>
       <c r="K182" t="n">
         <v>2</v>
       </c>
       <c r="L182" t="n">
-        <v>2430.733070348813</v>
+        <v>2430.733070018246</v>
       </c>
       <c r="M182" t="n">
         <v>2</v>
@@ -16464,7 +16532,7 @@
         <v>2</v>
       </c>
       <c r="Q182" t="n">
-        <v>7.92029418016225</v>
+        <v>7.920294180204381</v>
       </c>
       <c r="R182" t="n">
         <v>25</v>
@@ -16532,13 +16600,13 @@
         <v>32.11</v>
       </c>
       <c r="J183" t="n">
-        <v>2222.163754659633</v>
+        <v>2222.163754658057</v>
       </c>
       <c r="K183" t="n">
         <v>2</v>
       </c>
       <c r="L183" t="n">
-        <v>2373.499598477602</v>
+        <v>2373.499598204316</v>
       </c>
       <c r="M183" t="n">
         <v>2</v>
@@ -16553,7 +16621,7 @@
         <v>2</v>
       </c>
       <c r="Q183" t="n">
-        <v>7.876073366179687</v>
+        <v>7.876073366255838</v>
       </c>
       <c r="R183" t="n">
         <v>25</v>
@@ -16621,13 +16689,13 @@
         <v>32.13</v>
       </c>
       <c r="J184" t="n">
-        <v>2215.784751826683</v>
+        <v>2215.784790068975</v>
       </c>
       <c r="K184" t="n">
         <v>2</v>
       </c>
       <c r="L184" t="n">
-        <v>2356.50524775255</v>
+        <v>2356.505247755245</v>
       </c>
       <c r="M184" t="n">
         <v>2</v>
@@ -16642,7 +16710,7 @@
         <v>2</v>
       </c>
       <c r="Q184" t="n">
-        <v>7.855301374944874</v>
+        <v>7.855301375134009</v>
       </c>
       <c r="R184" t="n">
         <v>25</v>
@@ -16710,13 +16778,13 @@
         <v>30.15</v>
       </c>
       <c r="J185" t="n">
-        <v>2229.385164230488</v>
+        <v>2229.38516070969</v>
       </c>
       <c r="K185" t="n">
         <v>2</v>
       </c>
       <c r="L185" t="n">
-        <v>2386.759297526607</v>
+        <v>2386.759297494847</v>
       </c>
       <c r="M185" t="n">
         <v>2</v>
@@ -16731,7 +16799,7 @@
         <v>2</v>
       </c>
       <c r="Q185" t="n">
-        <v>7.899014873636382</v>
+        <v>7.899014873618603</v>
       </c>
       <c r="R185" t="n">
         <v>25</v>
@@ -16799,13 +16867,13 @@
         <v>31.48</v>
       </c>
       <c r="J186" t="n">
-        <v>2129.832078195037</v>
+        <v>2129.832088795578</v>
       </c>
       <c r="K186" t="n">
         <v>2</v>
       </c>
       <c r="L186" t="n">
-        <v>2374.87454606796</v>
+        <v>2374.874546155188</v>
       </c>
       <c r="M186" t="n">
         <v>2</v>
@@ -16824,7 +16892,7 @@
         <v>9</v>
       </c>
       <c r="Q186" t="n">
-        <v>8.077446992163665</v>
+        <v>8.077446992197974</v>
       </c>
       <c r="R186" t="n">
         <v>25</v>
@@ -16892,13 +16960,13 @@
         <v>29.56</v>
       </c>
       <c r="J187" t="n">
-        <v>2065.323405483999</v>
+        <v>2065.323374217063</v>
       </c>
       <c r="K187" t="n">
         <v>2</v>
       </c>
       <c r="L187" t="n">
-        <v>2411.817771326409</v>
+        <v>2411.817771109669</v>
       </c>
       <c r="M187" t="n">
         <v>2</v>
@@ -16913,7 +16981,7 @@
         <v>2</v>
       </c>
       <c r="Q187" t="n">
-        <v>8.266855737537435</v>
+        <v>8.266855737444789</v>
       </c>
       <c r="R187" t="n">
         <v>25</v>
@@ -16981,13 +17049,13 @@
         <v>31.58</v>
       </c>
       <c r="J188" t="n">
-        <v>2072.846939000673</v>
+        <v>2072.846952997039</v>
       </c>
       <c r="K188" t="n">
         <v>2</v>
       </c>
       <c r="L188" t="n">
-        <v>2392.625255354102</v>
+        <v>2392.625255493747</v>
       </c>
       <c r="M188" t="n">
         <v>2</v>
@@ -17002,7 +17070,7 @@
         <v>2</v>
       </c>
       <c r="Q188" t="n">
-        <v>8.201844924625572</v>
+        <v>8.201844924690187</v>
       </c>
       <c r="R188" t="n">
         <v>25</v>
@@ -17070,7 +17138,7 @@
         <v>31.56</v>
       </c>
       <c r="J189" t="n">
-        <v>2130.483106131873</v>
+        <v>2130.483156243354</v>
       </c>
       <c r="K189" t="n">
         <v>2</v>
@@ -17169,13 +17237,13 @@
         <v>32.68</v>
       </c>
       <c r="J190" t="n">
-        <v>2130.064486250955</v>
+        <v>2130.064486220038</v>
       </c>
       <c r="K190" t="n">
         <v>2</v>
       </c>
       <c r="L190" t="n">
-        <v>2392.942545644208</v>
+        <v>2392.94254563339</v>
       </c>
       <c r="M190" t="n">
         <v>2</v>
@@ -17190,7 +17258,7 @@
         <v>2</v>
       </c>
       <c r="Q190" t="n">
-        <v>8.091332029838947</v>
+        <v>8.091332029827267</v>
       </c>
       <c r="R190" t="n">
         <v>25</v>
@@ -17258,13 +17326,13 @@
         <v>32.58</v>
       </c>
       <c r="J191" t="n">
-        <v>2104.954188101845</v>
+        <v>2104.954188049549</v>
       </c>
       <c r="K191" t="n">
         <v>2</v>
       </c>
       <c r="L191" t="n">
-        <v>2401.175380281761</v>
+        <v>2401.175380254652</v>
       </c>
       <c r="M191" t="n">
         <v>2</v>
@@ -17279,7 +17347,7 @@
         <v>2</v>
       </c>
       <c r="Q191" t="n">
-        <v>8.150787941574331</v>
+        <v>8.150787941553459</v>
       </c>
       <c r="R191" t="n">
         <v>25</v>
@@ -17347,13 +17415,13 @@
         <v>32.01</v>
       </c>
       <c r="J192" t="n">
-        <v>2145.298455461008</v>
+        <v>2145.298469618062</v>
       </c>
       <c r="K192" t="n">
         <v>2</v>
       </c>
       <c r="L192" t="n">
-        <v>2404.189313636751</v>
+        <v>2404.189313786265</v>
       </c>
       <c r="M192" t="n">
         <v>2</v>
@@ -17368,7 +17436,7 @@
         <v>2</v>
       </c>
       <c r="Q192" t="n">
-        <v>8.092039492519209</v>
+        <v>8.092039492589452</v>
       </c>
       <c r="R192" t="n">
         <v>25</v>
@@ -17436,13 +17504,13 @@
         <v>32.55</v>
       </c>
       <c r="J193" t="n">
-        <v>2135.482677053279</v>
+        <v>2135.48268639507</v>
       </c>
       <c r="K193" t="n">
         <v>2</v>
       </c>
       <c r="L193" t="n">
-        <v>2384.734647319015</v>
+        <v>2384.734647342511</v>
       </c>
       <c r="M193" t="n">
         <v>2</v>
@@ -17457,7 +17525,7 @@
         <v>2</v>
       </c>
       <c r="Q193" t="n">
-        <v>8.060591648795389</v>
+        <v>8.060591648798745</v>
       </c>
       <c r="R193" t="n">
         <v>25</v>
@@ -17525,13 +17593,13 @@
         <v>33.36</v>
       </c>
       <c r="J194" t="n">
-        <v>2152.67431587403</v>
+        <v>2152.674316516941</v>
       </c>
       <c r="K194" t="n">
         <v>2</v>
       </c>
       <c r="L194" t="n">
-        <v>2396.91805513383</v>
+        <v>2396.918055118382</v>
       </c>
       <c r="M194" t="n">
         <v>2</v>
@@ -17546,7 +17614,7 @@
         <v>2</v>
       </c>
       <c r="Q194" t="n">
-        <v>8.034461237468935</v>
+        <v>8.034461237461725</v>
       </c>
       <c r="R194" t="n">
         <v>25</v>
@@ -17618,13 +17686,13 @@
         <v>33.03</v>
       </c>
       <c r="J195" t="n">
-        <v>2159.257475871527</v>
+        <v>2159.257475329835</v>
       </c>
       <c r="K195" t="n">
         <v>2</v>
       </c>
       <c r="L195" t="n">
-        <v>2405.624297505587</v>
+        <v>2405.62429747887</v>
       </c>
       <c r="M195" t="n">
         <v>2</v>
@@ -17639,7 +17707,7 @@
         <v>2</v>
       </c>
       <c r="Q195" t="n">
-        <v>8.04639770109867</v>
+        <v>8.046397701086683</v>
       </c>
       <c r="R195" t="n">
         <v>25</v>
@@ -17721,13 +17789,13 @@
         <v>33.13</v>
       </c>
       <c r="J196" t="n">
-        <v>2155.712724106227</v>
+        <v>2155.712702424923</v>
       </c>
       <c r="K196" t="n">
         <v>2</v>
       </c>
       <c r="L196" t="n">
-        <v>2395.035524253791</v>
+        <v>2395.035524069493</v>
       </c>
       <c r="M196" t="n">
         <v>2</v>
@@ -17742,7 +17810,7 @@
         <v>2</v>
       </c>
       <c r="Q196" t="n">
-        <v>8.037276799493405</v>
+        <v>8.037276799414387</v>
       </c>
       <c r="R196" t="n">
         <v>25</v>
@@ -17822,13 +17890,13 @@
         <v>35.19</v>
       </c>
       <c r="J197" t="n">
-        <v>2149.789539737452</v>
+        <v>2149.789539783005</v>
       </c>
       <c r="K197" t="n">
         <v>2</v>
       </c>
       <c r="L197" t="n">
-        <v>2325.019165771455</v>
+        <v>2325.019165761012</v>
       </c>
       <c r="M197" t="n">
         <v>2</v>
@@ -17843,7 +17911,7 @@
         <v>2</v>
       </c>
       <c r="Q197" t="n">
-        <v>7.899587932061869</v>
+        <v>7.899587932056211</v>
       </c>
       <c r="R197" t="n">
         <v>25</v>
@@ -17911,13 +17979,13 @@
         <v>35.26</v>
       </c>
       <c r="J198" t="n">
-        <v>2160.65465409331</v>
+        <v>2160.654654129532</v>
       </c>
       <c r="K198" t="n">
         <v>2</v>
       </c>
       <c r="L198" t="n">
-        <v>2321.248603817844</v>
+        <v>2321.24860382825</v>
       </c>
       <c r="M198" t="n">
         <v>2</v>
@@ -17932,7 +18000,7 @@
         <v>3</v>
       </c>
       <c r="Q198" t="n">
-        <v>7.87110334050767</v>
+        <v>7.871103340515861</v>
       </c>
       <c r="R198" t="n">
         <v>25</v>
@@ -18000,13 +18068,13 @@
         <v>35.26</v>
       </c>
       <c r="J199" t="n">
-        <v>2124.921477274072</v>
+        <v>2124.921477281981</v>
       </c>
       <c r="K199" t="n">
         <v>2</v>
       </c>
       <c r="L199" t="n">
-        <v>2331.807922134065</v>
+        <v>2331.807922125591</v>
       </c>
       <c r="M199" t="n">
         <v>2</v>
@@ -18021,7 +18089,7 @@
         <v>2</v>
       </c>
       <c r="Q199" t="n">
-        <v>7.981072548458839</v>
+        <v>7.981072548455147</v>
       </c>
       <c r="R199" t="n">
         <v>25</v>
@@ -18089,13 +18157,13 @@
         <v>34.82</v>
       </c>
       <c r="J200" t="n">
-        <v>2052.299324856444</v>
+        <v>2052.299324858566</v>
       </c>
       <c r="K200" t="n">
         <v>2</v>
       </c>
       <c r="L200" t="n">
-        <v>2346.649347930538</v>
+        <v>2346.649347923798</v>
       </c>
       <c r="M200" t="n">
         <v>2</v>
@@ -18110,7 +18178,7 @@
         <v>2</v>
       </c>
       <c r="Q200" t="n">
-        <v>8.128570420420715</v>
+        <v>8.128570420417139</v>
       </c>
       <c r="R200" t="n">
         <v>25</v>
@@ -18178,13 +18246,13 @@
         <v>34.19</v>
       </c>
       <c r="J201" t="n">
-        <v>2065.916660478118</v>
+        <v>2065.916660481532</v>
       </c>
       <c r="K201" t="n">
         <v>2</v>
       </c>
       <c r="L201" t="n">
-        <v>2348.044449234601</v>
+        <v>2348.044449191103</v>
       </c>
       <c r="M201" t="n">
         <v>2</v>
@@ -18199,7 +18267,7 @@
         <v>3</v>
       </c>
       <c r="Q201" t="n">
-        <v>8.115937752650463</v>
+        <v>8.115937752630124</v>
       </c>
       <c r="R201" t="n">
         <v>25</v>
@@ -18273,7 +18341,7 @@
         <v>2</v>
       </c>
       <c r="L202" t="n">
-        <v>2348.860861637514</v>
+        <v>2348.860861626265</v>
       </c>
       <c r="M202" t="n">
         <v>2</v>
@@ -18288,7 +18356,7 @@
         <v>2</v>
       </c>
       <c r="Q202" t="n">
-        <v>8.051273199915482</v>
+        <v>8.051273199914709</v>
       </c>
       <c r="R202" t="n">
         <v>25</v>
@@ -18356,13 +18424,13 @@
         <v>35.02</v>
       </c>
       <c r="J203" t="n">
-        <v>2130.155133816667</v>
+        <v>2130.155134919364</v>
       </c>
       <c r="K203" t="n">
         <v>2</v>
       </c>
       <c r="L203" t="n">
-        <v>2350.337225489306</v>
+        <v>2350.337225444833</v>
       </c>
       <c r="M203" t="n">
         <v>2</v>
@@ -18377,7 +18445,7 @@
         <v>2</v>
       </c>
       <c r="Q203" t="n">
-        <v>8.001342678032302</v>
+        <v>8.001342678008729</v>
       </c>
       <c r="R203" t="n">
         <v>25</v>
@@ -18546,13 +18614,13 @@
         <v>34.1</v>
       </c>
       <c r="J205" t="n">
-        <v>2101.882632462586</v>
+        <v>2101.882632412139</v>
       </c>
       <c r="K205" t="n">
         <v>2</v>
       </c>
       <c r="L205" t="n">
-        <v>2341.906216720933</v>
+        <v>2341.90621669435</v>
       </c>
       <c r="M205" t="n">
         <v>2</v>
@@ -18567,7 +18635,7 @@
         <v>2</v>
       </c>
       <c r="Q205" t="n">
-        <v>8.035884904189574</v>
+        <v>8.035884904173832</v>
       </c>
       <c r="R205" t="n">
         <v>25</v>
@@ -18635,13 +18703,13 @@
         <v>34.1</v>
       </c>
       <c r="J206" t="n">
-        <v>2127.459418478308</v>
+        <v>2127.459841024772</v>
       </c>
       <c r="K206" t="n">
         <v>2</v>
       </c>
       <c r="L206" t="n">
-        <v>2346.766885899032</v>
+        <v>2346.766888728479</v>
       </c>
       <c r="M206" t="n">
         <v>2</v>
@@ -18656,7 +18724,7 @@
         <v>2</v>
       </c>
       <c r="Q206" t="n">
-        <v>8.004190399832565</v>
+        <v>8.004190400933487</v>
       </c>
       <c r="R206" t="n">
         <v>25</v>
@@ -18724,13 +18792,13 @@
         <v>34.96</v>
       </c>
       <c r="J207" t="n">
-        <v>2115.212281805613</v>
+        <v>2115.211708388574</v>
       </c>
       <c r="K207" t="n">
         <v>2</v>
       </c>
       <c r="L207" t="n">
-        <v>2348.060760955272</v>
+        <v>2348.060756577849</v>
       </c>
       <c r="M207" t="n">
         <v>2</v>
@@ -18745,7 +18813,7 @@
         <v>2</v>
       </c>
       <c r="Q207" t="n">
-        <v>8.012260044146037</v>
+        <v>8.01226004255896</v>
       </c>
       <c r="R207" t="n">
         <v>25</v>
@@ -18813,13 +18881,13 @@
         <v>35.04</v>
       </c>
       <c r="J208" t="n">
-        <v>2126.565256215529</v>
+        <v>2126.565256228572</v>
       </c>
       <c r="K208" t="n">
         <v>2</v>
       </c>
       <c r="L208" t="n">
-        <v>2327.372076828908</v>
+        <v>2327.372076530224</v>
       </c>
       <c r="M208" t="n">
         <v>2</v>
@@ -18834,7 +18902,7 @@
         <v>2</v>
       </c>
       <c r="Q208" t="n">
-        <v>7.958155908967467</v>
+        <v>7.958155909023668</v>
       </c>
       <c r="R208" t="n">
         <v>25</v>
@@ -18902,13 +18970,13 @@
         <v>34.98</v>
       </c>
       <c r="J209" t="n">
-        <v>2144.161575016883</v>
+        <v>2144.161575013773</v>
       </c>
       <c r="K209" t="n">
         <v>2</v>
       </c>
       <c r="L209" t="n">
-        <v>2318.12021758783</v>
+        <v>2318.120217310754</v>
       </c>
       <c r="M209" t="n">
         <v>2</v>
@@ -18923,7 +18991,7 @@
         <v>2</v>
       </c>
       <c r="Q209" t="n">
-        <v>7.898109839322269</v>
+        <v>7.898109839389957</v>
       </c>
       <c r="R209" t="n">
         <v>25</v>
@@ -18991,13 +19059,13 @@
         <v>34.84</v>
       </c>
       <c r="J210" t="n">
-        <v>2142.577634469258</v>
+        <v>2142.577676511358</v>
       </c>
       <c r="K210" t="n">
         <v>2</v>
       </c>
       <c r="L210" t="n">
-        <v>2307.639133193065</v>
+        <v>2307.639133311002</v>
       </c>
       <c r="M210" t="n">
         <v>2</v>
@@ -19012,7 +19080,7 @@
         <v>2</v>
       </c>
       <c r="Q210" t="n">
-        <v>7.896324375578154</v>
+        <v>7.896324375817819</v>
       </c>
       <c r="R210" t="n">
         <v>25</v>
@@ -19080,13 +19148,13 @@
         <v>34.82</v>
       </c>
       <c r="J211" t="n">
-        <v>2090.091507117139</v>
+        <v>2090.091503795971</v>
       </c>
       <c r="K211" t="n">
         <v>2</v>
       </c>
       <c r="L211" t="n">
-        <v>2329.662676189336</v>
+        <v>2329.662676135409</v>
       </c>
       <c r="M211" t="n">
         <v>2</v>
@@ -19101,7 +19169,7 @@
         <v>2</v>
       </c>
       <c r="Q211" t="n">
-        <v>8.032286185693684</v>
+        <v>8.032286185659498</v>
       </c>
       <c r="R211" t="n">
         <v>25</v>
@@ -19169,13 +19237,13 @@
         <v>35.03</v>
       </c>
       <c r="J212" t="n">
-        <v>2071.991088991263</v>
+        <v>2071.99109871381</v>
       </c>
       <c r="K212" t="n">
         <v>2</v>
       </c>
       <c r="L212" t="n">
-        <v>2327.498833735305</v>
+        <v>2327.498833831942</v>
       </c>
       <c r="M212" t="n">
         <v>2</v>
@@ -19194,7 +19262,7 @@
         <v>9</v>
       </c>
       <c r="Q212" t="n">
-        <v>8.067515314877101</v>
+        <v>8.067515314918394</v>
       </c>
       <c r="R212" t="n">
         <v>25</v>
@@ -19262,13 +19330,13 @@
         <v>35.09</v>
       </c>
       <c r="J213" t="n">
-        <v>2055.058331859096</v>
+        <v>2055.058304185965</v>
       </c>
       <c r="K213" t="n">
         <v>2</v>
       </c>
       <c r="L213" t="n">
-        <v>2346.373196998966</v>
+        <v>2346.373196823721</v>
       </c>
       <c r="M213" t="n">
         <v>2</v>
@@ -19283,7 +19351,7 @@
         <v>2</v>
       </c>
       <c r="Q213" t="n">
-        <v>8.124884056510517</v>
+        <v>8.124884056440509</v>
       </c>
       <c r="R213" t="n">
         <v>25</v>
@@ -19351,13 +19419,13 @@
         <v>35.05</v>
       </c>
       <c r="J214" t="n">
-        <v>2083.069669425002</v>
+        <v>2083.069686768742</v>
       </c>
       <c r="K214" t="n">
         <v>2</v>
       </c>
       <c r="L214" t="n">
-        <v>2335.563728551001</v>
+        <v>2335.563728666495</v>
       </c>
       <c r="M214" t="n">
         <v>2</v>
@@ -19372,7 +19440,7 @@
         <v>2</v>
       </c>
       <c r="Q214" t="n">
-        <v>8.059310957881767</v>
+        <v>8.059310957924438</v>
       </c>
       <c r="R214" t="n">
         <v>25</v>
@@ -19440,13 +19508,13 @@
         <v>35.06</v>
       </c>
       <c r="J215" t="n">
-        <v>2101.912912732127</v>
+        <v>2101.912966494431</v>
       </c>
       <c r="K215" t="n">
         <v>2</v>
       </c>
       <c r="L215" t="n">
-        <v>2340.426968407771</v>
+        <v>2340.42696882739</v>
       </c>
       <c r="M215" t="n">
         <v>2</v>
@@ -19461,7 +19529,7 @@
         <v>2</v>
       </c>
       <c r="Q215" t="n">
-        <v>8.031134109237065</v>
+        <v>8.031134109412315</v>
       </c>
       <c r="R215" t="n">
         <v>25</v>
@@ -19529,13 +19597,13 @@
         <v>34.81</v>
       </c>
       <c r="J216" t="n">
-        <v>2106.363786496291</v>
+        <v>2106.363786460526</v>
       </c>
       <c r="K216" t="n">
         <v>2</v>
       </c>
       <c r="L216" t="n">
-        <v>2344.768312944076</v>
+        <v>2344.768312979328</v>
       </c>
       <c r="M216" t="n">
         <v>2</v>
@@ -19550,7 +19618,7 @@
         <v>2</v>
       </c>
       <c r="Q216" t="n">
-        <v>8.033875742546154</v>
+        <v>8.033875742566252</v>
       </c>
       <c r="R216" t="n">
         <v>25</v>
@@ -19618,13 +19686,13 @@
         <v>34.69</v>
       </c>
       <c r="J217" t="n">
-        <v>2108.864924161647</v>
+        <v>2108.864924112945</v>
       </c>
       <c r="K217" t="n">
         <v>2</v>
       </c>
       <c r="L217" t="n">
-        <v>2345.347116436501</v>
+        <v>2345.347116441822</v>
       </c>
       <c r="M217" t="n">
         <v>2</v>
@@ -19639,7 +19707,7 @@
         <v>2</v>
       </c>
       <c r="Q217" t="n">
-        <v>8.030588201149708</v>
+        <v>8.030588201149522</v>
       </c>
       <c r="R217" t="n">
         <v>25</v>
@@ -19707,13 +19775,13 @@
         <v>34.85</v>
       </c>
       <c r="J218" t="n">
-        <v>2118.385449694131</v>
+        <v>2118.385463854236</v>
       </c>
       <c r="K218" t="n">
         <v>2</v>
       </c>
       <c r="L218" t="n">
-        <v>2336.64644529512</v>
+        <v>2336.646445331646</v>
       </c>
       <c r="M218" t="n">
         <v>2</v>
@@ -19728,7 +19796,7 @@
         <v>2</v>
       </c>
       <c r="Q218" t="n">
-        <v>7.997777420876441</v>
+        <v>7.997777420871756</v>
       </c>
       <c r="R218" t="n">
         <v>25</v>
@@ -19796,13 +19864,13 @@
         <v>34.89</v>
       </c>
       <c r="J219" t="n">
-        <v>2110.64742528325</v>
+        <v>2110.647414507036</v>
       </c>
       <c r="K219" t="n">
         <v>2</v>
       </c>
       <c r="L219" t="n">
-        <v>2334.04111587571</v>
+        <v>2334.041115798704</v>
       </c>
       <c r="M219" t="n">
         <v>2</v>
@@ -19817,7 +19885,7 @@
         <v>2</v>
       </c>
       <c r="Q219" t="n">
-        <v>7.995830403257242</v>
+        <v>7.995830403231249</v>
       </c>
       <c r="R219" t="n">
         <v>25</v>
@@ -19885,13 +19953,13 @@
         <v>35.04</v>
       </c>
       <c r="J220" t="n">
-        <v>2142.950060733647</v>
+        <v>2142.950061282815</v>
       </c>
       <c r="K220" t="n">
         <v>2</v>
       </c>
       <c r="L220" t="n">
-        <v>2331.460458651521</v>
+        <v>2331.460458654734</v>
       </c>
       <c r="M220" t="n">
         <v>2</v>
@@ -19906,7 +19974,7 @@
         <v>3</v>
       </c>
       <c r="Q220" t="n">
-        <v>7.927186188203341</v>
+        <v>7.927186188210373</v>
       </c>
       <c r="R220" t="n">
         <v>25</v>
@@ -19978,13 +20046,13 @@
         <v>34.93</v>
       </c>
       <c r="J221" t="n">
-        <v>2102.692776765788</v>
+        <v>2102.692776140426</v>
       </c>
       <c r="K221" t="n">
         <v>2</v>
       </c>
       <c r="L221" t="n">
-        <v>2326.016954544656</v>
+        <v>2326.016954474021</v>
       </c>
       <c r="M221" t="n">
         <v>2</v>
@@ -19999,7 +20067,7 @@
         <v>2</v>
       </c>
       <c r="Q221" t="n">
-        <v>8.002461575855582</v>
+        <v>8.002461575814637</v>
       </c>
       <c r="R221" t="n">
         <v>25</v>
@@ -20081,13 +20149,13 @@
         <v>34.83</v>
       </c>
       <c r="J222" t="n">
-        <v>2106.133031521444</v>
+        <v>2106.133007123261</v>
       </c>
       <c r="K222" t="n">
         <v>2</v>
       </c>
       <c r="L222" t="n">
-        <v>2323.428521809663</v>
+        <v>2323.428521638105</v>
       </c>
       <c r="M222" t="n">
         <v>2</v>
@@ -20102,7 +20170,7 @@
         <v>2</v>
       </c>
       <c r="Q222" t="n">
-        <v>7.99541941705345</v>
+        <v>7.995419416989005</v>
       </c>
       <c r="R222" t="n">
         <v>25</v>
@@ -20182,13 +20250,13 @@
         <v>30.65</v>
       </c>
       <c r="J223" t="n">
-        <v>2218.672722943221</v>
+        <v>2218.67272298975</v>
       </c>
       <c r="K223" t="n">
         <v>2</v>
       </c>
       <c r="L223" t="n">
-        <v>2360.198674336305</v>
+        <v>2360.198674312525</v>
       </c>
       <c r="M223" t="n">
         <v>2</v>
@@ -20203,7 +20271,7 @@
         <v>2</v>
       </c>
       <c r="Q223" t="n">
-        <v>7.855509680044946</v>
+        <v>7.855509680032899</v>
       </c>
       <c r="R223" t="n">
         <v>25</v>
@@ -20267,13 +20335,13 @@
         <v>31.26</v>
       </c>
       <c r="J224" t="n">
-        <v>2221.86008531273</v>
+        <v>2221.860085349459</v>
       </c>
       <c r="K224" t="n">
         <v>2</v>
       </c>
       <c r="L224" t="n">
-        <v>2369.322281392008</v>
+        <v>2369.322281382821</v>
       </c>
       <c r="M224" t="n">
         <v>2</v>
@@ -20288,7 +20356,7 @@
         <v>2</v>
       </c>
       <c r="Q224" t="n">
-        <v>7.866179842067004</v>
+        <v>7.866179842061562</v>
       </c>
       <c r="R224" t="n">
         <v>25</v>
@@ -20352,13 +20420,13 @@
         <v>32.99</v>
       </c>
       <c r="J225" t="n">
-        <v>2152.196276908695</v>
+        <v>2152.196276916369</v>
       </c>
       <c r="K225" t="n">
         <v>2</v>
       </c>
       <c r="L225" t="n">
-        <v>2362.46941433275</v>
+        <v>2362.469414374283</v>
       </c>
       <c r="M225" t="n">
         <v>2</v>
@@ -20373,7 +20441,7 @@
         <v>3</v>
       </c>
       <c r="Q225" t="n">
-        <v>7.974248086875027</v>
+        <v>7.974248086903319</v>
       </c>
       <c r="R225" t="n">
         <v>25</v>
@@ -20437,13 +20505,13 @@
         <v>32.09</v>
       </c>
       <c r="J226" t="n">
-        <v>2159.486936226589</v>
+        <v>2159.486936228509</v>
       </c>
       <c r="K226" t="n">
         <v>2</v>
       </c>
       <c r="L226" t="n">
-        <v>2410.838434160868</v>
+        <v>2410.838434088738</v>
       </c>
       <c r="M226" t="n">
         <v>2</v>
@@ -20458,7 +20526,7 @@
         <v>2</v>
       </c>
       <c r="Q226" t="n">
-        <v>8.080218977557026</v>
+        <v>8.080218977512359</v>
       </c>
       <c r="R226" t="n">
         <v>25</v>
@@ -20528,7 +20596,7 @@
         <v>2</v>
       </c>
       <c r="L227" t="n">
-        <v>2409.743729291623</v>
+        <v>2409.743729260245</v>
       </c>
       <c r="M227" t="n">
         <v>2</v>
@@ -20543,7 +20611,7 @@
         <v>2</v>
       </c>
       <c r="Q227" t="n">
-        <v>8.210214635657755</v>
+        <v>8.210214635642968</v>
       </c>
       <c r="R227" t="n">
         <v>25</v>
@@ -20607,13 +20675,13 @@
         <v>32.54</v>
       </c>
       <c r="J228" t="n">
-        <v>2169.505011181297</v>
+        <v>2169.505013885703</v>
       </c>
       <c r="K228" t="n">
         <v>2</v>
       </c>
       <c r="L228" t="n">
-        <v>2398.256448500114</v>
+        <v>2398.256448522709</v>
       </c>
       <c r="M228" t="n">
         <v>2</v>
@@ -20628,7 +20696,7 @@
         <v>2</v>
       </c>
       <c r="Q228" t="n">
-        <v>8.027359848616161</v>
+        <v>8.027359848635291</v>
       </c>
       <c r="R228" t="n">
         <v>25</v>
@@ -20692,13 +20760,13 @@
         <v>33.62</v>
       </c>
       <c r="J229" t="n">
-        <v>2162.486152252432</v>
+        <v>2162.486153142981</v>
       </c>
       <c r="K229" t="n">
         <v>2</v>
       </c>
       <c r="L229" t="n">
-        <v>2387.829064741933</v>
+        <v>2387.829064745308</v>
       </c>
       <c r="M229" t="n">
         <v>2</v>
@@ -20713,7 +20781,7 @@
         <v>3</v>
       </c>
       <c r="Q229" t="n">
-        <v>8.017542006487156</v>
+        <v>8.017542006496111</v>
       </c>
       <c r="R229" t="n">
         <v>25</v>
@@ -20874,13 +20942,13 @@
         <v>33.74</v>
       </c>
       <c r="J231" t="n">
-        <v>2120.707895835946</v>
+        <v>2120.707895792325</v>
       </c>
       <c r="K231" t="n">
         <v>2</v>
       </c>
       <c r="L231" t="n">
-        <v>2355.103013673944</v>
+        <v>2355.103013675034</v>
       </c>
       <c r="M231" t="n">
         <v>2</v>
@@ -20895,7 +20963,7 @@
         <v>2</v>
       </c>
       <c r="Q231" t="n">
-        <v>8.024478843276764</v>
+        <v>8.024478843277318</v>
       </c>
       <c r="R231" t="n">
         <v>25</v>
@@ -20959,13 +21027,13 @@
         <v>33.86</v>
       </c>
       <c r="J232" t="n">
-        <v>2133.500077541938</v>
+        <v>2133.500536589959</v>
       </c>
       <c r="K232" t="n">
         <v>2</v>
       </c>
       <c r="L232" t="n">
-        <v>2367.483483271462</v>
+        <v>2367.483486510187</v>
       </c>
       <c r="M232" t="n">
         <v>2</v>
@@ -20980,7 +21048,7 @@
         <v>2</v>
       </c>
       <c r="Q232" t="n">
-        <v>8.035483485807118</v>
+        <v>8.035483487109145</v>
       </c>
       <c r="R232" t="n">
         <v>25</v>
@@ -21044,13 +21112,13 @@
         <v>33.35</v>
       </c>
       <c r="J233" t="n">
-        <v>2174.985483574201</v>
+        <v>2174.984802031912</v>
       </c>
       <c r="K233" t="n">
         <v>2</v>
       </c>
       <c r="L233" t="n">
-        <v>2382.915197807174</v>
+        <v>2382.915192098043</v>
       </c>
       <c r="M233" t="n">
         <v>2</v>
@@ -21065,7 +21133,7 @@
         <v>2</v>
       </c>
       <c r="Q233" t="n">
-        <v>7.966360953761328</v>
+        <v>7.966360951474034</v>
       </c>
       <c r="R233" t="n">
         <v>25</v>
@@ -21129,13 +21197,13 @@
         <v>33.69</v>
       </c>
       <c r="J234" t="n">
-        <v>2196.258273687205</v>
+        <v>2196.258273702065</v>
       </c>
       <c r="K234" t="n">
         <v>2</v>
       </c>
       <c r="L234" t="n">
-        <v>2387.265473000899</v>
+        <v>2387.265472665201</v>
       </c>
       <c r="M234" t="n">
         <v>2</v>
@@ -21150,7 +21218,7 @@
         <v>2</v>
       </c>
       <c r="Q234" t="n">
-        <v>7.943357137202957</v>
+        <v>7.943357137236579</v>
       </c>
       <c r="R234" t="n">
         <v>25</v>
@@ -21214,13 +21282,13 @@
         <v>33.66</v>
       </c>
       <c r="J235" t="n">
-        <v>2203.216482571182</v>
+        <v>2203.216445479858</v>
       </c>
       <c r="K235" t="n">
         <v>2</v>
       </c>
       <c r="L235" t="n">
-        <v>2364.57517595539</v>
+        <v>2364.575175424022</v>
       </c>
       <c r="M235" t="n">
         <v>2</v>
@@ -21235,7 +21303,7 @@
         <v>2</v>
       </c>
       <c r="Q235" t="n">
-        <v>7.89017384967847</v>
+        <v>7.890173849647529</v>
       </c>
       <c r="R235" t="n">
         <v>25</v>
@@ -21299,13 +21367,13 @@
         <v>32.78</v>
       </c>
       <c r="J236" t="n">
-        <v>2205.780002211017</v>
+        <v>2205.780043072516</v>
       </c>
       <c r="K236" t="n">
         <v>2</v>
       </c>
       <c r="L236" t="n">
-        <v>2356.63144157015</v>
+        <v>2356.631441563543</v>
       </c>
       <c r="M236" t="n">
         <v>2</v>
@@ -21320,7 +21388,7 @@
         <v>2</v>
       </c>
       <c r="Q236" t="n">
-        <v>7.873366569049045</v>
+        <v>7.873366569228276</v>
       </c>
       <c r="R236" t="n">
         <v>25</v>
@@ -21384,13 +21452,13 @@
         <v>33.36</v>
       </c>
       <c r="J237" t="n">
-        <v>2111.022596215189</v>
+        <v>2111.022593540012</v>
       </c>
       <c r="K237" t="n">
         <v>2</v>
       </c>
       <c r="L237" t="n">
-        <v>2350.420759220697</v>
+        <v>2350.42075916917</v>
       </c>
       <c r="M237" t="n">
         <v>2</v>
@@ -21405,7 +21473,7 @@
         <v>2</v>
       </c>
       <c r="Q237" t="n">
-        <v>8.041361422666627</v>
+        <v>8.041361422634905</v>
       </c>
       <c r="R237" t="n">
         <v>25</v>
@@ -21473,13 +21541,13 @@
         <v>33.01</v>
       </c>
       <c r="J238" t="n">
-        <v>2010.940123545731</v>
+        <v>2010.940058151044</v>
       </c>
       <c r="K238" t="n">
         <v>2</v>
       </c>
       <c r="L238" t="n">
-        <v>2363.608515226337</v>
+        <v>2363.608514760754</v>
       </c>
       <c r="M238" t="n">
         <v>2</v>
@@ -21494,7 +21562,7 @@
         <v>2</v>
       </c>
       <c r="Q238" t="n">
-        <v>8.241234709184273</v>
+        <v>8.241234708991021</v>
       </c>
       <c r="R238" t="n">
         <v>25</v>
@@ -21558,13 +21626,13 @@
         <v>32.65</v>
       </c>
       <c r="J239" t="n">
-        <v>2034.172920339742</v>
+        <v>2034.172895978572</v>
       </c>
       <c r="K239" t="n">
         <v>2</v>
       </c>
       <c r="L239" t="n">
-        <v>2367.79122359</v>
+        <v>2367.791223416311</v>
       </c>
       <c r="M239" t="n">
         <v>2</v>
@@ -21579,7 +21647,7 @@
         <v>2</v>
       </c>
       <c r="Q239" t="n">
-        <v>8.215271226224244</v>
+        <v>8.215271226149502</v>
       </c>
       <c r="R239" t="n">
         <v>25</v>
@@ -21647,13 +21715,13 @@
         <v>32.79</v>
       </c>
       <c r="J240" t="n">
-        <v>2111.342988321592</v>
+        <v>2111.343009040113</v>
       </c>
       <c r="K240" t="n">
         <v>2</v>
       </c>
       <c r="L240" t="n">
-        <v>2371.484736046571</v>
+        <v>2371.484736178994</v>
       </c>
       <c r="M240" t="n">
         <v>2</v>
@@ -21668,7 +21736,7 @@
         <v>2</v>
       </c>
       <c r="Q240" t="n">
-        <v>8.08438316026804</v>
+        <v>8.084383160315102</v>
       </c>
       <c r="R240" t="n">
         <v>25</v>
@@ -21732,13 +21800,13 @@
         <v>33.37</v>
       </c>
       <c r="J241" t="n">
-        <v>2119.731945544299</v>
+        <v>2119.731945545062</v>
       </c>
       <c r="K241" t="n">
         <v>2</v>
       </c>
       <c r="L241" t="n">
-        <v>2370.980999230281</v>
+        <v>2370.980999254133</v>
       </c>
       <c r="M241" t="n">
         <v>2</v>
@@ -21753,7 +21821,7 @@
         <v>2</v>
       </c>
       <c r="Q241" t="n">
-        <v>8.070395722767099</v>
+        <v>8.07039572277913</v>
       </c>
       <c r="R241" t="n">
         <v>25</v>
@@ -21821,13 +21889,13 @@
         <v>31.74</v>
       </c>
       <c r="J242" t="n">
-        <v>2127.713296351465</v>
+        <v>2127.713296306468</v>
       </c>
       <c r="K242" t="n">
         <v>2</v>
       </c>
       <c r="L242" t="n">
-        <v>2390.79207819323</v>
+        <v>2390.7920782062</v>
       </c>
       <c r="M242" t="n">
         <v>2</v>
@@ -21842,7 +21910,7 @@
         <v>2</v>
       </c>
       <c r="Q242" t="n">
-        <v>8.103761073023314</v>
+        <v>8.103761073029583</v>
       </c>
       <c r="R242" t="n">
         <v>25</v>
@@ -21906,13 +21974,13 @@
         <v>33.12</v>
       </c>
       <c r="J243" t="n">
-        <v>2104.939151824502</v>
+        <v>2104.939151780193</v>
       </c>
       <c r="K243" t="n">
         <v>2</v>
       </c>
       <c r="L243" t="n">
-        <v>2363.612441087582</v>
+        <v>2363.61244110505</v>
       </c>
       <c r="M243" t="n">
         <v>2</v>
@@ -21927,7 +21995,7 @@
         <v>2</v>
       </c>
       <c r="Q243" t="n">
-        <v>8.085783686239722</v>
+        <v>8.085783686247263</v>
       </c>
       <c r="R243" t="n">
         <v>25</v>
@@ -21995,13 +22063,13 @@
         <v>33.5</v>
       </c>
       <c r="J244" t="n">
-        <v>2134.765964194171</v>
+        <v>2134.765978354637</v>
       </c>
       <c r="K244" t="n">
         <v>2</v>
       </c>
       <c r="L244" t="n">
-        <v>2356.722722184798</v>
+        <v>2356.722722286357</v>
       </c>
       <c r="M244" t="n">
         <v>2</v>
@@ -22016,7 +22084,7 @@
         <v>2</v>
       </c>
       <c r="Q244" t="n">
-        <v>8.015362084769839</v>
+        <v>8.015362084809233</v>
       </c>
       <c r="R244" t="n">
         <v>25</v>
@@ -22080,13 +22148,13 @@
         <v>32.88</v>
       </c>
       <c r="J245" t="n">
-        <v>2133.982527269025</v>
+        <v>2133.98253475209</v>
       </c>
       <c r="K245" t="n">
         <v>2</v>
       </c>
       <c r="L245" t="n">
-        <v>2371.840018819456</v>
+        <v>2371.840018854118</v>
       </c>
       <c r="M245" t="n">
         <v>2</v>
@@ -22101,7 +22169,7 @@
         <v>2</v>
       </c>
       <c r="Q245" t="n">
-        <v>8.040080338119406</v>
+        <v>8.040080338132849</v>
       </c>
       <c r="R245" t="n">
         <v>25</v>
@@ -22169,13 +22237,13 @@
         <v>32.8</v>
       </c>
       <c r="J246" t="n">
-        <v>2135.430055563645</v>
+        <v>2135.430056025009</v>
       </c>
       <c r="K246" t="n">
         <v>2</v>
       </c>
       <c r="L246" t="n">
-        <v>2367.606917468509</v>
+        <v>2367.606917409714</v>
       </c>
       <c r="M246" t="n">
         <v>2</v>
@@ -22190,7 +22258,7 @@
         <v>2</v>
       </c>
       <c r="Q246" t="n">
-        <v>8.01983858237738</v>
+        <v>8.019838582342025</v>
       </c>
       <c r="R246" t="n">
         <v>25</v>
@@ -22258,13 +22326,13 @@
         <v>33.23</v>
       </c>
       <c r="J247" t="n">
-        <v>2115.276999559024</v>
+        <v>2115.276998840076</v>
       </c>
       <c r="K247" t="n">
         <v>2</v>
       </c>
       <c r="L247" t="n">
-        <v>2368.322985474174</v>
+        <v>2368.322985438578</v>
       </c>
       <c r="M247" t="n">
         <v>2</v>
@@ -22279,7 +22347,7 @@
         <v>2</v>
       </c>
       <c r="Q247" t="n">
-        <v>8.063211281087854</v>
+        <v>8.063211281067893</v>
       </c>
       <c r="R247" t="n">
         <v>25</v>
@@ -22361,13 +22429,13 @@
         <v>34.23</v>
       </c>
       <c r="J248" t="n">
-        <v>2125.147979469567</v>
+        <v>2125.147952101937</v>
       </c>
       <c r="K248" t="n">
         <v>2</v>
       </c>
       <c r="L248" t="n">
-        <v>2355.795727468384</v>
+        <v>2355.795727270992</v>
       </c>
       <c r="M248" t="n">
         <v>2</v>
@@ -22382,7 +22450,7 @@
         <v>2</v>
       </c>
       <c r="Q248" t="n">
-        <v>8.018541022306238</v>
+        <v>8.018541022231133</v>
       </c>
       <c r="R248" t="n">
         <v>25</v>
@@ -22458,13 +22526,13 @@
         <v>34.5</v>
       </c>
       <c r="J249" t="n">
-        <v>2145.994666914732</v>
+        <v>2145.994666959451</v>
       </c>
       <c r="K249" t="n">
         <v>2</v>
       </c>
       <c r="L249" t="n">
-        <v>2328.425472178328</v>
+        <v>2328.42547218098</v>
       </c>
       <c r="M249" t="n">
         <v>2</v>
@@ -22479,7 +22547,7 @@
         <v>3</v>
       </c>
       <c r="Q249" t="n">
-        <v>7.915308011754951</v>
+        <v>7.915308011759521</v>
       </c>
       <c r="R249" t="n">
         <v>25</v>
@@ -22547,13 +22615,13 @@
         <v>34.88</v>
       </c>
       <c r="J250" t="n">
-        <v>2158.067149590831</v>
+        <v>2158.067149625733</v>
       </c>
       <c r="K250" t="n">
         <v>2</v>
       </c>
       <c r="L250" t="n">
-        <v>2324.25184188305</v>
+        <v>2324.251841907622</v>
       </c>
       <c r="M250" t="n">
         <v>2</v>
@@ -22568,7 +22636,7 @@
         <v>2</v>
       </c>
       <c r="Q250" t="n">
-        <v>7.880894964721446</v>
+        <v>7.88089496473792</v>
       </c>
       <c r="R250" t="n">
         <v>25</v>
@@ -22636,13 +22704,13 @@
         <v>34.49</v>
       </c>
       <c r="J251" t="n">
-        <v>2115.907581676352</v>
+        <v>2115.907581683614</v>
       </c>
       <c r="K251" t="n">
         <v>2</v>
       </c>
       <c r="L251" t="n">
-        <v>2342.868421482548</v>
+        <v>2342.868421436519</v>
       </c>
       <c r="M251" t="n">
         <v>2</v>
@@ -22657,7 +22725,7 @@
         <v>2</v>
       </c>
       <c r="Q251" t="n">
-        <v>8.017144296533116</v>
+        <v>8.017144296506299</v>
       </c>
       <c r="R251" t="n">
         <v>25</v>
@@ -22725,13 +22793,13 @@
         <v>35.04</v>
       </c>
       <c r="J252" t="n">
-        <v>2111.01331358394</v>
+        <v>2111.013313585328</v>
       </c>
       <c r="K252" t="n">
         <v>2</v>
       </c>
       <c r="L252" t="n">
-        <v>2338.955252227472</v>
+        <v>2338.955252232864</v>
       </c>
       <c r="M252" t="n">
         <v>2</v>
@@ -22746,7 +22814,7 @@
         <v>2</v>
       </c>
       <c r="Q252" t="n">
-        <v>8.01002349143219</v>
+        <v>8.010023491436304</v>
       </c>
       <c r="R252" t="n">
         <v>25</v>
@@ -22820,7 +22888,7 @@
         <v>2</v>
       </c>
       <c r="L253" t="n">
-        <v>2356.783177546405</v>
+        <v>2356.783177550717</v>
       </c>
       <c r="M253" t="n">
         <v>2</v>
@@ -22835,7 +22903,7 @@
         <v>2</v>
       </c>
       <c r="Q253" t="n">
-        <v>8.138640754036651</v>
+        <v>8.138640754046749</v>
       </c>
       <c r="R253" t="n">
         <v>25</v>
@@ -22903,13 +22971,13 @@
         <v>33.27</v>
       </c>
       <c r="J254" t="n">
-        <v>2088.519046864266</v>
+        <v>2088.519050303949</v>
       </c>
       <c r="K254" t="n">
         <v>2</v>
       </c>
       <c r="L254" t="n">
-        <v>2371.659289026907</v>
+        <v>2371.659288986808</v>
       </c>
       <c r="M254" t="n">
         <v>2</v>
@@ -22924,7 +22992,7 @@
         <v>2</v>
       </c>
       <c r="Q254" t="n">
-        <v>8.125598293443057</v>
+        <v>8.125598293419801</v>
       </c>
       <c r="R254" t="n">
         <v>25</v>
@@ -22992,13 +23060,13 @@
         <v>34.21</v>
       </c>
       <c r="J255" t="n">
-        <v>2129.160749374835</v>
+        <v>2129.160750023586</v>
       </c>
       <c r="K255" t="n">
         <v>2</v>
       </c>
       <c r="L255" t="n">
-        <v>2366.715098031536</v>
+        <v>2366.715097988708</v>
       </c>
       <c r="M255" t="n">
         <v>2</v>
@@ -23013,7 +23081,7 @@
         <v>2</v>
       </c>
       <c r="Q255" t="n">
-        <v>8.038303440072845</v>
+        <v>8.038303440051431</v>
       </c>
       <c r="R255" t="n">
         <v>25</v>
@@ -23182,13 +23250,13 @@
         <v>34.3</v>
       </c>
       <c r="J257" t="n">
-        <v>2125.812590907475</v>
+        <v>2125.812590870685</v>
       </c>
       <c r="K257" t="n">
         <v>2</v>
       </c>
       <c r="L257" t="n">
-        <v>2329.337666941762</v>
+        <v>2329.337666903262</v>
       </c>
       <c r="M257" t="n">
         <v>2</v>
@@ -23203,7 +23271,7 @@
         <v>2</v>
       </c>
       <c r="Q257" t="n">
-        <v>7.964703561325575</v>
+        <v>7.964703561301715</v>
       </c>
       <c r="R257" t="n">
         <v>25</v>
@@ -23271,13 +23339,13 @@
         <v>34.27</v>
       </c>
       <c r="J258" t="n">
-        <v>2098.603009373383</v>
+        <v>2098.603475261952</v>
       </c>
       <c r="K258" t="n">
         <v>2</v>
       </c>
       <c r="L258" t="n">
-        <v>2305.084506056106</v>
+        <v>2305.084510341364</v>
       </c>
       <c r="M258" t="n">
         <v>2</v>
@@ -23292,7 +23360,7 @@
         <v>2</v>
       </c>
       <c r="Q258" t="n">
-        <v>7.978731327849499</v>
+        <v>7.978731329695631</v>
       </c>
       <c r="R258" t="n">
         <v>25</v>
@@ -23360,13 +23428,13 @@
         <v>34.22</v>
       </c>
       <c r="J259" t="n">
-        <v>2103.541896911159</v>
+        <v>2103.541146729056</v>
       </c>
       <c r="K259" t="n">
         <v>2</v>
       </c>
       <c r="L259" t="n">
-        <v>2322.131873008172</v>
+        <v>2322.131864487322</v>
       </c>
       <c r="M259" t="n">
         <v>2</v>
@@ -23381,7 +23449,7 @@
         <v>2</v>
       </c>
       <c r="Q259" t="n">
-        <v>7.99184703125682</v>
+        <v>7.991847027474063</v>
       </c>
       <c r="R259" t="n">
         <v>25</v>
@@ -23449,13 +23517,13 @@
         <v>35.03</v>
       </c>
       <c r="J260" t="n">
-        <v>2136.728837159389</v>
+        <v>2136.728837174692</v>
       </c>
       <c r="K260" t="n">
         <v>2</v>
       </c>
       <c r="L260" t="n">
-        <v>2325.63442438573</v>
+        <v>2325.634424069576</v>
       </c>
       <c r="M260" t="n">
         <v>2</v>
@@ -23470,7 +23538,7 @@
         <v>2</v>
       </c>
       <c r="Q260" t="n">
-        <v>7.932672378516851</v>
+        <v>7.932672378560987</v>
       </c>
       <c r="R260" t="n">
         <v>25</v>
@@ -23538,13 +23606,13 @@
         <v>34.85</v>
       </c>
       <c r="J261" t="n">
-        <v>2163.319376849764</v>
+        <v>2163.319343928096</v>
       </c>
       <c r="K261" t="n">
         <v>2</v>
       </c>
       <c r="L261" t="n">
-        <v>2322.713613586719</v>
+        <v>2322.713612925671</v>
       </c>
       <c r="M261" t="n">
         <v>2</v>
@@ -23559,7 +23627,7 @@
         <v>2</v>
       </c>
       <c r="Q261" t="n">
-        <v>7.877917513559908</v>
+        <v>7.877917513444538</v>
       </c>
       <c r="R261" t="n">
         <v>25</v>
@@ -23627,13 +23695,13 @@
         <v>34.75</v>
       </c>
       <c r="J262" t="n">
-        <v>2161.250193528521</v>
+        <v>2161.250231802057</v>
       </c>
       <c r="K262" t="n">
         <v>2</v>
       </c>
       <c r="L262" t="n">
-        <v>2317.050714042026</v>
+        <v>2317.050714127829</v>
       </c>
       <c r="M262" t="n">
         <v>2</v>
@@ -23648,7 +23716,7 @@
         <v>2</v>
       </c>
       <c r="Q262" t="n">
-        <v>7.866737442983938</v>
+        <v>7.866737443211291</v>
       </c>
       <c r="R262" t="n">
         <v>25</v>
@@ -23716,13 +23784,13 @@
         <v>34.53</v>
       </c>
       <c r="J263" t="n">
-        <v>2158.274566165942</v>
+        <v>2158.274566508113</v>
       </c>
       <c r="K263" t="n">
         <v>2</v>
       </c>
       <c r="L263" t="n">
-        <v>2312.74953825966</v>
+        <v>2312.749538273399</v>
       </c>
       <c r="M263" t="n">
         <v>2</v>
@@ -23741,7 +23809,7 @@
         <v>9</v>
       </c>
       <c r="Q263" t="n">
-        <v>7.868400195579573</v>
+        <v>7.868400195584639</v>
       </c>
       <c r="R263" t="n">
         <v>25</v>
@@ -23809,13 +23877,13 @@
         <v>34.49</v>
       </c>
       <c r="J264" t="n">
-        <v>2154.487045077626</v>
+        <v>2154.48698694191</v>
       </c>
       <c r="K264" t="n">
         <v>2</v>
       </c>
       <c r="L264" t="n">
-        <v>2313.728700473558</v>
+        <v>2313.728699868431</v>
       </c>
       <c r="M264" t="n">
         <v>2</v>
@@ -23830,7 +23898,7 @@
         <v>2</v>
       </c>
       <c r="Q264" t="n">
-        <v>7.882361713389177</v>
+        <v>7.882361713110649</v>
       </c>
       <c r="R264" t="n">
         <v>25</v>
@@ -23898,13 +23966,13 @@
         <v>33.78</v>
       </c>
       <c r="J265" t="n">
-        <v>2007.109530146266</v>
+        <v>2007.109509384346</v>
       </c>
       <c r="K265" t="n">
         <v>2</v>
       </c>
       <c r="L265" t="n">
-        <v>2358.437468068161</v>
+        <v>2358.43746792205</v>
       </c>
       <c r="M265" t="n">
         <v>2</v>
@@ -23919,7 +23987,7 @@
         <v>2</v>
       </c>
       <c r="Q265" t="n">
-        <v>8.232603317699743</v>
+        <v>8.23260331763699</v>
       </c>
       <c r="R265" t="n">
         <v>25</v>
@@ -23987,13 +24055,13 @@
         <v>33.74</v>
       </c>
       <c r="J266" t="n">
-        <v>2047.038674755982</v>
+        <v>2047.038699214695</v>
       </c>
       <c r="K266" t="n">
         <v>2</v>
       </c>
       <c r="L266" t="n">
-        <v>2352.69842729837</v>
+        <v>2352.698427490141</v>
       </c>
       <c r="M266" t="n">
         <v>2</v>
@@ -24008,7 +24076,7 @@
         <v>2</v>
       </c>
       <c r="Q266" t="n">
-        <v>8.173142580132705</v>
+        <v>8.173142580211515</v>
       </c>
       <c r="R266" t="n">
         <v>25</v>
@@ -24076,13 +24144,13 @@
         <v>34.21</v>
       </c>
       <c r="J267" t="n">
-        <v>2080.124226655842</v>
+        <v>2080.124226661289</v>
       </c>
       <c r="K267" t="n">
         <v>2</v>
       </c>
       <c r="L267" t="n">
-        <v>2352.630907245185</v>
+        <v>2352.63090725696</v>
       </c>
       <c r="M267" t="n">
         <v>2</v>
@@ -24097,7 +24165,7 @@
         <v>2</v>
       </c>
       <c r="Q267" t="n">
-        <v>8.102842268695305</v>
+        <v>8.102842268699373</v>
       </c>
       <c r="R267" t="n">
         <v>25</v>
@@ -24165,13 +24233,13 @@
         <v>34.29</v>
       </c>
       <c r="J268" t="n">
-        <v>2104.355211812589</v>
+        <v>2104.355211763996</v>
       </c>
       <c r="K268" t="n">
         <v>2</v>
       </c>
       <c r="L268" t="n">
-        <v>2348.932528585111</v>
+        <v>2348.932528600188</v>
       </c>
       <c r="M268" t="n">
         <v>2</v>
@@ -24186,7 +24254,7 @@
         <v>2</v>
       </c>
       <c r="Q268" t="n">
-        <v>8.050822515179995</v>
+        <v>8.050822515186205</v>
       </c>
       <c r="R268" t="n">
         <v>25</v>
@@ -24254,13 +24322,13 @@
         <v>34.54</v>
       </c>
       <c r="J269" t="n">
-        <v>2120.658701313772</v>
+        <v>2120.658701274629</v>
       </c>
       <c r="K269" t="n">
         <v>2</v>
       </c>
       <c r="L269" t="n">
-        <v>2350.60791586082</v>
+        <v>2350.60791590084</v>
       </c>
       <c r="M269" t="n">
         <v>2</v>
@@ -24275,7 +24343,7 @@
         <v>2</v>
       </c>
       <c r="Q269" t="n">
-        <v>8.021049930301672</v>
+        <v>8.02104993032223</v>
       </c>
       <c r="R269" t="n">
         <v>25</v>
@@ -24343,13 +24411,13 @@
         <v>34.59</v>
       </c>
       <c r="J270" t="n">
-        <v>2110.237869949935</v>
+        <v>2110.237883891772</v>
       </c>
       <c r="K270" t="n">
         <v>2</v>
       </c>
       <c r="L270" t="n">
-        <v>2345.138242985999</v>
+        <v>2345.138243113757</v>
       </c>
       <c r="M270" t="n">
         <v>2</v>
@@ -24364,7 +24432,7 @@
         <v>2</v>
       </c>
       <c r="Q270" t="n">
-        <v>8.031823124888311</v>
+        <v>8.031823124942706</v>
       </c>
       <c r="R270" t="n">
         <v>25</v>
@@ -24432,13 +24500,13 @@
         <v>34.25</v>
       </c>
       <c r="J271" t="n">
-        <v>2115.660249313604</v>
+        <v>2115.660255446055</v>
       </c>
       <c r="K271" t="n">
         <v>2</v>
       </c>
       <c r="L271" t="n">
-        <v>2355.025968574502</v>
+        <v>2355.025968621867</v>
       </c>
       <c r="M271" t="n">
         <v>2</v>
@@ -24453,7 +24521,7 @@
         <v>2</v>
       </c>
       <c r="Q271" t="n">
-        <v>8.025788380239671</v>
+        <v>8.025788380263837</v>
       </c>
       <c r="R271" t="n">
         <v>25</v>
@@ -24521,13 +24589,13 @@
         <v>34.31</v>
       </c>
       <c r="J272" t="n">
-        <v>2101.653585642202</v>
+        <v>2101.653586016331</v>
       </c>
       <c r="K272" t="n">
         <v>2</v>
       </c>
       <c r="L272" t="n">
-        <v>2304.584182775106</v>
+        <v>2304.584182781718</v>
       </c>
       <c r="M272" t="n">
         <v>2</v>
@@ -24542,7 +24610,7 @@
         <v>2</v>
       </c>
       <c r="Q272" t="n">
-        <v>7.961473800887293</v>
+        <v>7.961473800894855</v>
       </c>
       <c r="R272" t="n">
         <v>25</v>
@@ -24614,13 +24682,13 @@
         <v>34.33</v>
       </c>
       <c r="J273" t="n">
-        <v>2090.243985041923</v>
+        <v>2090.243984229445</v>
       </c>
       <c r="K273" t="n">
         <v>2</v>
       </c>
       <c r="L273" t="n">
-        <v>2310.053775976209</v>
+        <v>2310.053775951656</v>
       </c>
       <c r="M273" t="n">
         <v>2</v>
@@ -24635,7 +24703,7 @@
         <v>2</v>
       </c>
       <c r="Q273" t="n">
-        <v>8.004969849656357</v>
+        <v>8.004969849646459</v>
       </c>
       <c r="R273" t="n">
         <v>25</v>
@@ -24717,13 +24785,13 @@
         <v>34.33</v>
       </c>
       <c r="J274" t="n">
-        <v>2083.27331779385</v>
+        <v>2083.273288876251</v>
       </c>
       <c r="K274" t="n">
         <v>2</v>
       </c>
       <c r="L274" t="n">
-        <v>2315.88141150913</v>
+        <v>2315.881411180161</v>
       </c>
       <c r="M274" t="n">
         <v>2</v>
@@ -24738,7 +24806,7 @@
         <v>2</v>
       </c>
       <c r="Q274" t="n">
-        <v>8.020730016415087</v>
+        <v>8.020730016264061</v>
       </c>
       <c r="R274" t="n">
         <v>25</v>
@@ -24818,13 +24886,13 @@
         <v>34.67</v>
       </c>
       <c r="J275" t="n">
-        <v>2141.467133327908</v>
+        <v>2141.467133372026</v>
       </c>
       <c r="K275" t="n">
         <v>2</v>
       </c>
       <c r="L275" t="n">
-        <v>2302.764765404795</v>
+        <v>2302.764765359164</v>
       </c>
       <c r="M275" t="n">
         <v>2</v>
@@ -24839,7 +24907,7 @@
         <v>2</v>
       </c>
       <c r="Q275" t="n">
-        <v>7.879056182114518</v>
+        <v>7.879056182089322</v>
       </c>
       <c r="R275" t="n">
         <v>25</v>
@@ -24907,13 +24975,13 @@
         <v>34.5</v>
       </c>
       <c r="J276" t="n">
-        <v>2141.019406139314</v>
+        <v>2141.019406173255</v>
       </c>
       <c r="K276" t="n">
         <v>2</v>
       </c>
       <c r="L276" t="n">
-        <v>2301.545766655031</v>
+        <v>2301.545766650735</v>
       </c>
       <c r="M276" t="n">
         <v>2</v>
@@ -24928,7 +24996,7 @@
         <v>2</v>
       </c>
       <c r="Q276" t="n">
-        <v>7.871402143847545</v>
+        <v>7.871402143846567</v>
       </c>
       <c r="R276" t="n">
         <v>25</v>
@@ -24996,13 +25064,13 @@
         <v>34.31</v>
       </c>
       <c r="J277" t="n">
-        <v>2152.550335775685</v>
+        <v>2152.550335782639</v>
       </c>
       <c r="K277" t="n">
         <v>2</v>
       </c>
       <c r="L277" t="n">
-        <v>2309.818837647583</v>
+        <v>2309.818837686847</v>
       </c>
       <c r="M277" t="n">
         <v>2</v>
@@ -25017,7 +25085,7 @@
         <v>2</v>
       </c>
       <c r="Q277" t="n">
-        <v>7.876471476146857</v>
+        <v>7.876471476171666</v>
       </c>
       <c r="R277" t="n">
         <v>25</v>
@@ -25085,13 +25153,13 @@
         <v>34.77</v>
       </c>
       <c r="J278" t="n">
-        <v>2147.435715408722</v>
+        <v>2147.435715409769</v>
       </c>
       <c r="K278" t="n">
         <v>2</v>
       </c>
       <c r="L278" t="n">
-        <v>2325.550619683472</v>
+        <v>2325.550619729554</v>
       </c>
       <c r="M278" t="n">
         <v>2</v>
@@ -25106,7 +25174,7 @@
         <v>3</v>
       </c>
       <c r="Q278" t="n">
-        <v>7.910741421366332</v>
+        <v>7.910741421397369</v>
       </c>
       <c r="R278" t="n">
         <v>25</v>
@@ -25180,7 +25248,7 @@
         <v>3</v>
       </c>
       <c r="L279" t="n">
-        <v>2319.10350696754</v>
+        <v>2319.103506981603</v>
       </c>
       <c r="M279" t="n">
         <v>3</v>
@@ -25195,7 +25263,7 @@
         <v>2</v>
       </c>
       <c r="Q279" t="n">
-        <v>8.03359795718681</v>
+        <v>8.033597957202325</v>
       </c>
       <c r="R279" t="n">
         <v>25</v>
@@ -25263,13 +25331,13 @@
         <v>34</v>
       </c>
       <c r="J280" t="n">
-        <v>2054.651414739945</v>
+        <v>2054.651418406546</v>
       </c>
       <c r="K280" t="n">
         <v>2</v>
       </c>
       <c r="L280" t="n">
-        <v>2349.006228918868</v>
+        <v>2349.006228882234</v>
       </c>
       <c r="M280" t="n">
         <v>2</v>
@@ -25284,7 +25352,7 @@
         <v>2</v>
       </c>
       <c r="Q280" t="n">
-        <v>8.14373950875283</v>
+        <v>8.143739508729137</v>
       </c>
       <c r="R280" t="n">
         <v>25</v>
@@ -25352,13 +25420,13 @@
         <v>34.37</v>
       </c>
       <c r="J281" t="n">
-        <v>2085.395158059059</v>
+        <v>2085.395158461326</v>
       </c>
       <c r="K281" t="n">
         <v>2</v>
       </c>
       <c r="L281" t="n">
-        <v>2368.222634251986</v>
+        <v>2368.222634281226</v>
       </c>
       <c r="M281" t="n">
         <v>2</v>
@@ -25373,7 +25441,7 @@
         <v>3</v>
       </c>
       <c r="Q281" t="n">
-        <v>8.118648705907546</v>
+        <v>8.118648705933365</v>
       </c>
       <c r="R281" t="n">
         <v>25</v>
@@ -25542,13 +25610,13 @@
         <v>34.48</v>
       </c>
       <c r="J283" t="n">
-        <v>2112.999193015334</v>
+        <v>2112.999192985802</v>
       </c>
       <c r="K283" t="n">
         <v>2</v>
       </c>
       <c r="L283" t="n">
-        <v>2324.290795606201</v>
+        <v>2324.290795629996</v>
       </c>
       <c r="M283" t="n">
         <v>2</v>
@@ -25563,7 +25631,7 @@
         <v>2</v>
       </c>
       <c r="Q283" t="n">
-        <v>7.971775143019915</v>
+        <v>7.971775143037682</v>
       </c>
       <c r="R283" t="n">
         <v>25</v>
@@ -25631,13 +25699,13 @@
         <v>34.6</v>
       </c>
       <c r="J284" t="n">
-        <v>2122.96948457605</v>
+        <v>2122.969924960206</v>
       </c>
       <c r="K284" t="n">
         <v>2</v>
       </c>
       <c r="L284" t="n">
-        <v>2329.747199126017</v>
+        <v>2329.747203704739</v>
       </c>
       <c r="M284" t="n">
         <v>2</v>
@@ -25652,7 +25720,7 @@
         <v>2</v>
       </c>
       <c r="Q284" t="n">
-        <v>7.973277558792201</v>
+        <v>7.973277560870735</v>
       </c>
       <c r="R284" t="n">
         <v>25</v>
@@ -25720,13 +25788,13 @@
         <v>34.71</v>
       </c>
       <c r="J285" t="n">
-        <v>2127.188825275972</v>
+        <v>2127.188015680747</v>
       </c>
       <c r="K285" t="n">
         <v>2</v>
       </c>
       <c r="L285" t="n">
-        <v>2328.545381002605</v>
+        <v>2328.545375129404</v>
       </c>
       <c r="M285" t="n">
         <v>2</v>
@@ -25741,7 +25809,7 @@
         <v>2</v>
       </c>
       <c r="Q285" t="n">
-        <v>7.950523301339413</v>
+        <v>7.950523299190103</v>
       </c>
       <c r="R285" t="n">
         <v>25</v>
@@ -25809,13 +25877,13 @@
         <v>34.53</v>
       </c>
       <c r="J286" t="n">
-        <v>2139.939591094071</v>
+        <v>2139.939591109261</v>
       </c>
       <c r="K286" t="n">
         <v>2</v>
       </c>
       <c r="L286" t="n">
-        <v>2323.231331219589</v>
+        <v>2323.231330970724</v>
       </c>
       <c r="M286" t="n">
         <v>2</v>
@@ -25834,7 +25902,7 @@
         <v>9</v>
       </c>
       <c r="Q286" t="n">
-        <v>7.924007218374143</v>
+        <v>7.924007218458887</v>
       </c>
       <c r="R286" t="n">
         <v>25</v>
@@ -25902,13 +25970,13 @@
         <v>34.89</v>
       </c>
       <c r="J287" t="n">
-        <v>2164.014017195454</v>
+        <v>2164.013988396108</v>
       </c>
       <c r="K287" t="n">
         <v>2</v>
       </c>
       <c r="L287" t="n">
-        <v>2329.623756616617</v>
+        <v>2329.623756187997</v>
       </c>
       <c r="M287" t="n">
         <v>2</v>
@@ -25923,7 +25991,7 @@
         <v>2</v>
       </c>
       <c r="Q287" t="n">
-        <v>7.894892556193252</v>
+        <v>7.894892556214218</v>
       </c>
       <c r="R287" t="n">
         <v>25</v>
@@ -25991,13 +26059,13 @@
         <v>34.77</v>
       </c>
       <c r="J288" t="n">
-        <v>2158.137151954752</v>
+        <v>2158.137185774068</v>
       </c>
       <c r="K288" t="n">
         <v>2</v>
       </c>
       <c r="L288" t="n">
-        <v>2319.44727270245</v>
+        <v>2319.447272780473</v>
       </c>
       <c r="M288" t="n">
         <v>2</v>
@@ -26012,7 +26080,7 @@
         <v>2</v>
       </c>
       <c r="Q288" t="n">
-        <v>7.881173603324031</v>
+        <v>7.881173603553939</v>
       </c>
       <c r="R288" t="n">
         <v>25</v>
@@ -26080,13 +26148,13 @@
         <v>34.6</v>
       </c>
       <c r="J289" t="n">
-        <v>2145.447891415418</v>
+        <v>2145.447838410904</v>
       </c>
       <c r="K289" t="n">
         <v>2</v>
       </c>
       <c r="L289" t="n">
-        <v>2318.053867308691</v>
+        <v>2318.053866753889</v>
       </c>
       <c r="M289" t="n">
         <v>2</v>
@@ -26101,7 +26169,7 @@
         <v>2</v>
       </c>
       <c r="Q289" t="n">
-        <v>7.905102836520278</v>
+        <v>7.905102836262445</v>
       </c>
       <c r="R289" t="n">
         <v>25</v>
@@ -26169,13 +26237,13 @@
         <v>34.46</v>
       </c>
       <c r="J290" t="n">
-        <v>2118.569394753596</v>
+        <v>2118.569422315983</v>
       </c>
       <c r="K290" t="n">
         <v>2</v>
       </c>
       <c r="L290" t="n">
-        <v>2337.36427993822</v>
+        <v>2337.364280111055</v>
       </c>
       <c r="M290" t="n">
         <v>2</v>
@@ -26190,7 +26258,7 @@
         <v>2</v>
       </c>
       <c r="Q290" t="n">
-        <v>8.001021950559394</v>
+        <v>8.001021950619304</v>
       </c>
       <c r="R290" t="n">
         <v>25</v>
@@ -26258,13 +26326,13 @@
         <v>34.46</v>
       </c>
       <c r="J291" t="n">
-        <v>2100.528365378267</v>
+        <v>2100.528365326636</v>
       </c>
       <c r="K291" t="n">
         <v>2</v>
       </c>
       <c r="L291" t="n">
-        <v>2328.159592913672</v>
+        <v>2328.159592959726</v>
       </c>
       <c r="M291" t="n">
         <v>2</v>
@@ -26279,7 +26347,7 @@
         <v>2</v>
       </c>
       <c r="Q291" t="n">
-        <v>8.020690930665351</v>
+        <v>8.020690930690348</v>
       </c>
       <c r="R291" t="n">
         <v>25</v>
@@ -26347,13 +26415,13 @@
         <v>34.47</v>
       </c>
       <c r="J292" t="n">
-        <v>2066.946131259114</v>
+        <v>2066.94614484746</v>
       </c>
       <c r="K292" t="n">
         <v>2</v>
       </c>
       <c r="L292" t="n">
-        <v>2327.976749340558</v>
+        <v>2327.976749453311</v>
       </c>
       <c r="M292" t="n">
         <v>2</v>
@@ -26368,7 +26436,7 @@
         <v>2</v>
       </c>
       <c r="Q292" t="n">
-        <v>8.079042703940008</v>
+        <v>8.079042703986064</v>
       </c>
       <c r="R292" t="n">
         <v>25</v>
@@ -26436,13 +26504,13 @@
         <v>34.57</v>
       </c>
       <c r="J293" t="n">
-        <v>2125.707670873748</v>
+        <v>2125.7076711535</v>
       </c>
       <c r="K293" t="n">
         <v>2</v>
       </c>
       <c r="L293" t="n">
-        <v>2320.379319162369</v>
+        <v>2320.379319158415</v>
       </c>
       <c r="M293" t="n">
         <v>2</v>
@@ -26457,7 +26525,7 @@
         <v>2</v>
       </c>
       <c r="Q293" t="n">
-        <v>7.947011928066111</v>
+        <v>7.947011928067417</v>
       </c>
       <c r="R293" t="n">
         <v>25</v>
@@ -26529,13 +26597,13 @@
         <v>34.43</v>
       </c>
       <c r="J294" t="n">
-        <v>2126.490212444195</v>
+        <v>2126.490181760359</v>
       </c>
       <c r="K294" t="n">
         <v>2</v>
       </c>
       <c r="L294" t="n">
-        <v>2322.33898056507</v>
+        <v>2322.338980375807</v>
       </c>
       <c r="M294" t="n">
         <v>2</v>
@@ -26550,7 +26618,7 @@
         <v>2</v>
       </c>
       <c r="Q294" t="n">
-        <v>7.959362116198722</v>
+        <v>7.95936211613279</v>
       </c>
       <c r="R294" t="n">
         <v>25</v>
@@ -26630,13 +26698,13 @@
         <v>34.77</v>
       </c>
       <c r="J295" t="n">
-        <v>2144.598653226399</v>
+        <v>2144.598653269979</v>
       </c>
       <c r="K295" t="n">
         <v>2</v>
       </c>
       <c r="L295" t="n">
-        <v>2310.232917208029</v>
+        <v>2310.232917185036</v>
       </c>
       <c r="M295" t="n">
         <v>2</v>
@@ -26651,7 +26719,7 @@
         <v>2</v>
       </c>
       <c r="Q295" t="n">
-        <v>7.885264298032888</v>
+        <v>7.885264298020481</v>
       </c>
       <c r="R295" t="n">
         <v>25</v>
@@ -26719,13 +26787,13 @@
         <v>34.6</v>
       </c>
       <c r="J296" t="n">
-        <v>2143.879312350281</v>
+        <v>2143.879312383641</v>
       </c>
       <c r="K296" t="n">
         <v>2</v>
       </c>
       <c r="L296" t="n">
-        <v>2307.414633534016</v>
+        <v>2307.414633533496</v>
       </c>
       <c r="M296" t="n">
         <v>2</v>
@@ -26740,7 +26808,7 @@
         <v>2</v>
       </c>
       <c r="Q296" t="n">
-        <v>7.879712795153473</v>
+        <v>7.879712795155197</v>
       </c>
       <c r="R296" t="n">
         <v>25</v>
@@ -26808,13 +26876,13 @@
         <v>34.69</v>
       </c>
       <c r="J297" t="n">
-        <v>2148.061418167155</v>
+        <v>2148.061418173698</v>
       </c>
       <c r="K297" t="n">
         <v>2</v>
       </c>
       <c r="L297" t="n">
-        <v>2305.053210954346</v>
+        <v>2305.053210925495</v>
       </c>
       <c r="M297" t="n">
         <v>2</v>
@@ -26829,7 +26897,7 @@
         <v>2</v>
       </c>
       <c r="Q297" t="n">
-        <v>7.869871310564466</v>
+        <v>7.8698713105493</v>
       </c>
       <c r="R297" t="n">
         <v>25</v>
@@ -26897,13 +26965,13 @@
         <v>34.59</v>
       </c>
       <c r="J298" t="n">
-        <v>2149.501924247904</v>
+        <v>2149.501924248541</v>
       </c>
       <c r="K298" t="n">
         <v>2</v>
       </c>
       <c r="L298" t="n">
-        <v>2327.458224343544</v>
+        <v>2327.458224335437</v>
       </c>
       <c r="M298" t="n">
         <v>2</v>
@@ -26918,7 +26986,7 @@
         <v>2</v>
       </c>
       <c r="Q298" t="n">
-        <v>7.907421935685138</v>
+        <v>7.907421935682135</v>
       </c>
       <c r="R298" t="n">
         <v>25</v>
@@ -26992,7 +27060,7 @@
         <v>3</v>
       </c>
       <c r="L299" t="n">
-        <v>2325.119351953578</v>
+        <v>2325.119351920438</v>
       </c>
       <c r="M299" t="n">
         <v>3</v>
@@ -27007,7 +27075,7 @@
         <v>2</v>
       </c>
       <c r="Q299" t="n">
-        <v>7.98545462826224</v>
+        <v>7.985454628247878</v>
       </c>
       <c r="R299" t="n">
         <v>25</v>
@@ -27075,13 +27143,13 @@
         <v>34</v>
       </c>
       <c r="J300" t="n">
-        <v>2047.708364634971</v>
+        <v>2047.708368285124</v>
       </c>
       <c r="K300" t="n">
         <v>2</v>
       </c>
       <c r="L300" t="n">
-        <v>2336.276942965247</v>
+        <v>2336.276942923463</v>
       </c>
       <c r="M300" t="n">
         <v>2</v>
@@ -27096,7 +27164,7 @@
         <v>2</v>
       </c>
       <c r="Q300" t="n">
-        <v>8.135271283040643</v>
+        <v>8.135271283018392</v>
       </c>
       <c r="R300" t="n">
         <v>25</v>
@@ -27164,13 +27232,13 @@
         <v>33.94</v>
       </c>
       <c r="J301" t="n">
-        <v>2089.193878076899</v>
+        <v>2089.193878253871</v>
       </c>
       <c r="K301" t="n">
         <v>2</v>
       </c>
       <c r="L301" t="n">
-        <v>2342.255007875745</v>
+        <v>2342.255007797854</v>
       </c>
       <c r="M301" t="n">
         <v>2</v>
@@ -27185,7 +27253,7 @@
         <v>2</v>
       </c>
       <c r="Q301" t="n">
-        <v>8.067942294613538</v>
+        <v>8.067942294571672</v>
       </c>
       <c r="R301" t="n">
         <v>25</v>
@@ -27354,13 +27422,13 @@
         <v>34.58</v>
       </c>
       <c r="J303" t="n">
-        <v>2085.992555734352</v>
+        <v>2085.992555712412</v>
       </c>
       <c r="K303" t="n">
         <v>2</v>
       </c>
       <c r="L303" t="n">
-        <v>2315.121169617572</v>
+        <v>2315.121169690724</v>
       </c>
       <c r="M303" t="n">
         <v>2</v>
@@ -27375,7 +27443,7 @@
         <v>2</v>
       </c>
       <c r="Q303" t="n">
-        <v>8.016904732275483</v>
+        <v>8.016904732324255</v>
       </c>
       <c r="R303" t="n">
         <v>25</v>
@@ -27443,13 +27511,13 @@
         <v>34.67</v>
       </c>
       <c r="J304" t="n">
-        <v>2126.829396304588</v>
+        <v>2126.829770737012</v>
       </c>
       <c r="K304" t="n">
         <v>2</v>
       </c>
       <c r="L304" t="n">
-        <v>2322.568676556503</v>
+        <v>2322.568680265603</v>
       </c>
       <c r="M304" t="n">
         <v>2</v>
@@ -27468,7 +27536,7 @@
         <v>9</v>
       </c>
       <c r="Q304" t="n">
-        <v>7.962093611628779</v>
+        <v>7.962093613278416</v>
       </c>
       <c r="R304" t="n">
         <v>25</v>
@@ -27536,13 +27604,13 @@
         <v>34.77</v>
       </c>
       <c r="J305" t="n">
-        <v>2126.791985800897</v>
+        <v>2126.791144301525</v>
       </c>
       <c r="K305" t="n">
         <v>2</v>
       </c>
       <c r="L305" t="n">
-        <v>2323.365976176497</v>
+        <v>2323.365970267392</v>
       </c>
       <c r="M305" t="n">
         <v>2</v>
@@ -27557,7 +27625,7 @@
         <v>2</v>
       </c>
       <c r="Q305" t="n">
-        <v>7.945720802517847</v>
+        <v>7.945720800399813</v>
       </c>
       <c r="R305" t="n">
         <v>25</v>
@@ -27625,13 +27693,13 @@
         <v>34.61</v>
       </c>
       <c r="J306" t="n">
-        <v>2128.975919234746</v>
+        <v>2128.975919249334</v>
       </c>
       <c r="K306" t="n">
         <v>2</v>
       </c>
       <c r="L306" t="n">
-        <v>2315.199841901166</v>
+        <v>2315.199841615397</v>
       </c>
       <c r="M306" t="n">
         <v>2</v>
@@ -27646,7 +27714,7 @@
         <v>2</v>
       </c>
       <c r="Q306" t="n">
-        <v>7.92059115554407</v>
+        <v>7.920591155605367</v>
       </c>
       <c r="R306" t="n">
         <v>25</v>
@@ -27714,13 +27782,13 @@
         <v>34.73</v>
       </c>
       <c r="J307" t="n">
-        <v>2164.686743957469</v>
+        <v>2164.686725993362</v>
       </c>
       <c r="K307" t="n">
         <v>2</v>
       </c>
       <c r="L307" t="n">
-        <v>2331.327841544633</v>
+        <v>2331.327841087797</v>
       </c>
       <c r="M307" t="n">
         <v>2</v>
@@ -27735,7 +27803,7 @@
         <v>2</v>
       </c>
       <c r="Q307" t="n">
-        <v>7.895725528164455</v>
+        <v>7.895725528149307</v>
       </c>
       <c r="R307" t="n">
         <v>25</v>
@@ -27803,13 +27871,13 @@
         <v>34.64</v>
       </c>
       <c r="J308" t="n">
-        <v>2160.082670235459</v>
+        <v>2160.082697476969</v>
       </c>
       <c r="K308" t="n">
         <v>2</v>
       </c>
       <c r="L308" t="n">
-        <v>2322.07966062356</v>
+        <v>2322.079660625733</v>
       </c>
       <c r="M308" t="n">
         <v>2</v>
@@ -27824,7 +27892,7 @@
         <v>2</v>
       </c>
       <c r="Q308" t="n">
-        <v>7.883262673535603</v>
+        <v>7.883262673731804</v>
       </c>
       <c r="R308" t="n">
         <v>25</v>
@@ -27892,13 +27960,13 @@
         <v>34.65</v>
       </c>
       <c r="J309" t="n">
-        <v>2146.77477257965</v>
+        <v>2146.77472361735</v>
       </c>
       <c r="K309" t="n">
         <v>2</v>
       </c>
       <c r="L309" t="n">
-        <v>2321.803937670816</v>
+        <v>2321.803937132116</v>
       </c>
       <c r="M309" t="n">
         <v>2</v>
@@ -27913,7 +27981,7 @@
         <v>2</v>
       </c>
       <c r="Q309" t="n">
-        <v>7.901368989898448</v>
+        <v>7.90136898964485</v>
       </c>
       <c r="R309" t="n">
         <v>25</v>
@@ -27981,13 +28049,13 @@
         <v>34.61</v>
       </c>
       <c r="J310" t="n">
-        <v>2129.555801138004</v>
+        <v>2129.555832102079</v>
       </c>
       <c r="K310" t="n">
         <v>2</v>
       </c>
       <c r="L310" t="n">
-        <v>2323.201512469826</v>
+        <v>2323.20151284354</v>
       </c>
       <c r="M310" t="n">
         <v>2</v>
@@ -28002,7 +28070,7 @@
         <v>2</v>
       </c>
       <c r="Q310" t="n">
-        <v>7.95599856892606</v>
+        <v>7.955998569101844</v>
       </c>
       <c r="R310" t="n">
         <v>25</v>
@@ -28070,13 +28138,13 @@
         <v>34.41</v>
       </c>
       <c r="J311" t="n">
-        <v>2109.814379359616</v>
+        <v>2109.81437930524</v>
       </c>
       <c r="K311" t="n">
         <v>2</v>
       </c>
       <c r="L311" t="n">
-        <v>2311.694583227593</v>
+        <v>2311.694583213305</v>
       </c>
       <c r="M311" t="n">
         <v>2</v>
@@ -28091,7 +28159,7 @@
         <v>2</v>
       </c>
       <c r="Q311" t="n">
-        <v>7.967622803118268</v>
+        <v>7.967622803106614</v>
       </c>
       <c r="R311" t="n">
         <v>25</v>
@@ -28159,13 +28227,13 @@
         <v>34.52</v>
       </c>
       <c r="J312" t="n">
-        <v>2071.65811741884</v>
+        <v>2071.658130687144</v>
       </c>
       <c r="K312" t="n">
         <v>2</v>
       </c>
       <c r="L312" t="n">
-        <v>2322.827061468302</v>
+        <v>2322.827061623203</v>
       </c>
       <c r="M312" t="n">
         <v>2</v>
@@ -28180,7 +28248,7 @@
         <v>2</v>
       </c>
       <c r="Q312" t="n">
-        <v>8.064250956406857</v>
+        <v>8.064250956476577</v>
       </c>
       <c r="R312" t="n">
         <v>25</v>
@@ -28248,13 +28316,13 @@
         <v>34.63</v>
       </c>
       <c r="J313" t="n">
-        <v>2091.686906140977</v>
+        <v>2091.686906333849</v>
       </c>
       <c r="K313" t="n">
         <v>2</v>
       </c>
       <c r="L313" t="n">
-        <v>2326.018995066452</v>
+        <v>2326.018995110267</v>
       </c>
       <c r="M313" t="n">
         <v>2</v>
@@ -28269,7 +28337,7 @@
         <v>2</v>
       </c>
       <c r="Q313" t="n">
-        <v>8.027098646754034</v>
+        <v>8.027098646786685</v>
       </c>
       <c r="R313" t="n">
         <v>25</v>
@@ -28341,13 +28409,13 @@
         <v>34.53</v>
       </c>
       <c r="J314" t="n">
-        <v>2108.97333189762</v>
+        <v>2108.973301086723</v>
       </c>
       <c r="K314" t="n">
         <v>2</v>
       </c>
       <c r="L314" t="n">
-        <v>2318.912116982201</v>
+        <v>2318.912116612586</v>
       </c>
       <c r="M314" t="n">
         <v>2</v>
@@ -28362,7 +28430,7 @@
         <v>2</v>
       </c>
       <c r="Q314" t="n">
-        <v>7.985504672553655</v>
+        <v>7.985504672378591</v>
       </c>
       <c r="R314" t="n">
         <v>25</v>
@@ -28442,13 +28510,13 @@
         <v>34.82</v>
       </c>
       <c r="J315" t="n">
-        <v>2142.294440927124</v>
+        <v>2142.294440970071</v>
       </c>
       <c r="K315" t="n">
         <v>2</v>
       </c>
       <c r="L315" t="n">
-        <v>2310.931298478477</v>
+        <v>2310.931298495729</v>
       </c>
       <c r="M315" t="n">
         <v>2</v>
@@ -28463,7 +28531,7 @@
         <v>2</v>
       </c>
       <c r="Q315" t="n">
-        <v>7.894694897711473</v>
+        <v>7.894694897723445</v>
       </c>
       <c r="R315" t="n">
         <v>25</v>
@@ -28531,13 +28599,13 @@
         <v>34.41</v>
       </c>
       <c r="J316" t="n">
-        <v>2144.776882500287</v>
+        <v>2144.7768825005</v>
       </c>
       <c r="K316" t="n">
         <v>2</v>
       </c>
       <c r="L316" t="n">
-        <v>2305.437988656603</v>
+        <v>2305.437988628528</v>
       </c>
       <c r="M316" t="n">
         <v>2</v>
@@ -28552,7 +28620,7 @@
         <v>2</v>
       </c>
       <c r="Q316" t="n">
-        <v>7.875950596731271</v>
+        <v>7.875950596714927</v>
       </c>
       <c r="R316" t="n">
         <v>25</v>
@@ -28620,13 +28688,13 @@
         <v>34</v>
       </c>
       <c r="J317" t="n">
-        <v>2076.294654564358</v>
+        <v>2076.294658095049</v>
       </c>
       <c r="K317" t="n">
         <v>2</v>
       </c>
       <c r="L317" t="n">
-        <v>2327.763247847899</v>
+        <v>2327.763247875383</v>
       </c>
       <c r="M317" t="n">
         <v>2</v>
@@ -28641,7 +28709,7 @@
         <v>2</v>
       </c>
       <c r="Q317" t="n">
-        <v>8.067174919608274</v>
+        <v>8.06717491962657</v>
       </c>
       <c r="R317" t="n">
         <v>25</v>
@@ -28810,13 +28878,13 @@
         <v>34.63</v>
       </c>
       <c r="J319" t="n">
-        <v>2158.042287668431</v>
+        <v>2158.042276226959</v>
       </c>
       <c r="K319" t="n">
         <v>2</v>
       </c>
       <c r="L319" t="n">
-        <v>2321.224793280962</v>
+        <v>2321.224792869636</v>
       </c>
       <c r="M319" t="n">
         <v>2</v>
@@ -28831,7 +28899,7 @@
         <v>2</v>
       </c>
       <c r="Q319" t="n">
-        <v>7.886346144975706</v>
+        <v>7.886346144979297</v>
       </c>
       <c r="R319" t="n">
         <v>25</v>
@@ -28899,13 +28967,13 @@
         <v>34.68</v>
       </c>
       <c r="J320" t="n">
-        <v>2137.980979473793</v>
+        <v>2137.980933997759</v>
       </c>
       <c r="K320" t="n">
         <v>2</v>
       </c>
       <c r="L320" t="n">
-        <v>2309.947549520266</v>
+        <v>2309.947549061205</v>
       </c>
       <c r="M320" t="n">
         <v>2</v>
@@ -28920,7 +28988,7 @@
         <v>2</v>
       </c>
       <c r="Q320" t="n">
-        <v>7.907523805626774</v>
+        <v>7.907523805416497</v>
       </c>
       <c r="R320" t="n">
         <v>25</v>
@@ -28988,13 +29056,13 @@
         <v>34.63</v>
       </c>
       <c r="J321" t="n">
-        <v>2102.875501666334</v>
+        <v>2102.875501609693</v>
       </c>
       <c r="K321" t="n">
         <v>2</v>
       </c>
       <c r="L321" t="n">
-        <v>2313.89016692043</v>
+        <v>2313.890166933717</v>
       </c>
       <c r="M321" t="n">
         <v>2</v>
@@ -29009,7 +29077,7 @@
         <v>2</v>
       </c>
       <c r="Q321" t="n">
-        <v>7.987580201500198</v>
+        <v>7.987580201506078</v>
       </c>
       <c r="R321" t="n">
         <v>25</v>
@@ -29077,13 +29145,13 @@
         <v>34.73</v>
       </c>
       <c r="J322" t="n">
-        <v>2099.235277266506</v>
+        <v>2099.235277367016</v>
       </c>
       <c r="K322" t="n">
         <v>2</v>
       </c>
       <c r="L322" t="n">
-        <v>2313.843166844234</v>
+        <v>2313.843166857333</v>
       </c>
       <c r="M322" t="n">
         <v>2</v>
@@ -29098,7 +29166,7 @@
         <v>2</v>
       </c>
       <c r="Q322" t="n">
-        <v>7.982981501975107</v>
+        <v>7.982981501986864</v>
       </c>
       <c r="R322" t="n">
         <v>25</v>
@@ -29168,13 +29236,13 @@
         <v>35.04</v>
       </c>
       <c r="J323" t="n">
-        <v>2141.712586155083</v>
+        <v>2141.712586197336</v>
       </c>
       <c r="K323" t="n">
         <v>2</v>
       </c>
       <c r="L323" t="n">
-        <v>2316.917322236957</v>
+        <v>2316.917322249685</v>
       </c>
       <c r="M323" t="n">
         <v>2</v>
@@ -29189,7 +29257,7 @@
         <v>2</v>
       </c>
       <c r="Q323" t="n">
-        <v>7.898542457966486</v>
+        <v>7.898542457976611</v>
       </c>
       <c r="R323" t="n">
         <v>25</v>
@@ -29265,7 +29333,7 @@
         <v>9</v>
       </c>
       <c r="L324" t="n">
-        <v>2315.850960235503</v>
+        <v>2315.850960200223</v>
       </c>
       <c r="M324" t="n">
         <v>2</v>
@@ -29280,7 +29348,7 @@
         <v>2</v>
       </c>
       <c r="Q324" t="n">
-        <v>7.384917333016329</v>
+        <v>7.384917332994553</v>
       </c>
       <c r="R324" t="n">
         <v>25</v>
@@ -29348,13 +29416,13 @@
         <v>34</v>
       </c>
       <c r="J325" t="n">
-        <v>2108.301516455917</v>
+        <v>2108.301519815235</v>
       </c>
       <c r="K325" t="n">
         <v>2</v>
       </c>
       <c r="L325" t="n">
-        <v>2309.711594166216</v>
+        <v>2309.711594191683</v>
       </c>
       <c r="M325" t="n">
         <v>2</v>
@@ -29369,7 +29437,7 @@
         <v>2</v>
       </c>
       <c r="Q325" t="n">
-        <v>7.976469234116826</v>
+        <v>7.976469234132846</v>
       </c>
       <c r="R325" t="n">
         <v>25</v>
@@ -29437,13 +29505,13 @@
         <v>34.76</v>
       </c>
       <c r="J326" t="n">
-        <v>2079.247908536728</v>
+        <v>2079.247908463332</v>
       </c>
       <c r="K326" t="n">
         <v>2</v>
       </c>
       <c r="L326" t="n">
-        <v>2301.367022436578</v>
+        <v>2301.367022458485</v>
       </c>
       <c r="M326" t="n">
         <v>2</v>
@@ -29458,7 +29526,7 @@
         <v>2</v>
       </c>
       <c r="Q326" t="n">
-        <v>8.011138437987393</v>
+        <v>8.01113843799989</v>
       </c>
       <c r="R326" t="n">
         <v>25</v>
@@ -29526,13 +29594,13 @@
         <v>34.74</v>
       </c>
       <c r="J327" t="n">
-        <v>2147.145033484653</v>
+        <v>2147.145029031733</v>
       </c>
       <c r="K327" t="n">
         <v>2</v>
       </c>
       <c r="L327" t="n">
-        <v>2303.285269975329</v>
+        <v>2303.28526964129</v>
       </c>
       <c r="M327" t="n">
         <v>2</v>
@@ -29547,7 +29615,7 @@
         <v>2</v>
       </c>
       <c r="Q327" t="n">
-        <v>7.878112457367916</v>
+        <v>7.878112457406878</v>
       </c>
       <c r="R327" t="n">
         <v>25</v>
@@ -29615,13 +29683,13 @@
         <v>34.86</v>
       </c>
       <c r="J328" t="n">
-        <v>2122.731580097813</v>
+        <v>2122.731538234415</v>
       </c>
       <c r="K328" t="n">
         <v>2</v>
       </c>
       <c r="L328" t="n">
-        <v>2316.139345814426</v>
+        <v>2316.139345379954</v>
       </c>
       <c r="M328" t="n">
         <v>2</v>
@@ -29636,7 +29704,7 @@
         <v>2</v>
       </c>
       <c r="Q328" t="n">
-        <v>7.95191094838984</v>
+        <v>7.95191094818875</v>
       </c>
       <c r="R328" t="n">
         <v>25</v>
@@ -29704,13 +29772,13 @@
         <v>34.81</v>
       </c>
       <c r="J329" t="n">
-        <v>2104.459115133453</v>
+        <v>2104.459115075631</v>
       </c>
       <c r="K329" t="n">
         <v>2</v>
       </c>
       <c r="L329" t="n">
-        <v>2311.696954655406</v>
+        <v>2311.696954676532</v>
       </c>
       <c r="M329" t="n">
         <v>2</v>
@@ -29725,7 +29793,7 @@
         <v>2</v>
       </c>
       <c r="Q329" t="n">
-        <v>7.978946883490839</v>
+        <v>7.978946883502418</v>
       </c>
       <c r="R329" t="n">
         <v>25</v>
@@ -29793,13 +29861,13 @@
         <v>34.68</v>
       </c>
       <c r="J330" t="n">
-        <v>2131.253065896607</v>
+        <v>2131.253065901589</v>
       </c>
       <c r="K330" t="n">
         <v>2</v>
       </c>
       <c r="L330" t="n">
-        <v>2301.693519913455</v>
+        <v>2301.693519896674</v>
       </c>
       <c r="M330" t="n">
         <v>2</v>
@@ -29814,7 +29882,7 @@
         <v>3</v>
       </c>
       <c r="Q330" t="n">
-        <v>7.889718569821462</v>
+        <v>7.889718569814455</v>
       </c>
       <c r="R330" t="n">
         <v>25</v>
@@ -30395,13 +30463,13 @@
         <v>33.42</v>
       </c>
       <c r="J336" t="n">
-        <v>2131.614916607639</v>
+        <v>2131.614916556352</v>
       </c>
       <c r="K336" t="n">
         <v>2</v>
       </c>
       <c r="L336" t="n">
-        <v>2365.118874830438</v>
+        <v>2365.118874804345</v>
       </c>
       <c r="M336" t="n">
         <v>2</v>
@@ -30420,7 +30488,7 @@
         <v>9</v>
       </c>
       <c r="Q336" t="n">
-        <v>8.03769778781224</v>
+        <v>8.037697787793904</v>
       </c>
       <c r="R336" t="n">
         <v>25</v>
@@ -30589,13 +30657,13 @@
         <v>33.78</v>
       </c>
       <c r="J338" t="n">
-        <v>2108.731676531938</v>
+        <v>2108.731711078618</v>
       </c>
       <c r="K338" t="n">
         <v>2</v>
       </c>
       <c r="L338" t="n">
-        <v>2349.094773209395</v>
+        <v>2349.094773449227</v>
       </c>
       <c r="M338" t="n">
         <v>2</v>
@@ -30610,7 +30678,7 @@
         <v>2</v>
       </c>
       <c r="Q338" t="n">
-        <v>8.046290257006296</v>
+        <v>8.046290257099329</v>
       </c>
       <c r="R338" t="n">
         <v>25</v>
@@ -30678,13 +30746,13 @@
         <v>33.65</v>
       </c>
       <c r="J339" t="n">
-        <v>2110.94834607349</v>
+        <v>2110.948346080605</v>
       </c>
       <c r="K339" t="n">
         <v>2</v>
       </c>
       <c r="L339" t="n">
-        <v>2363.158669804441</v>
+        <v>2363.158669796986</v>
       </c>
       <c r="M339" t="n">
         <v>2</v>
@@ -30699,7 +30767,7 @@
         <v>2</v>
       </c>
       <c r="Q339" t="n">
-        <v>8.068463151177129</v>
+        <v>8.068463151168823</v>
       </c>
       <c r="R339" t="n">
         <v>25</v>
@@ -30767,13 +30835,13 @@
         <v>33.38</v>
       </c>
       <c r="J340" t="n">
-        <v>2139.674026426695</v>
+        <v>2139.67402636816</v>
       </c>
       <c r="K340" t="n">
         <v>2</v>
       </c>
       <c r="L340" t="n">
-        <v>2368.841018842655</v>
+        <v>2368.841018861339</v>
       </c>
       <c r="M340" t="n">
         <v>2</v>
@@ -30788,7 +30856,7 @@
         <v>2</v>
       </c>
       <c r="Q340" t="n">
-        <v>8.023720650539023</v>
+        <v>8.023720650548764</v>
       </c>
       <c r="R340" t="n">
         <v>25</v>
@@ -30856,13 +30924,13 @@
         <v>33.27</v>
       </c>
       <c r="J341" t="n">
-        <v>2127.01981126104</v>
+        <v>2127.019811227512</v>
       </c>
       <c r="K341" t="n">
         <v>2</v>
       </c>
       <c r="L341" t="n">
-        <v>2366.413308648738</v>
+        <v>2366.413308631766</v>
       </c>
       <c r="M341" t="n">
         <v>2</v>
@@ -30877,7 +30945,7 @@
         <v>2</v>
       </c>
       <c r="Q341" t="n">
-        <v>8.050236545337489</v>
+        <v>8.050236545322042</v>
       </c>
       <c r="R341" t="n">
         <v>25</v>
@@ -30945,13 +31013,13 @@
         <v>33.25</v>
       </c>
       <c r="J342" t="n">
-        <v>2130.031478791219</v>
+        <v>2130.031491759298</v>
       </c>
       <c r="K342" t="n">
         <v>2</v>
       </c>
       <c r="L342" t="n">
-        <v>2371.552992924714</v>
+        <v>2371.552993008343</v>
       </c>
       <c r="M342" t="n">
         <v>2</v>
@@ -30966,7 +31034,7 @@
         <v>2</v>
       </c>
       <c r="Q342" t="n">
-        <v>8.048094409133835</v>
+        <v>8.048094409162823</v>
       </c>
       <c r="R342" t="n">
         <v>25</v>
@@ -31034,13 +31102,13 @@
         <v>33.24</v>
       </c>
       <c r="J343" t="n">
-        <v>2126.602940054159</v>
+        <v>2126.602944698146</v>
       </c>
       <c r="K343" t="n">
         <v>2</v>
       </c>
       <c r="L343" t="n">
-        <v>2361.838176232488</v>
+        <v>2361.838176250219</v>
       </c>
       <c r="M343" t="n">
         <v>2</v>
@@ -31055,7 +31123,7 @@
         <v>2</v>
       </c>
       <c r="Q343" t="n">
-        <v>8.037130660246342</v>
+        <v>8.037130660255807</v>
       </c>
       <c r="R343" t="n">
         <v>25</v>
@@ -31123,13 +31191,13 @@
         <v>33.41</v>
       </c>
       <c r="J344" t="n">
-        <v>2137.371353603171</v>
+        <v>2137.37135351614</v>
       </c>
       <c r="K344" t="n">
         <v>2</v>
       </c>
       <c r="L344" t="n">
-        <v>2364.165980178594</v>
+        <v>2364.165980129427</v>
       </c>
       <c r="M344" t="n">
         <v>2</v>
@@ -31144,7 +31212,7 @@
         <v>2</v>
       </c>
       <c r="Q344" t="n">
-        <v>8.01514594375109</v>
+        <v>8.015145943723299</v>
       </c>
       <c r="R344" t="n">
         <v>25</v>
@@ -31915,13 +31983,13 @@
         <v>34.07</v>
       </c>
       <c r="J352" t="n">
-        <v>2102.572415117923</v>
+        <v>2102.572415116989</v>
       </c>
       <c r="K352" t="n">
         <v>2</v>
       </c>
       <c r="L352" t="n">
-        <v>2337.613429236824</v>
+        <v>2337.61342937567</v>
       </c>
       <c r="M352" t="n">
         <v>2</v>
@@ -31936,7 +32004,7 @@
         <v>3</v>
       </c>
       <c r="Q352" t="n">
-        <v>8.044678784769186</v>
+        <v>8.04467878481438</v>
       </c>
       <c r="R352" t="n">
         <v>25</v>
@@ -32004,13 +32072,13 @@
         <v>33.94</v>
       </c>
       <c r="J353" t="n">
-        <v>2114.411833453617</v>
+        <v>2114.411833460895</v>
       </c>
       <c r="K353" t="n">
         <v>2</v>
       </c>
       <c r="L353" t="n">
-        <v>2353.579393794793</v>
+        <v>2353.57939380023</v>
       </c>
       <c r="M353" t="n">
         <v>2</v>
@@ -32025,7 +32093,7 @@
         <v>2</v>
       </c>
       <c r="Q353" t="n">
-        <v>8.042014722069117</v>
+        <v>8.042014722067933</v>
       </c>
       <c r="R353" t="n">
         <v>25</v>
@@ -32093,13 +32161,13 @@
         <v>33.81</v>
       </c>
       <c r="J354" t="n">
-        <v>2136.186651176815</v>
+        <v>2136.186651118614</v>
       </c>
       <c r="K354" t="n">
         <v>2</v>
       </c>
       <c r="L354" t="n">
-        <v>2359.889698602045</v>
+        <v>2359.889698635141</v>
       </c>
       <c r="M354" t="n">
         <v>2</v>
@@ -32114,7 +32182,7 @@
         <v>2</v>
       </c>
       <c r="Q354" t="n">
-        <v>8.01430148643235</v>
+        <v>8.0143014864516</v>
       </c>
       <c r="R354" t="n">
         <v>25</v>
@@ -32182,13 +32250,13 @@
         <v>33.6</v>
       </c>
       <c r="J355" t="n">
-        <v>2128.749627743523</v>
+        <v>2128.749627716857</v>
       </c>
       <c r="K355" t="n">
         <v>2</v>
       </c>
       <c r="L355" t="n">
-        <v>2367.19728111557</v>
+        <v>2367.197281084242</v>
       </c>
       <c r="M355" t="n">
         <v>2</v>
@@ -32203,7 +32271,7 @@
         <v>2</v>
       </c>
       <c r="Q355" t="n">
-        <v>8.041221174623477</v>
+        <v>8.041221174599771</v>
       </c>
       <c r="R355" t="n">
         <v>25</v>
@@ -32271,13 +32339,13 @@
         <v>33.68</v>
       </c>
       <c r="J356" t="n">
-        <v>2129.390203016958</v>
+        <v>2129.39021547136</v>
       </c>
       <c r="K356" t="n">
         <v>2</v>
       </c>
       <c r="L356" t="n">
-        <v>2366.802119839871</v>
+        <v>2366.802119931115</v>
       </c>
       <c r="M356" t="n">
         <v>2</v>
@@ -32292,7 +32360,7 @@
         <v>2</v>
       </c>
       <c r="Q356" t="n">
-        <v>8.042128507186961</v>
+        <v>8.042128507222113</v>
       </c>
       <c r="R356" t="n">
         <v>25</v>
@@ -32360,13 +32428,13 @@
         <v>33.47</v>
       </c>
       <c r="J357" t="n">
-        <v>2136.704107518902</v>
+        <v>2136.704110483779</v>
       </c>
       <c r="K357" t="n">
         <v>2</v>
       </c>
       <c r="L357" t="n">
-        <v>2362.824482433351</v>
+        <v>2362.824482369135</v>
       </c>
       <c r="M357" t="n">
         <v>2</v>
@@ -32385,7 +32453,7 @@
         <v>9</v>
       </c>
       <c r="Q357" t="n">
-        <v>8.012013212456694</v>
+        <v>8.012013212412761</v>
       </c>
       <c r="R357" t="n">
         <v>25</v>
@@ -32453,13 +32521,13 @@
         <v>34.14</v>
       </c>
       <c r="J358" t="n">
-        <v>2155.397845058193</v>
+        <v>2155.397844882992</v>
       </c>
       <c r="K358" t="n">
         <v>2</v>
       </c>
       <c r="L358" t="n">
-        <v>2352.263867369377</v>
+        <v>2352.263867401277</v>
       </c>
       <c r="M358" t="n">
         <v>2</v>
@@ -32474,7 +32542,7 @@
         <v>3</v>
       </c>
       <c r="Q358" t="n">
-        <v>7.950459563728992</v>
+        <v>7.950459563753201</v>
       </c>
       <c r="R358" t="n">
         <v>25</v>
